--- a/files/GlosarioT3.xlsx
+++ b/files/GlosarioT3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\T3Glossary\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0626E849-0C55-491A-9928-0B0504EE23E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12780" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="join" sheetId="1" r:id="rId1"/>
@@ -22,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="englishspanish" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="englishspanish" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr sourceFile="D:\T3\Diccionario\englishspanish.txt" thousands="." delimiter=":">
       <textFields count="3">
         <textField/>
@@ -32,7 +38,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="ingles" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="ingles" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="D:\T3\Diccionario\ingles.txt" thousands="." delimiter=":">
       <textFields count="2">
         <textField/>
@@ -44,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="513">
   <si>
     <t>english</t>
   </si>
@@ -1547,12 +1553,48 @@
   </si>
   <si>
     <t>La comprensión de una persona de un tema.</t>
+  </si>
+  <si>
+    <t>Tener a las/os estudiantes produciendo artefactos para contribuir al aprendizaje de otros.</t>
+  </si>
+  <si>
+    <t>Alguien que necesita saber lo suficiente sobre computación para tener una conversación significativa con un programador, pero no que va a programar por sí mismo.</t>
+  </si>
+  <si>
+    <t>Un estilo de enseñanza que introduce conceptos informáticos utilizando ejemplos y artefactos que no son de programación.</t>
+  </si>
+  <si>
+    <t>Un curso introductorio de nivel universitario sobre computación dirigido a estudiantes no avanzados con poca o ninguna experiencia previa en programación.</t>
+  </si>
+  <si>
+    <t>Un curso introductorio de ciencias de la computación a nivel universitario, generalmente de un semestre, que se enfoca en variables, bucles, funciones y otras mecánicas básicas.</t>
+  </si>
+  <si>
+    <t>Un segundo curso de ciencias de la computación de nivel universitario que generalmente presenta estructuras de datos básicas como pilas, colas y diccionarios.</t>
+  </si>
+  <si>
+    <t>La idea de que algunos grupos están subrepresentados en informática (o algún otro campo) porque sus miembros carecen de algún atributo o calidad.</t>
+  </si>
+  <si>
+    <t>El acto de observar el desempeño de una tarea mientras se realiza para mejorar la capacidad.</t>
+  </si>
+  <si>
+    <t>Una lección dictada por un/a docente a estudiantes reales mientras otras/os docentes observan para aprender nuevas técnicas de enseñanza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El grado en que una respuesta incorrecta a una pregunta o ejercicio le dice al docente qué conceptos erróneos tiene un/a estudiante en particular.</t>
+  </si>
+  <si>
+    <t>Un método de enseñanza centrado en un diseño curricular meticuloso dictado a través de guiones pre-escritos.</t>
+  </si>
+  <si>
+    <t>La tendencia de las personas que solo saben un poco sobre un tema a estimar incorrectamente su comprensión del mismo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1612,16 +1654,19 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ingles" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ingles" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="englishspanish_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="englishspanish_1" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1667,7 +1712,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1700,9 +1745,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1735,6 +1797,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1910,7 +1989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1960,10 +2039,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -3130,10 +3209,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -5406,18 +5485,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G146"/>
+  <autoFilter ref="A1:G146" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,60 +5760,96 @@
       <c r="A28" t="s">
         <v>378</v>
       </c>
+      <c r="B28" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>379</v>
       </c>
+      <c r="B29" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>381</v>
       </c>
+      <c r="B30" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>147</v>
       </c>
+      <c r="B31" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>148</v>
       </c>
+      <c r="B32" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>149</v>
       </c>
+      <c r="B33" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>409</v>
       </c>
+      <c r="B34" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>410</v>
       </c>
+      <c r="B35" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>411</v>
       </c>
+      <c r="B36" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>219</v>
       </c>
+      <c r="B37" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>412</v>
       </c>
+      <c r="B38" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>220</v>
+      </c>
+      <c r="B39" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">

--- a/files/GlosarioT3.xlsx
+++ b/files/GlosarioT3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\T3Glossary\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0626E849-0C55-491A-9928-0B0504EE23E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059C4853-5B15-4183-A866-967BBBAD76CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="526">
   <si>
     <t>english</t>
   </si>
@@ -1204,12 +1204,6 @@
     <t>Agotamiento del ego.</t>
   </si>
   <si>
-    <t>Docente usuario final.</t>
-  </si>
-  <si>
-    <t>Programador usuario final.</t>
-  </si>
-  <si>
     <t>Practicantes competentes.</t>
   </si>
   <si>
@@ -1237,9 +1231,6 @@
     <t>Cognición externalizada</t>
   </si>
   <si>
-    <t>Eemplos desvanecidos.</t>
-  </si>
-  <si>
     <t>Transferencia lejana.</t>
   </si>
   <si>
@@ -1589,6 +1580,54 @@
   </si>
   <si>
     <t>La tendencia de las personas que solo saben un poco sobre un tema a estimar incorrectamente su comprensión del mismo.</t>
+  </si>
+  <si>
+    <t>El estudio de cómo la gente aprende</t>
+  </si>
+  <si>
+    <t>El deterioro del autocontrol debido del uso prolongado o intensivo. Trabajo recientes no han podido corroborar su existencia.</t>
+  </si>
+  <si>
+    <t>Una breve descripción de una idea, proyecto, producto o persona que se puede dar y comprender en solo unos segundos.</t>
+  </si>
+  <si>
+    <t>Usuario final programador.</t>
+  </si>
+  <si>
+    <t>Alguien que no se considera un programador, pero que, sin embargo, escribe y depura software, como por ejemplo, un artista que crea macros complejas para una herramienta de dibujo</t>
+  </si>
+  <si>
+    <t>Usuario final docente.</t>
+  </si>
+  <si>
+    <t>Por analogía con usuario final programador, alguien que enseña con frecuencia, pero cuya ocupación principal no es la enseñanza, que tiene poca o ninguna experiencia en pedagogía y que puede trabajar fuera de las aulas institucionales.</t>
+  </si>
+  <si>
+    <t>Alguien que puede diagnosticar y manejar situaciones inusuales, sabe cuándo no se aplican las reglas habituales y tiende a reconocer soluciones en lugar de razonarlas.</t>
+  </si>
+  <si>
+    <t>La incapacidad de las personas expertas para empatizar con las personas novatas que se encuentran por primera vez con conceptos o prácticas.</t>
+  </si>
+  <si>
+    <t>La forma en que la instrucción que es efectiva para los novatos se vuelve ineficaz para los profesionales competentes o expertos.</t>
+  </si>
+  <si>
+    <t>El uso de ayuda gráfica, física o verbal para aumentar el pensamiento.</t>
+  </si>
+  <si>
+    <t>Cualquier carga cognitiva que distrae del aprendizaje.</t>
+  </si>
+  <si>
+    <t>Motivación extrínseca.</t>
+  </si>
+  <si>
+    <t>Ser impulsado por recompensas externas como el pago o el miedo al castigo.</t>
+  </si>
+  <si>
+    <t>Ejemplos desvanecidos.</t>
+  </si>
+  <si>
+    <t>Una serie de ejemplos en los que se borra un número cada vez mayor de pasos clave.</t>
   </si>
 </sst>
 </file>
@@ -3212,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3241,10 +3280,10 @@
         <v>215</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3404,7 +3443,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3491,7 +3530,7 @@
         <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3533,13 +3572,13 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C21" t="s">
         <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3626,10 +3665,10 @@
         <v>377</v>
       </c>
       <c r="C27" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D27" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3733,7 +3772,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3747,7 +3786,7 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3761,7 +3800,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3789,7 +3828,7 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3845,7 +3884,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3859,7 +3898,7 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>385</v>
+        <v>513</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3873,7 +3912,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>384</v>
+        <v>515</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3887,10 +3926,10 @@
         <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C45" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D45" t="s">
         <v>206</v>
@@ -3921,7 +3960,7 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E47" t="s">
         <v>380</v>
@@ -3938,7 +3977,7 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E48" t="s">
         <v>380</v>
@@ -3972,7 +4011,7 @@
         <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3986,7 +4025,7 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>395</v>
+        <v>524</v>
       </c>
       <c r="E51" t="s">
         <v>380</v>
@@ -4020,7 +4059,7 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E53" t="s">
         <v>380</v>
@@ -4054,7 +4093,7 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -4068,7 +4107,7 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -4082,7 +4121,7 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4096,7 +4135,7 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -4127,7 +4166,7 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E60" t="s">
         <v>380</v>
@@ -4155,13 +4194,13 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C62" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D62" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E62" t="s">
         <v>380</v>
@@ -4192,7 +4231,7 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4206,10 +4245,10 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C65" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E65" t="s">
         <v>380</v>
@@ -4226,7 +4265,7 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -4254,7 +4293,7 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E68" t="s">
         <v>380</v>
@@ -4271,7 +4310,7 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E69" t="s">
         <v>380</v>
@@ -4316,7 +4355,7 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E72" t="s">
         <v>380</v>
@@ -4333,7 +4372,7 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C73" t="s">
         <v>382</v>
@@ -4350,7 +4389,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -4364,7 +4403,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C75" t="s">
         <v>150</v>
@@ -4409,7 +4448,7 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E78" t="s">
         <v>380</v>
@@ -4440,7 +4479,7 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4454,7 +4493,7 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -4468,7 +4507,7 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -4482,7 +4521,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4597,7 +4636,7 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E91" t="s">
         <v>380</v>
@@ -4614,7 +4653,7 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E92" t="s">
         <v>380</v>
@@ -4631,7 +4670,7 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4659,13 +4698,13 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C95" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D95" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4679,7 +4718,7 @@
         <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4693,7 +4732,7 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4752,13 +4791,13 @@
         <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C101" t="s">
         <v>377</v>
       </c>
       <c r="D101" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E101" t="s">
         <v>380</v>
@@ -4865,7 +4904,7 @@
         <v>212</v>
       </c>
       <c r="C108" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -4893,7 +4932,7 @@
         <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -4907,10 +4946,10 @@
         <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C111" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -4938,7 +4977,7 @@
         <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E113" t="s">
         <v>380</v>
@@ -4969,7 +5008,7 @@
         <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5025,7 +5064,7 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -5039,7 +5078,7 @@
         <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E120" t="s">
         <v>380</v>
@@ -5070,7 +5109,7 @@
         <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -5084,7 +5123,7 @@
         <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E123" t="s">
         <v>380</v>
@@ -5115,7 +5154,7 @@
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E125" t="s">
         <v>380</v>
@@ -5132,13 +5171,13 @@
         <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C126" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D126" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E126" t="s">
         <v>380</v>
@@ -5155,7 +5194,7 @@
         <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E127" t="s">
         <v>380</v>
@@ -5214,7 +5253,7 @@
         <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C131" t="s">
         <v>212</v>
@@ -5248,10 +5287,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E133" t="s">
         <v>163</v>
@@ -5265,10 +5304,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E134" t="s">
         <v>163</v>
@@ -5282,10 +5321,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E135" t="s">
         <v>163</v>
@@ -5299,10 +5338,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E136" t="s">
         <v>163</v>
@@ -5316,10 +5355,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E137" t="s">
         <v>163</v>
@@ -5333,10 +5372,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B138" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E138" t="s">
         <v>163</v>
@@ -5350,10 +5389,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E139" t="s">
         <v>163</v>
@@ -5367,10 +5406,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E140" t="s">
         <v>163</v>
@@ -5384,10 +5423,10 @@
     </row>
     <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E141" t="s">
         <v>163</v>
@@ -5401,10 +5440,10 @@
     </row>
     <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E142" t="s">
         <v>163</v>
@@ -5418,10 +5457,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E143" t="s">
         <v>163</v>
@@ -5435,10 +5474,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E144" t="s">
         <v>163</v>
@@ -5452,10 +5491,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E145" t="s">
         <v>163</v>
@@ -5469,10 +5508,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E146" t="s">
         <v>163</v>
@@ -5495,8 +5534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5512,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>224</v>
@@ -5529,7 +5568,7 @@
         <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -5540,7 +5579,7 @@
         <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C3" t="s">
         <v>158</v>
@@ -5551,7 +5590,7 @@
         <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C4" t="s">
         <v>208</v>
@@ -5562,7 +5601,7 @@
         <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5570,7 +5609,7 @@
         <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5578,10 +5617,10 @@
         <v>371</v>
       </c>
       <c r="B7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5589,7 +5628,7 @@
         <v>372</v>
       </c>
       <c r="B8" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5597,7 +5636,7 @@
         <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C9" t="s">
         <v>197</v>
@@ -5608,7 +5647,7 @@
         <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5616,15 +5655,15 @@
         <v>373</v>
       </c>
       <c r="B11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5632,7 +5671,7 @@
         <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5640,7 +5679,7 @@
         <v>374</v>
       </c>
       <c r="B14" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5648,7 +5687,7 @@
         <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5656,7 +5695,7 @@
         <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5664,7 +5703,7 @@
         <v>192</v>
       </c>
       <c r="B17" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5672,10 +5711,10 @@
         <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5683,7 +5722,7 @@
         <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5691,21 +5730,21 @@
         <v>375</v>
       </c>
       <c r="B20" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B21" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C21" t="s">
         <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5713,7 +5752,7 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5721,7 +5760,7 @@
         <v>376</v>
       </c>
       <c r="B23" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5729,7 +5768,7 @@
         <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5737,7 +5776,7 @@
         <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5745,7 +5784,7 @@
         <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5753,7 +5792,7 @@
         <v>377</v>
       </c>
       <c r="B27" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5761,7 +5800,7 @@
         <v>378</v>
       </c>
       <c r="B28" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5769,7 +5808,7 @@
         <v>379</v>
       </c>
       <c r="B29" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5777,7 +5816,7 @@
         <v>381</v>
       </c>
       <c r="B30" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5785,7 +5824,7 @@
         <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5793,7 +5832,7 @@
         <v>148</v>
       </c>
       <c r="B32" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5801,31 +5840,31 @@
         <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B34" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B35" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B36" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5833,15 +5872,15 @@
         <v>219</v>
       </c>
       <c r="B37" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B38" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5849,41 +5888,61 @@
         <v>220</v>
       </c>
       <c r="B39" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>382</v>
       </c>
+      <c r="B40" t="s">
+        <v>510</v>
+      </c>
+      <c r="C40" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>383</v>
       </c>
+      <c r="B41" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>393</v>
+        <v>391</v>
+      </c>
+      <c r="B42" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>385</v>
+        <v>513</v>
+      </c>
+      <c r="B43" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>515</v>
+      </c>
+      <c r="B44" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C45" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s">
-        <v>386</v>
       </c>
       <c r="D45" t="s">
         <v>206</v>
@@ -5893,33 +5952,54 @@
       <c r="A46" t="s">
         <v>194</v>
       </c>
+      <c r="B46" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>390</v>
+        <v>388</v>
+      </c>
+      <c r="B47" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>394</v>
+        <v>392</v>
+      </c>
+      <c r="B48" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>195</v>
       </c>
+      <c r="B49" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>522</v>
+      </c>
+      <c r="B50" t="s">
+        <v>523</v>
       </c>
       <c r="C50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>395</v>
+        <v>524</v>
+      </c>
+      <c r="B51" t="s">
+        <v>525</v>
+      </c>
+      <c r="C51" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5932,7 +6012,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5945,22 +6025,22 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -5973,18 +6053,18 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C62" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D62" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -5994,20 +6074,20 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C65" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6017,12 +6097,12 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6037,12 +6117,12 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C73" t="s">
         <v>382</v>
@@ -6050,12 +6130,12 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C75" t="s">
         <v>150</v>
@@ -6073,7 +6153,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6083,22 +6163,22 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -6141,17 +6221,17 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -6161,23 +6241,23 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C95" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D95" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -6200,13 +6280,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C101" t="s">
         <v>377</v>
       </c>
       <c r="D101" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -6247,7 +6327,7 @@
         <v>212</v>
       </c>
       <c r="C108" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -6257,15 +6337,15 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C111" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -6275,7 +6355,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -6285,7 +6365,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -6305,12 +6385,12 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -6320,12 +6400,12 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -6335,23 +6415,23 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C126" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D126" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -6369,7 +6449,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C131" t="s">
         <v>212</v>

--- a/files/GlosarioT3.xlsx
+++ b/files/GlosarioT3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\T3Glossary\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059C4853-5B15-4183-A866-967BBBAD76CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BA1F30-FB42-4344-B5A3-78E7184734C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="531">
   <si>
     <t>english</t>
   </si>
@@ -871,27 +871,6 @@
     <t xml:space="preserve"> The transfer of learning between widely-separated domains, e.g.\ improvement in math skills as a result of playing chess.</t>
   </si>
   <si>
-    <t xml:space="preserve"> A six-part non-hierarchical classification of understanding first proposed in Fink2013 whose categories are foundational knowledge, application, integration, human dimension, caring, and learning how to learn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The belief that an ability is innate, and that failure is due to a lack of some necessary attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> One in which learners watch recorded lessons on their own time, while class time is used to work through problem sets and answer questions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The feeling of being fully immersed in an activity;frequently associated with high productivity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The ability to move quickly between different models of a problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Assessment that takes place during a lesson in order to give both the learner and the teacher feedback on actual understanding</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Someone learning outside an institutional classroom with required homework and mandated curriculum. (Those who use the term occasionally refer to learners in classrooms as "battery-farmed learners" but we don't because that would be rude.)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> A software testing technique based on generating and submitting random data.</t>
   </si>
   <si>
@@ -1285,9 +1264,6 @@
     <t>Flujo.</t>
   </si>
   <si>
-    <t>Alumna/o de rango libre.</t>
-  </si>
-  <si>
     <t>Conocimiento pedagógico general.</t>
   </si>
   <si>
@@ -1628,6 +1604,45 @@
   </si>
   <si>
     <t>Una serie de ejemplos en los que se borra un número cada vez mayor de pasos clave.</t>
+  </si>
+  <si>
+    <t>Alguien que ha estudiado un idioma antes pero lo está aprendiendo nuevamente. Los falsos principiantes comienzan en el mismo punto que los principiantes verdaderos (es decir, en una evaluación inicial mostrarán el mismo nivel de competencia) pero pueden avanzar mucho más rápidamente.</t>
+  </si>
+  <si>
+    <t>La transferencia de aprendizaje entre dominios ampliamente separados, por ejemplo, mejora en las habilidades matemáticas como resultado de jugar al ajedrez.</t>
+  </si>
+  <si>
+    <t>Transferencia de aprendizaje.</t>
+  </si>
+  <si>
+    <t>A six-part non-hierarchical classification of understanding first proposed in Fink2013 whose categories are foundational knowledge, application, integration, human dimension, caring, and learning how to learn</t>
+  </si>
+  <si>
+    <t>Una clasificación de comprensión no jerárquica de seis partes, propuesta por primera vez en Fink, 2013, cuyas categorías son conocimiento fundamental, aplicación, integración, dimensión humana, cuidado y aprender a aprender</t>
+  </si>
+  <si>
+    <t>The belief that an ability is innate, and that failure is due to a lack of some necessary attribute</t>
+  </si>
+  <si>
+    <t>La creencia de que una habilidad es innata y que el fracaso se debe a la falta de algún atributo necesario</t>
+  </si>
+  <si>
+    <t>Estudiante de rango libre.</t>
+  </si>
+  <si>
+    <t>One in which learners watch recorded lessons on their own time, while class time is used to work through problem sets and answer questions.</t>
+  </si>
+  <si>
+    <t>The feeling of being fully immersed in an activity;frequently associated with high productivity.</t>
+  </si>
+  <si>
+    <t>Assessment that takes place during a lesson in order to give both the learner and the teacher feedback on actual understanding</t>
+  </si>
+  <si>
+    <t>The ability to move quickly between different models of a problem.</t>
+  </si>
+  <si>
+    <t>Someone learning outside an institutional classroom with required homework and mandated curriculum. (Those who use the term occasionally refer to learners in classrooms as "battery-farmed learners" but we don't because that would be rude.)</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2097,7 @@
   <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>222</v>
@@ -2119,10 +2134,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2130,7 +2145,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
         <v>171</v>
@@ -2165,10 +2180,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C8" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2284,10 +2299,10 @@
         <v>242</v>
       </c>
       <c r="C21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D21" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2295,7 +2310,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2338,7 +2353,7 @@
         <v>247</v>
       </c>
       <c r="C27" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D27" t="s">
         <v>182</v>
@@ -2448,7 +2463,7 @@
         <v>260</v>
       </c>
       <c r="C40" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2488,7 +2503,7 @@
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C45" t="s">
         <v>181</v>
@@ -2548,7 +2563,7 @@
         <v>270</v>
       </c>
       <c r="C51" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2572,7 +2587,7 @@
         <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>273</v>
+        <v>521</v>
       </c>
       <c r="C54" t="s">
         <v>173</v>
@@ -2583,7 +2598,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>274</v>
+        <v>523</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -2594,7 +2609,7 @@
         <v>65</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>275</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2602,7 +2617,7 @@
         <v>66</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>276</v>
+        <v>527</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,7 +2625,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>277</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2618,7 +2633,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>278</v>
+        <v>528</v>
       </c>
       <c r="C59" t="s">
         <v>174</v>
@@ -2629,7 +2644,7 @@
         <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>279</v>
+        <v>530</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,7 +2652,7 @@
         <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,13 +2660,13 @@
         <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,7 +2674,7 @@
         <v>72</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2667,7 +2682,7 @@
         <v>73</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2675,10 +2690,10 @@
         <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C65" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2686,7 +2701,7 @@
         <v>75</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2694,15 +2709,15 @@
         <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2710,7 +2725,7 @@
         <v>78</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2718,7 +2733,7 @@
         <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2726,7 +2741,7 @@
         <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2734,7 +2749,7 @@
         <v>81</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2742,7 +2757,7 @@
         <v>82</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C73" t="s">
         <v>175</v>
@@ -2753,7 +2768,7 @@
         <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2761,7 +2776,7 @@
         <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
@@ -2772,7 +2787,7 @@
         <v>85</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2780,7 +2795,7 @@
         <v>86</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2788,7 +2803,7 @@
         <v>87</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2796,7 +2811,7 @@
         <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2804,7 +2819,7 @@
         <v>89</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,7 +2827,7 @@
         <v>90</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2820,15 +2835,15 @@
         <v>91</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2836,7 +2851,7 @@
         <v>93</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2844,7 +2859,7 @@
         <v>94</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C85" t="s">
         <v>176</v>
@@ -2855,7 +2870,7 @@
         <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2863,7 +2878,7 @@
         <v>96</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2871,7 +2886,7 @@
         <v>97</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2879,7 +2894,7 @@
         <v>98</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2887,7 +2902,7 @@
         <v>99</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2895,7 +2910,7 @@
         <v>100</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2903,7 +2918,7 @@
         <v>101</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2911,7 +2926,7 @@
         <v>102</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,7 +2934,7 @@
         <v>103</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2927,13 +2942,13 @@
         <v>104</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C95" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D95" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2941,7 +2956,7 @@
         <v>105</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2949,7 +2964,7 @@
         <v>106</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2957,7 +2972,7 @@
         <v>107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2965,7 +2980,7 @@
         <v>108</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2973,7 +2988,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C100" t="s">
         <v>177</v>
@@ -2984,7 +2999,7 @@
         <v>110</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2992,7 +3007,7 @@
         <v>111</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3000,7 +3015,7 @@
         <v>112</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,7 +3023,7 @@
         <v>113</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3016,7 +3031,7 @@
         <v>114</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
@@ -3027,7 +3042,7 @@
         <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3035,7 +3050,7 @@
         <v>116</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3043,7 +3058,7 @@
         <v>117</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C108" t="s">
         <v>178</v>
@@ -3054,7 +3069,7 @@
         <v>118</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3062,7 +3077,7 @@
         <v>119</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3070,7 +3085,7 @@
         <v>120</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3078,7 +3093,7 @@
         <v>121</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3086,7 +3101,7 @@
         <v>122</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3094,7 +3109,7 @@
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3102,7 +3117,7 @@
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3110,7 +3125,7 @@
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3118,7 +3133,7 @@
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3126,7 +3141,7 @@
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3134,7 +3149,7 @@
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3142,7 +3157,7 @@
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3150,7 +3165,7 @@
         <v>131</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3158,7 +3173,7 @@
         <v>132</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3166,7 +3181,7 @@
         <v>133</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3174,7 +3189,7 @@
         <v>134</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3182,7 +3197,7 @@
         <v>135</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3190,13 +3205,13 @@
         <v>136</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C126" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D126" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3204,7 +3219,7 @@
         <v>137</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3212,7 +3227,7 @@
         <v>138</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3220,7 +3235,7 @@
         <v>139</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3228,7 +3243,7 @@
         <v>140</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3236,7 +3251,7 @@
         <v>141</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C131" t="s">
         <v>179</v>
@@ -3251,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3280,10 +3295,10 @@
         <v>215</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3370,7 +3385,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3384,7 +3399,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3429,7 +3444,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3443,7 +3458,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3471,7 +3486,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3530,7 +3545,7 @@
         <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3558,7 +3573,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3572,13 +3587,13 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C21" t="s">
         <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3606,7 +3621,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3662,13 +3677,13 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C27" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D27" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3682,10 +3697,10 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E28" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3699,7 +3714,7 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3713,10 +3728,10 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E30" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3772,7 +3787,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3786,7 +3801,7 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3800,7 +3815,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3828,7 +3843,7 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3856,7 +3871,7 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3870,7 +3885,7 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3884,7 +3899,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3898,7 +3913,7 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3912,7 +3927,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3926,10 +3941,10 @@
         <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C45" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D45" t="s">
         <v>206</v>
@@ -3960,10 +3975,10 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E47" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3977,10 +3992,10 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E48" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -4011,7 +4026,7 @@
         <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4025,10 +4040,10 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="E51" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -4059,10 +4074,10 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E53" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -4093,7 +4108,7 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -4107,7 +4122,7 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -4121,7 +4136,7 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4135,7 +4150,7 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -4166,10 +4181,10 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>411</v>
+        <v>525</v>
       </c>
       <c r="E60" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -4182,6 +4197,9 @@
       <c r="A61" t="s">
         <v>70</v>
       </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
       <c r="F61">
         <v>1</v>
       </c>
@@ -4194,16 +4212,16 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C62" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D62" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E62" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -4231,7 +4249,7 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4245,13 +4263,13 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C65" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E65" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -4265,7 +4283,7 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -4293,10 +4311,10 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E68" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -4310,10 +4328,10 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E69" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4355,10 +4373,10 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E72" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -4372,10 +4390,10 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C73" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -4389,7 +4407,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -4403,7 +4421,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C75" t="s">
         <v>150</v>
@@ -4448,10 +4466,10 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E78" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -4479,7 +4497,7 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4493,7 +4511,7 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -4507,7 +4525,7 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -4521,7 +4539,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4636,10 +4654,10 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E91" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4653,10 +4671,10 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E92" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -4670,7 +4688,7 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4698,13 +4716,13 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C95" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D95" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4718,7 +4736,7 @@
         <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4732,7 +4750,7 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4791,16 +4809,16 @@
         <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C101" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D101" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E101" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -4904,7 +4922,7 @@
         <v>212</v>
       </c>
       <c r="C108" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -4932,7 +4950,7 @@
         <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -4946,10 +4964,10 @@
         <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C111" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -4977,10 +4995,10 @@
         <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E113" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -5008,7 +5026,7 @@
         <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5064,7 +5082,7 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -5078,10 +5096,10 @@
         <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E120" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -5109,7 +5127,7 @@
         <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -5123,10 +5141,10 @@
         <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E123" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -5154,10 +5172,10 @@
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E125" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -5171,16 +5189,16 @@
         <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C126" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D126" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E126" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -5194,10 +5212,10 @@
         <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E127" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -5224,6 +5242,9 @@
       <c r="A129" t="s">
         <v>139</v>
       </c>
+      <c r="B129" t="s">
+        <v>139</v>
+      </c>
       <c r="F129">
         <v>0</v>
       </c>
@@ -5253,13 +5274,13 @@
         <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C131" t="s">
         <v>212</v>
       </c>
       <c r="E131" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -5287,10 +5308,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E133" t="s">
         <v>163</v>
@@ -5304,10 +5325,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E134" t="s">
         <v>163</v>
@@ -5321,10 +5342,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E135" t="s">
         <v>163</v>
@@ -5338,10 +5359,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E136" t="s">
         <v>163</v>
@@ -5355,10 +5376,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E137" t="s">
         <v>163</v>
@@ -5372,10 +5393,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B138" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E138" t="s">
         <v>163</v>
@@ -5389,10 +5410,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E139" t="s">
         <v>163</v>
@@ -5406,10 +5427,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E140" t="s">
         <v>163</v>
@@ -5423,10 +5444,10 @@
     </row>
     <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E141" t="s">
         <v>163</v>
@@ -5440,10 +5461,10 @@
     </row>
     <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E142" t="s">
         <v>163</v>
@@ -5457,10 +5478,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E143" t="s">
         <v>163</v>
@@ -5474,10 +5495,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E144" t="s">
         <v>163</v>
@@ -5491,10 +5512,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E145" t="s">
         <v>163</v>
@@ -5508,10 +5529,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E146" t="s">
         <v>163</v>
@@ -5534,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5551,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>224</v>
@@ -5568,7 +5589,7 @@
         <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -5579,7 +5600,7 @@
         <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C3" t="s">
         <v>158</v>
@@ -5590,7 +5611,7 @@
         <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
         <v>208</v>
@@ -5601,7 +5622,7 @@
         <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5609,26 +5630,26 @@
         <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B8" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5636,7 +5657,7 @@
         <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C9" t="s">
         <v>197</v>
@@ -5647,23 +5668,23 @@
         <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B12" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5671,15 +5692,15 @@
         <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5687,7 +5708,7 @@
         <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5695,7 +5716,7 @@
         <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5703,7 +5724,7 @@
         <v>192</v>
       </c>
       <c r="B17" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5711,10 +5732,10 @@
         <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5722,29 +5743,29 @@
         <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B20" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B21" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C21" t="s">
         <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5752,15 +5773,15 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B23" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5768,7 +5789,7 @@
         <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5776,7 +5797,7 @@
         <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5784,39 +5805,39 @@
         <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B27" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B28" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B29" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B30" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5824,7 +5845,7 @@
         <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5832,7 +5853,7 @@
         <v>148</v>
       </c>
       <c r="B32" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5840,31 +5861,31 @@
         <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B34" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B35" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B36" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5872,15 +5893,15 @@
         <v>219</v>
       </c>
       <c r="B37" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B38" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5888,61 +5909,61 @@
         <v>220</v>
       </c>
       <c r="B39" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C40" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B43" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B44" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C45" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D45" t="s">
         <v>206</v>
@@ -5953,23 +5974,23 @@
         <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5977,70 +5998,88 @@
         <v>195</v>
       </c>
       <c r="B49" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B50" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B51" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C51" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>196</v>
       </c>
+      <c r="B52" t="s">
+        <v>518</v>
+      </c>
       <c r="C52" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>393</v>
+        <v>386</v>
+      </c>
+      <c r="B53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C53" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>197</v>
       </c>
+      <c r="B54" t="s">
+        <v>522</v>
+      </c>
       <c r="C54" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>394</v>
+        <v>387</v>
+      </c>
+      <c r="B55" t="s">
+        <v>524</v>
+      </c>
+      <c r="C55" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6053,18 +6092,23 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>411</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C62" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D62" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -6074,20 +6118,20 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C65" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6097,12 +6141,12 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6117,25 +6161,25 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C73" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C75" t="s">
         <v>150</v>
@@ -6153,7 +6197,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6163,22 +6207,22 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -6221,17 +6265,17 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -6241,23 +6285,23 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C95" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D95" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -6280,13 +6324,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C101" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D101" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -6327,7 +6371,7 @@
         <v>212</v>
       </c>
       <c r="C108" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -6337,15 +6381,15 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C111" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -6355,7 +6399,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -6365,7 +6409,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -6385,12 +6429,12 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -6400,12 +6444,12 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -6415,23 +6459,23 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C126" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D126" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -6439,6 +6483,11 @@
         <v>168</v>
       </c>
     </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>218</v>
@@ -6449,7 +6498,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C131" t="s">
         <v>212</v>

--- a/files/GlosarioT3.xlsx
+++ b/files/GlosarioT3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\T3Glossary\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BA1F30-FB42-4344-B5A3-78E7184734C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B745C25-885B-4F41-821D-05CB705D1F26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="550">
   <si>
     <t>english</t>
   </si>
@@ -895,9 +895,6 @@
     <t>Hypercorrection</t>
   </si>
   <si>
-    <t xml:space="preserve"> effect The more strongly someone believed that their answer on a test was right, the more likely they are not to repeat the error once they discover that in fact they were wrong.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The study of how to translate research findings to everyday clinical practice.</t>
   </si>
   <si>
@@ -1330,9 +1327,6 @@
     <t>Artefacto tangible</t>
   </si>
   <si>
-    <t>Enseñando para la prueba.</t>
-  </si>
-  <si>
     <t>Piensa-trabaja en pareja-comparte</t>
   </si>
   <si>
@@ -1643,6 +1637,69 @@
   </si>
   <si>
     <t>Someone learning outside an institutional classroom with required homework and mandated curriculum. (Those who use the term occasionally refer to learners in classrooms as "battery-farmed learners" but we don't because that would be rude.)</t>
+  </si>
+  <si>
+    <t>Primero los objetos.</t>
+  </si>
+  <si>
+    <t>Enseñando para el exámen.</t>
+  </si>
+  <si>
+    <t>Piensa-trabaja en pareja-comparte.</t>
+  </si>
+  <si>
+    <t>Una clase en la que los alumnos ven lecciones grabadas en su propio tiempo, mientras que el tiempo de clase se utiliza para resolver conjuntos de problemas y responder preguntas.</t>
+  </si>
+  <si>
+    <t>La sensación de estar completamente inmerso en una actividad,  frecuentemente asociada con una alta productividad.</t>
+  </si>
+  <si>
+    <t>La capacidad de moverse rápidamente entre diferentes modelos de un problema.</t>
+  </si>
+  <si>
+    <t>Evaluación que se lleva a cabo durante una clase para dar retroalimentación tanto al alumno como al profesor sobre la comprensión real</t>
+  </si>
+  <si>
+    <t>Estudiante free-range. Estudiante de rango libre.</t>
+  </si>
+  <si>
+    <t>Alguien que aprende fuera de un aula institucional con un plan de estudios y tareas obligatorias. (Quienes usan este término, ocasionalmente se refieren a los estudiantes en las aulas como "estudiantes battery-farmed", pero nosotros no lo hacemos porque sería grosero).</t>
+  </si>
+  <si>
+    <t>Una técnica de prueba de software basada en generar y enviar datos aleatorios.</t>
+  </si>
+  <si>
+    <t>La comprensión de una persona de los principios generales de la enseñanza.</t>
+  </si>
+  <si>
+    <t>La carga cognitiva requerida para vincular la nueva información con la antigua.</t>
+  </si>
+  <si>
+    <t>Una junta cuya responsabilidad principal es contratar, supervisar y, si es necesario, despedir al director.</t>
+  </si>
+  <si>
+    <t>La creencia de que la habilidad viene con la práctica.</t>
+  </si>
+  <si>
+    <t>Notas preparadas por la/el docente que indican a las/os estudiantes que respondan a la información clave en una conferencia o discusión.</t>
+  </si>
+  <si>
+    <t>Generar una clave digital pseudoaleatoria condensada a partir de datos; cualquier entrada específica produce la misma salida, pero es muy probable que diferentes entradas produzcan diferentes salidas.</t>
+  </si>
+  <si>
+    <t>The more strongly someone believed that their answer on a test was right, the more likely they are not to repeat the error once they discover that in fact they were wrong.</t>
+  </si>
+  <si>
+    <t>Cuanto más creé alguien que su respuesta en un exámen era correcta, más probabilidades hay de que no repitan el error una vez que descubre que, de hecho, estaban equivocados.</t>
+  </si>
+  <si>
+    <t>El estudio de cómo traducir los hallazgos de la investigación a la práctica clínica diaria.</t>
+  </si>
+  <si>
+    <t>Un sentimiento de inseguridad sobre los logros propios, que se manifiesta como un miedo a ser expuesto como un fraude.</t>
+  </si>
+  <si>
+    <t>Trabajar activamente para incluir personas con diversos antecedentes y necesidades.</t>
   </si>
 </sst>
 </file>
@@ -2096,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>222</v>
@@ -2134,10 +2191,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2145,7 +2202,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
         <v>171</v>
@@ -2180,10 +2237,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2299,10 +2356,10 @@
         <v>242</v>
       </c>
       <c r="C21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D21" t="s">
         <v>357</v>
-      </c>
-      <c r="D21" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2310,7 +2367,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2353,7 +2410,7 @@
         <v>247</v>
       </c>
       <c r="C27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D27" t="s">
         <v>182</v>
@@ -2463,7 +2520,7 @@
         <v>260</v>
       </c>
       <c r="C40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2503,7 +2560,7 @@
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C45" t="s">
         <v>181</v>
@@ -2563,7 +2620,7 @@
         <v>270</v>
       </c>
       <c r="C51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2587,7 +2644,7 @@
         <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C54" t="s">
         <v>173</v>
@@ -2598,7 +2655,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -2609,7 +2666,7 @@
         <v>65</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2617,7 +2674,7 @@
         <v>66</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2625,7 +2682,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2633,7 +2690,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C59" t="s">
         <v>174</v>
@@ -2644,7 +2701,7 @@
         <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2666,7 +2723,7 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,7 +2750,7 @@
         <v>277</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2712,12 +2769,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>281</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2725,7 +2782,7 @@
         <v>78</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2733,7 +2790,7 @@
         <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2741,7 +2798,7 @@
         <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2749,7 +2806,7 @@
         <v>81</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2757,7 +2814,7 @@
         <v>82</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C73" t="s">
         <v>175</v>
@@ -2768,7 +2825,7 @@
         <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2776,7 +2833,7 @@
         <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
@@ -2787,7 +2844,7 @@
         <v>85</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2795,7 +2852,7 @@
         <v>86</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2803,7 +2860,7 @@
         <v>87</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2811,7 +2868,7 @@
         <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2819,7 +2876,7 @@
         <v>89</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2827,7 +2884,7 @@
         <v>90</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,15 +2892,15 @@
         <v>91</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>295</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2851,7 +2908,7 @@
         <v>93</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2859,7 +2916,7 @@
         <v>94</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C85" t="s">
         <v>176</v>
@@ -2870,7 +2927,7 @@
         <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2878,7 +2935,7 @@
         <v>96</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2886,7 +2943,7 @@
         <v>97</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2894,7 +2951,7 @@
         <v>98</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,7 +2959,7 @@
         <v>99</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2910,7 +2967,7 @@
         <v>100</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2918,7 +2975,7 @@
         <v>101</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2926,7 +2983,7 @@
         <v>102</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2934,7 +2991,7 @@
         <v>103</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2942,13 +2999,13 @@
         <v>104</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C95" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,7 +3013,7 @@
         <v>105</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2964,7 +3021,7 @@
         <v>106</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2972,7 +3029,7 @@
         <v>107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2980,7 +3037,7 @@
         <v>108</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2988,7 +3045,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C100" t="s">
         <v>177</v>
@@ -2999,7 +3056,7 @@
         <v>110</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3007,7 +3064,7 @@
         <v>111</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3015,7 +3072,7 @@
         <v>112</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3023,7 +3080,7 @@
         <v>113</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3031,7 +3088,7 @@
         <v>114</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
@@ -3042,7 +3099,7 @@
         <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3050,7 +3107,7 @@
         <v>116</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3058,7 +3115,7 @@
         <v>117</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C108" t="s">
         <v>178</v>
@@ -3069,7 +3126,7 @@
         <v>118</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3077,7 +3134,7 @@
         <v>119</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3085,7 +3142,7 @@
         <v>120</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3093,7 +3150,7 @@
         <v>121</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,7 +3158,7 @@
         <v>122</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3109,7 +3166,7 @@
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3117,7 +3174,7 @@
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3125,7 +3182,7 @@
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3133,7 +3190,7 @@
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3141,7 +3198,7 @@
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3149,7 +3206,7 @@
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,7 +3214,7 @@
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3165,7 +3222,7 @@
         <v>131</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3173,7 +3230,7 @@
         <v>132</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3181,7 +3238,7 @@
         <v>133</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3189,7 +3246,7 @@
         <v>134</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3197,7 +3254,7 @@
         <v>135</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,13 +3262,13 @@
         <v>136</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C126" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D126" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3219,7 +3276,7 @@
         <v>137</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,7 +3284,7 @@
         <v>138</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3235,7 +3292,7 @@
         <v>139</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3243,7 +3300,7 @@
         <v>140</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3251,7 +3308,7 @@
         <v>141</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C131" t="s">
         <v>179</v>
@@ -3266,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3295,10 +3352,10 @@
         <v>215</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3385,7 +3442,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3399,7 +3456,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3444,7 +3501,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3458,7 +3515,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3486,7 +3543,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3545,7 +3602,7 @@
         <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3573,7 +3630,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3587,13 +3644,13 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C21" t="s">
         <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3621,7 +3678,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3677,13 +3734,13 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3697,10 +3754,10 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3714,7 +3771,7 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3728,10 +3785,10 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3787,7 +3844,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3801,7 +3858,7 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3815,7 +3872,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3843,7 +3900,7 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3871,7 +3928,7 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3885,7 +3942,7 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3899,7 +3956,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3913,7 +3970,7 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3927,7 +3984,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3941,10 +3998,10 @@
         <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D45" t="s">
         <v>206</v>
@@ -3975,10 +4032,10 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3992,10 +4049,10 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -4026,7 +4083,7 @@
         <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4040,10 +4097,10 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -4074,10 +4131,10 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -4108,7 +4165,7 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -4122,7 +4179,7 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -4136,7 +4193,7 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4150,7 +4207,7 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -4181,10 +4238,10 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E60" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -4212,16 +4269,16 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C62" t="s">
+        <v>390</v>
+      </c>
+      <c r="D62" t="s">
         <v>391</v>
       </c>
-      <c r="D62" t="s">
-        <v>392</v>
-      </c>
       <c r="E62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -4249,7 +4306,7 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4263,13 +4320,13 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E65" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -4283,7 +4340,7 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -4311,10 +4368,10 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E68" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -4328,10 +4385,10 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E69" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4373,10 +4430,10 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -4390,10 +4447,10 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -4407,7 +4464,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -4421,7 +4478,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C75" t="s">
         <v>150</v>
@@ -4466,10 +4523,10 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E78" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -4497,7 +4554,7 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4511,7 +4568,7 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -4525,7 +4582,7 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -4539,7 +4596,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4654,10 +4711,10 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E91" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4671,10 +4728,10 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E92" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -4688,7 +4745,7 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4716,13 +4773,13 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C95" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D95" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4736,7 +4793,7 @@
         <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4750,7 +4807,7 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4809,16 +4866,16 @@
         <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D101" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -4922,7 +4979,7 @@
         <v>212</v>
       </c>
       <c r="C108" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -4950,7 +5007,7 @@
         <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -4964,10 +5021,10 @@
         <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C111" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -4995,10 +5052,10 @@
         <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E113" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -5026,7 +5083,7 @@
         <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5082,7 +5139,7 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -5096,10 +5153,10 @@
         <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E120" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -5127,7 +5184,7 @@
         <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -5141,10 +5198,10 @@
         <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>426</v>
+        <v>530</v>
       </c>
       <c r="E123" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -5172,10 +5229,10 @@
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E125" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -5189,16 +5246,16 @@
         <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D126" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E126" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -5212,10 +5269,10 @@
         <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E127" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -5274,13 +5331,13 @@
         <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C131" t="s">
         <v>212</v>
       </c>
       <c r="E131" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -5308,10 +5365,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E133" t="s">
         <v>163</v>
@@ -5325,10 +5382,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E134" t="s">
         <v>163</v>
@@ -5342,10 +5399,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="E135" t="s">
         <v>163</v>
@@ -5359,10 +5416,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="E136" t="s">
         <v>163</v>
@@ -5376,10 +5433,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E137" t="s">
         <v>163</v>
@@ -5393,10 +5450,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B138" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E138" t="s">
         <v>163</v>
@@ -5410,10 +5467,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E139" t="s">
         <v>163</v>
@@ -5427,10 +5484,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E140" t="s">
         <v>163</v>
@@ -5444,10 +5501,10 @@
     </row>
     <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E141" t="s">
         <v>163</v>
@@ -5461,10 +5518,10 @@
     </row>
     <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E142" t="s">
         <v>163</v>
@@ -5478,10 +5535,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E143" t="s">
         <v>163</v>
@@ -5495,10 +5552,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E144" t="s">
         <v>163</v>
@@ -5512,10 +5569,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E145" t="s">
         <v>163</v>
@@ -5529,10 +5586,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E146" t="s">
         <v>163</v>
@@ -5555,8 +5612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>224</v>
@@ -5589,7 +5646,7 @@
         <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -5600,7 +5657,7 @@
         <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C3" t="s">
         <v>158</v>
@@ -5611,7 +5668,7 @@
         <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
         <v>208</v>
@@ -5622,7 +5679,7 @@
         <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5630,26 +5687,26 @@
         <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5657,7 +5714,7 @@
         <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C9" t="s">
         <v>197</v>
@@ -5668,23 +5725,23 @@
         <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5692,15 +5749,15 @@
         <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5708,7 +5765,7 @@
         <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5716,7 +5773,7 @@
         <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5724,7 +5781,7 @@
         <v>192</v>
       </c>
       <c r="B17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5732,10 +5789,10 @@
         <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5743,29 +5800,29 @@
         <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C21" t="s">
         <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5773,15 +5830,15 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B23" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,7 +5846,7 @@
         <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5797,7 +5854,7 @@
         <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5805,39 +5862,39 @@
         <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B27" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B28" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B29" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B30" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5845,7 +5902,7 @@
         <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5853,7 +5910,7 @@
         <v>148</v>
       </c>
       <c r="B32" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5861,31 +5918,31 @@
         <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B34" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B35" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B36" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5893,15 +5950,15 @@
         <v>219</v>
       </c>
       <c r="B37" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5909,61 +5966,61 @@
         <v>220</v>
       </c>
       <c r="B39" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B40" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B41" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B43" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B44" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D45" t="s">
         <v>206</v>
@@ -5974,23 +6031,23 @@
         <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5998,29 +6055,29 @@
         <v>195</v>
       </c>
       <c r="B49" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B50" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B51" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6028,7 +6085,7 @@
         <v>196</v>
       </c>
       <c r="B52" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C52" t="s">
         <v>189</v>
@@ -6036,13 +6093,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C53" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6050,7 +6107,7 @@
         <v>197</v>
       </c>
       <c r="B54" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C54" t="s">
         <v>184</v>
@@ -6058,128 +6115,179 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C55" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>388</v>
+        <v>387</v>
+      </c>
+      <c r="B56" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>403</v>
+        <v>402</v>
+      </c>
+      <c r="B57" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="B58" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>198</v>
       </c>
+      <c r="B59" t="s">
+        <v>535</v>
+      </c>
       <c r="C59" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>525</v>
+        <v>536</v>
+      </c>
+      <c r="B60" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
+      <c r="B61" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>404</v>
+        <v>403</v>
+      </c>
+      <c r="B62" t="s">
+        <v>539</v>
       </c>
       <c r="C62" t="s">
+        <v>390</v>
+      </c>
+      <c r="D62" t="s">
         <v>391</v>
-      </c>
-      <c r="D62" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>199</v>
       </c>
+      <c r="B63" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="B64" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="B65" t="s">
+        <v>542</v>
       </c>
       <c r="C65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>407</v>
+        <v>406</v>
+      </c>
+      <c r="B66" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
+      <c r="B67" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>411</v>
+        <v>410</v>
+      </c>
+      <c r="B68" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>412</v>
+        <v>411</v>
+      </c>
+      <c r="B69" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>200</v>
       </c>
+      <c r="B70" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>151</v>
       </c>
+      <c r="B71" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>408</v>
+        <v>407</v>
+      </c>
+      <c r="C74" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C75" t="s">
         <v>150</v>
@@ -6197,7 +6305,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6207,22 +6315,25 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>394</v>
+        <v>393</v>
+      </c>
+      <c r="C83" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -6265,17 +6376,20 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>415</v>
+        <v>414</v>
+      </c>
+      <c r="C93" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -6285,23 +6399,23 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C95" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D95" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -6324,13 +6438,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D101" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -6355,6 +6469,9 @@
       <c r="A105" t="s">
         <v>210</v>
       </c>
+      <c r="C105" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -6371,7 +6488,7 @@
         <v>212</v>
       </c>
       <c r="C108" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -6381,15 +6498,15 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C111" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -6399,7 +6516,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -6409,7 +6526,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -6421,6 +6538,9 @@
       <c r="A117" t="s">
         <v>165</v>
       </c>
+      <c r="C117" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -6429,12 +6549,12 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -6444,12 +6564,12 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>426</v>
+        <v>530</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -6459,23 +6579,23 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>413</v>
+        <v>518</v>
       </c>
       <c r="C126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D126" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -6498,7 +6618,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C131" t="s">
         <v>212</v>

--- a/files/GlosarioT3.xlsx
+++ b/files/GlosarioT3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\T3Glossary\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B745C25-885B-4F41-821D-05CB705D1F26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B0526B-7BE7-4C90-8E73-EBE8C415599A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="585">
   <si>
     <t>english</t>
   </si>
@@ -910,9 +910,6 @@
     <t xml:space="preserve"> The craft of creating and evaluating specific lessons for specific audiences</t>
   </si>
   <si>
-    <t xml:space="preserve"> The cognitive-loadcognitive load required to absorb new information.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Being driven by enjoyment of a task or the satisfaction of doing it for its own sake</t>
   </si>
   <si>
@@ -1700,6 +1697,114 @@
   </si>
   <si>
     <t>Trabajar activamente para incluir personas con diversos antecedentes y necesidades.</t>
+  </si>
+  <si>
+    <t>La práctica de permitir que las/os estudiantes hagan sus propias preguntas, establezcan sus propios objetivos y encuentren su propio camino a través de un tema.</t>
+  </si>
+  <si>
+    <t>El arte de crear y evaluar lecciones específicas para audiencias específicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The cognitive load required to absorb new information.</t>
+  </si>
+  <si>
+    <t>cognitive load.</t>
+  </si>
+  <si>
+    <t>La carga cognitiva requerida para absorber nueva información.</t>
+  </si>
+  <si>
+    <t>Qué está intentando lograr la lección.</t>
+  </si>
+  <si>
+    <t>Ser impulsada/o por el disfrute o la satisfacción de hacer una tarea como fin en si mismo</t>
+  </si>
+  <si>
+    <t>La capacidad de comprender algo de inmediato, sin necesidad aparente de razonamiento consciente.</t>
+  </si>
+  <si>
+    <t>Literalmente "estudio de lección", un conjunto de prácticas que incluye hacer que las/os docentes se observen rutinariamente entre sí y discutan las lecciones que imparten para compartir conocimientos y mejorar habilidades.</t>
+  </si>
+  <si>
+    <t>Impotencia aprendida</t>
+  </si>
+  <si>
+    <t>Una situación en la que las personas que son sometidas repetidamente a comentarios negativos de que no tienen forma de escapar aprenden a ni siquiera intentar escapar cuando pueden.</t>
+  </si>
+  <si>
+    <t>Una breve descripción de un/a estudiante objetivo tipo para una lección que incluye: sus antecedentes generales, lo que ya sabe, lo que quiere hacer, cómo la lección le ayudará y cualquier necesidad especial que puedan tener.</t>
+  </si>
+  <si>
+    <t>Una aplicación para registrar la inscripción a cursos, presentaciones de ejercicios, calificaciones y otros aspectos burocráticos del aprendizaje formal en el aula.</t>
+  </si>
+  <si>
+    <t>Qué es lo que la lección realmente logra.</t>
+  </si>
+  <si>
+    <t>La participación de las/os recién llegadas/os en tareas simples y de bajo riesgo que una comunidad de práctica reconoce como contribuciones válidas.</t>
+  </si>
+  <si>
+    <t>La parte de la memoria que almacena información durante largos períodos de tiempo. La memoria a largo plazo es muy grande, pero lenta.</t>
+  </si>
+  <si>
+    <t>El acto de enseñar programación escribiendo software frente a los alumnos a medida que avanza la lección.</t>
+  </si>
+  <si>
+    <t>Material de referencia, destinado a ayudar a alguien que ya comprende un tema, a completar (o recordar) detalles.</t>
+  </si>
+  <si>
+    <t>El arte de ver las cosas desde la perspectiva de otras personas, comprender sus deseos y necesidades y encontrar formas de satisfacerlas.</t>
+  </si>
+  <si>
+    <t>Un curso en línea diseñado para la inscripción masiva y el estudio asincrónico, que generalmente usa videos grabados y calificaciones automáticas.</t>
+  </si>
+  <si>
+    <t>Una representación simplificada de los elementos clave y las relaciones de algunos dominios de problemas que es lo suficientemente buena como para apoyar la resolución de problemas.</t>
+  </si>
+  <si>
+    <t>Pensar sobre pensar.</t>
+  </si>
+  <si>
+    <t>Un enfoque de capacitación que divide cada tarea en instrucciones de una sola página que también explican cómo diagnosticar y corregir errores comunes.</t>
+  </si>
+  <si>
+    <t>Una técnica de retroalimentación en la que los alumnos pasan un minuto escribiendo una cosa positiva sobre una lección (por ejemplo, una cosa que han aprendido) y una cosa negativa (por ejemplo, una pregunta que aún no ha sido respondida).</t>
+  </si>
+  <si>
+    <t>Transferencia de aprendizaje entre dominios estrechamente relacionados, por ejemplo, mejora en la comprensión de decimales como resultado de hacer ejercicios con fracciones.</t>
+  </si>
+  <si>
+    <t>Un modelo general simplificado de cómo se ejecuta una familia particular de programas.</t>
+  </si>
+  <si>
+    <t>Alguien que aún no ha construido un modelo mental utilizable de un dominio.</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>Objeto</t>
+  </si>
+  <si>
+    <t>Una práctica de desarrollo de software en la que dos programadores comparten una computadora. Un programador (el piloto) escribe, mientras que el otro (el navegante) ofrece comentarios y sugerencias en tiempo real. La programación en pareja a menudo se usa como práctica docente en las clases de programación (Pars2006).</t>
+  </si>
+  <si>
+    <t>Un enfoque para enseñar programación donde objetos y clases se introducen temprano.</t>
+  </si>
+  <si>
+    <t>Una técnica de evaluación desarrollada por Dale Parsons y otros en la que los alumnos reorganizan el material dado para construir una respuesta correcta a una pregunta.</t>
+  </si>
+  <si>
+    <t>Un enfoque de la enseñanza en el que las/os estudiantes leen, escuchan o miran sin utilizar inmediatamente nuevos conocimientos. El aprendizaje pasivo es menos efectivo que el aprendizaje activo.</t>
+  </si>
+  <si>
+    <t>Un enfoque a la enseñanza en el que la/el docente no ajusta el ritmo o los ejemplos, o no actúa de acuerdo con los comentarios de las/os estudiantes, durante la lección</t>
   </si>
 </sst>
 </file>
@@ -2153,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>222</v>
@@ -2191,10 +2296,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2202,7 +2307,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C4" t="s">
         <v>171</v>
@@ -2237,10 +2342,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2356,10 +2461,10 @@
         <v>242</v>
       </c>
       <c r="C21" t="s">
+        <v>355</v>
+      </c>
+      <c r="D21" t="s">
         <v>356</v>
-      </c>
-      <c r="D21" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2367,7 +2472,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2410,7 +2515,7 @@
         <v>247</v>
       </c>
       <c r="C27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D27" t="s">
         <v>182</v>
@@ -2520,7 +2625,7 @@
         <v>260</v>
       </c>
       <c r="C40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2560,7 +2665,7 @@
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C45" t="s">
         <v>181</v>
@@ -2620,7 +2725,7 @@
         <v>270</v>
       </c>
       <c r="C51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2644,7 +2749,7 @@
         <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C54" t="s">
         <v>173</v>
@@ -2655,7 +2760,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -2666,7 +2771,7 @@
         <v>65</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2674,7 +2779,7 @@
         <v>66</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2682,7 +2787,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2690,7 +2795,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C59" t="s">
         <v>174</v>
@@ -2701,7 +2806,7 @@
         <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,7 +2828,7 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2750,7 +2855,7 @@
         <v>277</v>
       </c>
       <c r="C65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2774,7 +2879,7 @@
         <v>280</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,7 +2930,10 @@
         <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>286</v>
+        <v>551</v>
+      </c>
+      <c r="C74" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,7 +2941,7 @@
         <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
@@ -2844,7 +2952,7 @@
         <v>85</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2852,7 +2960,7 @@
         <v>86</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2860,7 +2968,7 @@
         <v>87</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2868,7 +2976,7 @@
         <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2876,7 +2984,7 @@
         <v>89</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,7 +2992,7 @@
         <v>90</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2892,15 +3000,15 @@
         <v>91</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>294</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2908,7 +3016,7 @@
         <v>93</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2916,7 +3024,7 @@
         <v>94</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C85" t="s">
         <v>176</v>
@@ -2927,7 +3035,7 @@
         <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2935,7 +3043,7 @@
         <v>96</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2943,7 +3051,7 @@
         <v>97</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2951,7 +3059,7 @@
         <v>98</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2959,7 +3067,7 @@
         <v>99</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2967,7 +3075,7 @@
         <v>100</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2975,7 +3083,7 @@
         <v>101</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2983,7 +3091,7 @@
         <v>102</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2991,7 +3099,7 @@
         <v>103</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2999,13 +3107,13 @@
         <v>104</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C95" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D95" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3013,7 +3121,7 @@
         <v>105</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -3021,7 +3129,7 @@
         <v>106</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3029,7 +3137,7 @@
         <v>107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3037,7 +3145,7 @@
         <v>108</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3045,7 +3153,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C100" t="s">
         <v>177</v>
@@ -3056,7 +3164,7 @@
         <v>110</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3064,7 +3172,7 @@
         <v>111</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3072,7 +3180,7 @@
         <v>112</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3080,7 +3188,7 @@
         <v>113</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3088,7 +3196,7 @@
         <v>114</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
@@ -3099,7 +3207,7 @@
         <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3107,7 +3215,7 @@
         <v>116</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3115,7 +3223,7 @@
         <v>117</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C108" t="s">
         <v>178</v>
@@ -3126,7 +3234,7 @@
         <v>118</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3134,7 +3242,7 @@
         <v>119</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3142,7 +3250,7 @@
         <v>120</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3150,7 +3258,7 @@
         <v>121</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3158,7 +3266,7 @@
         <v>122</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3166,7 +3274,7 @@
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3174,7 +3282,7 @@
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3182,7 +3290,7 @@
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3190,7 +3298,7 @@
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3198,7 +3306,7 @@
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3206,7 +3314,7 @@
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3214,7 +3322,7 @@
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3222,7 +3330,7 @@
         <v>131</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3230,7 +3338,7 @@
         <v>132</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3238,7 +3346,7 @@
         <v>133</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3246,7 +3354,7 @@
         <v>134</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3254,7 +3362,7 @@
         <v>135</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3262,13 +3370,13 @@
         <v>136</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C126" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D126" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3276,7 +3384,7 @@
         <v>137</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3284,7 +3392,7 @@
         <v>138</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3292,7 +3400,7 @@
         <v>139</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3300,7 +3408,7 @@
         <v>140</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3308,7 +3416,7 @@
         <v>141</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C131" t="s">
         <v>179</v>
@@ -3321,10 +3429,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView topLeftCell="A130" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,10 +3460,10 @@
         <v>215</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3442,7 +3550,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3456,7 +3564,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3501,7 +3609,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3515,7 +3623,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3543,7 +3651,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3602,7 +3710,7 @@
         <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3630,7 +3738,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3644,13 +3752,13 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C21" t="s">
         <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3678,7 +3786,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3734,13 +3842,13 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3754,10 +3862,10 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3771,7 +3879,7 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3785,10 +3893,10 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3844,7 +3952,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3858,7 +3966,7 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3872,7 +3980,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3900,7 +4008,7 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3928,7 +4036,7 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3942,7 +4050,7 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3956,7 +4064,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3970,7 +4078,7 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3984,7 +4092,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3998,10 +4106,10 @@
         <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s">
         <v>206</v>
@@ -4032,10 +4140,10 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -4049,10 +4157,10 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -4083,7 +4191,7 @@
         <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4097,10 +4205,10 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E51" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -4131,10 +4239,10 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -4165,7 +4273,7 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -4179,7 +4287,7 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -4193,7 +4301,7 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4207,7 +4315,7 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -4238,10 +4346,10 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E60" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -4269,16 +4377,16 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C62" t="s">
+        <v>389</v>
+      </c>
+      <c r="D62" t="s">
         <v>390</v>
       </c>
-      <c r="D62" t="s">
-        <v>391</v>
-      </c>
       <c r="E62" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -4306,7 +4414,7 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4320,13 +4428,13 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -4340,7 +4448,7 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -4368,10 +4476,10 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -4385,10 +4493,10 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E69" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4430,10 +4538,10 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -4447,10 +4555,10 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -4464,7 +4572,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -4478,7 +4586,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C75" t="s">
         <v>150</v>
@@ -4523,10 +4631,10 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E78" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -4554,7 +4662,7 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4568,7 +4676,7 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -4582,7 +4690,7 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -4596,7 +4704,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4711,10 +4819,10 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E91" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4728,10 +4836,10 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E92" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -4745,7 +4853,7 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4773,13 +4881,13 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
+        <v>445</v>
+      </c>
+      <c r="C95" t="s">
+        <v>375</v>
+      </c>
+      <c r="D95" t="s">
         <v>446</v>
-      </c>
-      <c r="C95" t="s">
-        <v>376</v>
-      </c>
-      <c r="D95" t="s">
-        <v>447</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4793,7 +4901,7 @@
         <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4807,7 +4915,7 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4866,16 +4974,16 @@
         <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C101" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E101" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -4979,7 +5087,7 @@
         <v>212</v>
       </c>
       <c r="C108" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -5007,7 +5115,7 @@
         <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5021,10 +5129,10 @@
         <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C111" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -5052,10 +5160,10 @@
         <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E113" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -5083,7 +5191,7 @@
         <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5139,7 +5247,7 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -5153,10 +5261,10 @@
         <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E120" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -5184,7 +5292,7 @@
         <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -5198,10 +5306,10 @@
         <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E123" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -5229,10 +5337,10 @@
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E125" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -5246,16 +5354,16 @@
         <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C126" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E126" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -5269,10 +5377,10 @@
         <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E127" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -5331,13 +5439,13 @@
         <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C131" t="s">
         <v>212</v>
       </c>
       <c r="E131" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -5365,10 +5473,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E133" t="s">
         <v>163</v>
@@ -5382,10 +5490,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E134" t="s">
         <v>163</v>
@@ -5399,10 +5507,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E135" t="s">
         <v>163</v>
@@ -5416,10 +5524,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E136" t="s">
         <v>163</v>
@@ -5433,10 +5541,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="E137" t="s">
         <v>163</v>
@@ -5450,10 +5558,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>439</v>
+      </c>
+      <c r="B138" t="s">
         <v>440</v>
-      </c>
-      <c r="B138" t="s">
-        <v>441</v>
       </c>
       <c r="E138" t="s">
         <v>163</v>
@@ -5467,10 +5575,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="E139" t="s">
         <v>163</v>
@@ -5484,10 +5592,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="E140" t="s">
         <v>163</v>
@@ -5501,10 +5609,10 @@
     </row>
     <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="E141" t="s">
         <v>163</v>
@@ -5518,10 +5626,10 @@
     </row>
     <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="E142" t="s">
         <v>163</v>
@@ -5535,10 +5643,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="E143" t="s">
         <v>163</v>
@@ -5552,10 +5660,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="E144" t="s">
         <v>163</v>
@@ -5569,10 +5677,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="E145" t="s">
         <v>163</v>
@@ -5586,10 +5694,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="E146" t="s">
         <v>163</v>
@@ -5598,6 +5706,40 @@
         <v>0</v>
       </c>
       <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E147" t="s">
+        <v>163</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E148" t="s">
+        <v>163</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
         <v>0</v>
       </c>
     </row>
@@ -5612,8 +5754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5629,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>224</v>
@@ -5646,7 +5788,7 @@
         <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -5657,7 +5799,7 @@
         <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C3" t="s">
         <v>158</v>
@@ -5668,7 +5810,7 @@
         <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
         <v>208</v>
@@ -5679,7 +5821,7 @@
         <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5687,26 +5829,26 @@
         <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E7" t="s">
         <v>466</v>
-      </c>
-      <c r="E7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5714,7 +5856,7 @@
         <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C9" t="s">
         <v>197</v>
@@ -5725,23 +5867,23 @@
         <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5749,15 +5891,15 @@
         <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5765,7 +5907,7 @@
         <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5773,7 +5915,7 @@
         <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5781,7 +5923,7 @@
         <v>192</v>
       </c>
       <c r="B17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,10 +5931,10 @@
         <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5800,29 +5942,29 @@
         <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C21" t="s">
         <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5830,15 +5972,15 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5846,7 +5988,7 @@
         <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5854,7 +5996,7 @@
         <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5862,39 +6004,39 @@
         <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5902,7 +6044,7 @@
         <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5910,7 +6052,7 @@
         <v>148</v>
       </c>
       <c r="B32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5918,31 +6060,31 @@
         <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B35" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B36" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5950,15 +6092,15 @@
         <v>219</v>
       </c>
       <c r="B37" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5966,61 +6108,61 @@
         <v>220</v>
       </c>
       <c r="B39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>502</v>
+      </c>
+      <c r="B43" t="s">
         <v>503</v>
-      </c>
-      <c r="B43" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>504</v>
+      </c>
+      <c r="B44" t="s">
         <v>505</v>
-      </c>
-      <c r="B44" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s">
         <v>206</v>
@@ -6031,23 +6173,23 @@
         <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6055,29 +6197,29 @@
         <v>195</v>
       </c>
       <c r="B49" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>511</v>
+      </c>
+      <c r="B50" t="s">
         <v>512</v>
       </c>
-      <c r="B50" t="s">
-        <v>513</v>
-      </c>
       <c r="C50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>513</v>
+      </c>
+      <c r="B51" t="s">
         <v>514</v>
       </c>
-      <c r="B51" t="s">
-        <v>515</v>
-      </c>
       <c r="C51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6085,7 +6227,7 @@
         <v>196</v>
       </c>
       <c r="B52" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C52" t="s">
         <v>189</v>
@@ -6093,13 +6235,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s">
+        <v>516</v>
+      </c>
+      <c r="C53" t="s">
         <v>517</v>
-      </c>
-      <c r="C53" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6107,7 +6249,7 @@
         <v>197</v>
       </c>
       <c r="B54" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C54" t="s">
         <v>184</v>
@@ -6115,37 +6257,37 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C55" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6153,7 +6295,7 @@
         <v>198</v>
       </c>
       <c r="B59" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C59" t="s">
         <v>166</v>
@@ -6161,10 +6303,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>535</v>
+      </c>
+      <c r="B60" t="s">
         <v>536</v>
-      </c>
-      <c r="B60" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -6172,21 +6314,21 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C62" t="s">
+        <v>389</v>
+      </c>
+      <c r="D62" t="s">
         <v>390</v>
-      </c>
-      <c r="D62" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -6194,34 +6336,34 @@
         <v>199</v>
       </c>
       <c r="B63" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B64" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B65" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B66" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6229,23 +6371,23 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B69" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6253,7 +6395,7 @@
         <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6261,25 +6403,34 @@
         <v>151</v>
       </c>
       <c r="B71" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>409</v>
+        <v>408</v>
+      </c>
+      <c r="B72" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>408</v>
+        <v>407</v>
+      </c>
+      <c r="B73" t="s">
+        <v>550</v>
       </c>
       <c r="C73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>407</v>
+        <v>406</v>
+      </c>
+      <c r="B74" t="s">
+        <v>553</v>
       </c>
       <c r="C74" t="s">
         <v>142</v>
@@ -6287,7 +6438,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="B75" t="s">
+        <v>555</v>
       </c>
       <c r="C75" t="s">
         <v>150</v>
@@ -6297,40 +6451,64 @@
       <c r="A76" t="s">
         <v>152</v>
       </c>
+      <c r="B76" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>201</v>
       </c>
+      <c r="B77" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>397</v>
+        <v>558</v>
+      </c>
+      <c r="B78" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>202</v>
       </c>
+      <c r="B79" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>396</v>
+        <v>395</v>
+      </c>
+      <c r="B80" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>394</v>
+        <v>393</v>
+      </c>
+      <c r="B81" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>395</v>
+        <v>394</v>
+      </c>
+      <c r="B82" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>393</v>
+        <v>392</v>
+      </c>
+      <c r="B83" t="s">
+        <v>563</v>
       </c>
       <c r="C83" t="s">
         <v>193</v>
@@ -6340,11 +6518,17 @@
       <c r="A84" t="s">
         <v>203</v>
       </c>
+      <c r="B84" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>204</v>
       </c>
+      <c r="B85" t="s">
+        <v>564</v>
+      </c>
       <c r="C85" t="s">
         <v>164</v>
       </c>
@@ -6353,98 +6537,143 @@
       <c r="A86" t="s">
         <v>153</v>
       </c>
+      <c r="B86" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>205</v>
       </c>
+      <c r="B87" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>154</v>
       </c>
+      <c r="B88" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>155</v>
       </c>
+      <c r="B89" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>156</v>
       </c>
+      <c r="B90" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>413</v>
+        <v>412</v>
+      </c>
+      <c r="B91" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>415</v>
+        <v>414</v>
+      </c>
+      <c r="B92" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="B93" t="s">
+        <v>573</v>
       </c>
       <c r="C93" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>157</v>
       </c>
+      <c r="B94" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>445</v>
+      </c>
+      <c r="B95" t="s">
+        <v>575</v>
+      </c>
+      <c r="C95" t="s">
+        <v>375</v>
+      </c>
+      <c r="D95" t="s">
         <v>446</v>
-      </c>
-      <c r="C95" t="s">
-        <v>376</v>
-      </c>
-      <c r="D95" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>529</v>
+        <v>528</v>
+      </c>
+      <c r="B96" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>417</v>
+        <v>416</v>
+      </c>
+      <c r="B97" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>207</v>
       </c>
+      <c r="B98" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>158</v>
       </c>
+      <c r="B99" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>208</v>
       </c>
+      <c r="B100" t="s">
+        <v>584</v>
+      </c>
       <c r="C100" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C101" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -6488,7 +6717,7 @@
         <v>212</v>
       </c>
       <c r="C108" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -6498,15 +6727,15 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C111" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -6516,7 +6745,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -6526,7 +6755,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -6549,12 +6778,12 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -6564,12 +6793,12 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -6579,23 +6808,23 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C126" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -6618,7 +6847,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C131" t="s">
         <v>212</v>

--- a/files/GlosarioT3.xlsx
+++ b/files/GlosarioT3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\T3Glossary\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEF01D5-31ED-497A-97AF-A8831862F3A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42908549-C130-4009-BEB2-46ABDBC5B40D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="611">
   <si>
     <t>english</t>
   </si>
@@ -1832,6 +1832,66 @@
   </si>
   <si>
     <t>Algo gestionado conjuntamente por una comunidad de acuerdo con las reglas que la misma comunidad ha desarrollado y adoptado.</t>
+  </si>
+  <si>
+    <t>Una práctica de estudio en la que la/el estudiante cubre hechos o términos clave durante un primer paso por el material y luego verifica cuanto recuerda en un segundo paso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sostiene que cuanto más reutilizable es una lección, es menos efectiva pedagógicamente.</t>
+  </si>
+  <si>
+    <t>Se proporciona material adicional a las/os estudiantes en etapa inicial para ayudarlas/os a resolver problemas.</t>
+  </si>
+  <si>
+    <t>Aumentar la cantidad y la calidad del tráfico del sitio web al hacer que las páginas sean más fáciles de encontrar o parezcan más importantes para los motores de búsqueda.</t>
+  </si>
+  <si>
+    <t>Una junta cuyos miembros asumen roles de trabajo en la organización.</t>
+  </si>
+  <si>
+    <t>La parte de la memoria que almacena brevemente información a la que puede acceder directamente la conciencia.</t>
+  </si>
+  <si>
+    <t>Un modelo de aprendizaje que se centra en la transición de las personas de ser recién llegadas a ser miembros aceptados de una comunidad de práctica.</t>
+  </si>
+  <si>
+    <t>La disminución que ocurre en el aprendizaje cuando las/os estudiantes deben dividir su atención entre múltiples presentaciones concurrentes de la misma información (por ejemplo, subtítulos y una voz en off).</t>
+  </si>
+  <si>
+    <t>Una situación en la que las personas sienten que corren el riesgo de ser sometidas a los estereotipos de su grupo social.</t>
+  </si>
+  <si>
+    <t>Evaluación que se realiza al final de una lección para determinar si se ha realizado el aprendizaje deseado.</t>
+  </si>
+  <si>
+    <t>Dar nombres a cada paso en una descripción paso a paso de un proceso de resolución de problemas.</t>
+  </si>
+  <si>
+    <t>Algo en lo que una/un estudiante puede trabajar y cuyo estado proporciona retroalimentación sobre el progreso que la/el estudiante realizó y ayuda a diagnosticar errores.</t>
+  </si>
+  <si>
+    <t>Cualquier método de "educación" que se centre en preparar a las/los estudiantes para aprobar los exámenes estandarizados, en lugar de aprender realmente.</t>
+  </si>
+  <si>
+    <t>Una práctica de desarrollo de software en la que las/los programadoras/es escriben primero los test para darse objetivos concretos y aclarar su comprensión de cómo se ve "terminado".</t>
+  </si>
+  <si>
+    <t>Un método de colaboración en el que cada persona piensa individualmente sobre una pregunta o problema, luego se junta con otra/o compañera/o para compartir ideas, y luego una persona de cada pareja presenta para todo el grupo.</t>
+  </si>
+  <si>
+    <t>La mejora en  recordar que ocurre cuando la práctica utiliza actividades similares a las utilizadas en los test.</t>
+  </si>
+  <si>
+    <t>Una lección destinada a ayudar a alguien a mejorar su comprensión general de un tema.</t>
+  </si>
+  <si>
+    <t>Aplicar el conocimiento aprendido en un contexto a problemas en otro contexto.</t>
+  </si>
+  <si>
+    <t>Hacer que un grupo de personas decida momento a momento o línea por línea qué agregarle a un programa a continuación.</t>
+  </si>
+  <si>
+    <t>Incluye el conjunto de problemas que las personas aún no pueden resolver por sí mismas pero que pueden resolver con la ayuda de un mentor más experimentado.</t>
   </si>
 </sst>
 </file>
@@ -2236,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A121" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3491,27 +3551,27 @@
         <v>1</v>
       </c>
       <c r="H2" t="str">
-        <f>VLOOKUP(A2,English,2,FALSE)</f>
+        <f t="shared" ref="H2:H33" si="0">VLOOKUP(A2,English,2,FALSE)</f>
         <v xml:space="preserve"> Someone who has never encountered concepts or material before. The term is used in distinction to false beginner.</v>
       </c>
       <c r="I2">
-        <f>VLOOKUP(A2,English,3,FALSE)</f>
+        <f t="shared" ref="I2:I33" si="1">VLOOKUP(A2,English,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>VLOOKUP(A2,English,4,FALSE)</f>
+        <f t="shared" ref="J2:J33" si="2">VLOOKUP(A2,English,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <f>VLOOKUP(B2,Spanish,2,FALSE)</f>
+        <f t="shared" ref="K2:K33" si="3">VLOOKUP(B2,Spanish,2,FALSE)</f>
         <v>Alguien que nunca se ha encontrado con los conceptos o material antes. El término se usa en distinción para falso principiante.</v>
       </c>
       <c r="L2" t="str">
-        <f>VLOOKUP(B2,Spanish,3,FALSE)</f>
+        <f t="shared" ref="L2:L33" si="4">VLOOKUP(B2,Spanish,3,FALSE)</f>
         <v>Falso principiante.</v>
       </c>
       <c r="M2">
-        <f>VLOOKUP(B2,Spanish,4,FALSE)</f>
+        <f t="shared" ref="M2:M33" si="5">VLOOKUP(B2,Spanish,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -3532,27 +3592,27 @@
         <v>1</v>
       </c>
       <c r="H3" t="str">
-        <f>VLOOKUP(A3,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> An approach to instruction in which learners engage with material through discussion, problem solving, case studies, and other activities that require them to reflect on and use new information in real time</v>
       </c>
       <c r="I3" t="str">
-        <f>VLOOKUP(A3,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>passive learning.</v>
       </c>
       <c r="J3">
-        <f>VLOOKUP(A3,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K3" t="str">
-        <f>VLOOKUP(B3,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Un enfoque de la enseñanza en el que los estudiantes se involucran con el material a través de la discusión, resolución de problemas, estudios de casos, y otras actividades que requieren que reflexionen y usen nueva información en tiempo real.</v>
       </c>
       <c r="L3" t="str">
-        <f>VLOOKUP(B3,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Aprendizaje pasivo. </v>
       </c>
       <c r="M3">
-        <f>VLOOKUP(B3,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3573,27 +3633,27 @@
         <v>1</v>
       </c>
       <c r="H4" t="str">
-        <f>VLOOKUP(A4,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> An approach to instruction in which the teacher acts on new information acquired from learners while teaching (e.g.\ by dynamically changing an example or rearranging the intended order of content)</v>
       </c>
       <c r="I4" t="str">
-        <f>VLOOKUP(A4,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>passive teaching.</v>
       </c>
       <c r="J4">
-        <f>VLOOKUP(A4,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K4" t="str">
-        <f>VLOOKUP(B4,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Un enfoque de la instrucción en el que el maestro actúa sobre la nueva información adquirida de los alumnos mientras enseña (p. ej. cambiando dinámicamente un ejemplo o reorganizando el orden previsto del contenido).</v>
       </c>
       <c r="L4" t="str">
-        <f>VLOOKUP(B4,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Enseñanza pasiva.</v>
       </c>
       <c r="M4">
-        <f>VLOOKUP(B4,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3611,27 +3671,27 @@
         <v>1</v>
       </c>
       <c r="H5" t="str">
-        <f>VLOOKUP(A5,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> A task which contains important elements of things that learners would do in real (non-classroom situations). To be authentic, a task should require learners to construct their own answers rather than choose between provided answers, and to work with the same tools and data they would use in real life.</v>
       </c>
       <c r="I5">
-        <f>VLOOKUP(A5,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>VLOOKUP(A5,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" t="str">
-        <f>VLOOKUP(B5,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Una tarea que contiene elementos importantes de cosas que los alumnos harían en situaciones reales (fuera del aula). Para ser auténtica, una tarea debe requerir que los alumnos construyan sus propias respuestas en lugar de elegir entre las respuestas proporcionadas, y trabajar con las mismas herramientas y datos que usarían en la vida real.</v>
       </c>
       <c r="L5">
-        <f>VLOOKUP(B5,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>VLOOKUP(B5,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3649,27 +3709,27 @@
         <v>1</v>
       </c>
       <c r="H6" t="str">
-        <f>VLOOKUP(A6,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> The ability to do a task without concentrating on its low-level details.</v>
       </c>
       <c r="I6">
-        <f>VLOOKUP(A6,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>VLOOKUP(A6,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" t="str">
-        <f>VLOOKUP(B6,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>La capacidad de hacer una tarea sin concentrarse en sus detalles de bajo nivel.</v>
       </c>
       <c r="L6">
-        <f>VLOOKUP(B6,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>VLOOKUP(B6,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3687,27 +3747,27 @@
         <v>1</v>
       </c>
       <c r="H7" t="str">
-        <f>VLOOKUP(A7,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> An instructional design method that works backwards from a summative assessment to formative assessments and thence to lesson content.</v>
       </c>
       <c r="I7">
-        <f>VLOOKUP(A7,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>VLOOKUP(A7,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" t="str">
-        <f>VLOOKUP(B7,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Un método de diseño instruccional que trabaja hacia atrás desde una evaluación sumativa hasta evaluaciones formativas y desde allí al contenido de la lección.</v>
       </c>
       <c r="L7">
-        <f>VLOOKUP(B7,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>VLOOKUP(B7,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3725,27 +3785,27 @@
         <v>1</v>
       </c>
       <c r="H8" t="str">
-        <f>VLOOKUP(A8,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> A theory of learning whose central principle is stimulus and response, and whose goal is to explain behavior without recourse to internal mental states or other unobservables</v>
       </c>
       <c r="I8" t="str">
-        <f>VLOOKUP(A8,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cognitivism.</v>
       </c>
       <c r="J8">
-        <f>VLOOKUP(A8,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" t="str">
-        <f>VLOOKUP(B8,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Una teoría del aprendizaje cuyo principio central es estímulo y respuesta, y cuyo objetivo es explicar el comportamiento sin recurrir a estados mentales internos u otros inobservables.</v>
       </c>
       <c r="L8">
-        <f>VLOOKUP(B8,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>VLOOKUP(B8,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3766,27 +3826,27 @@
         <v>1</v>
       </c>
       <c r="H9" t="str">
-        <f>VLOOKUP(A9,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> A six-part hierarchical classification of understanding whose levels are knowledge, comprehension, application, analysis, synthesis, and evaluation that has been widely adopted</v>
       </c>
       <c r="I9" t="str">
-        <f>VLOOKUP(A9,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Fink's Taxonomy.</v>
       </c>
       <c r="J9">
-        <f>VLOOKUP(A9,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" t="str">
-        <f>VLOOKUP(B9,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Una clasificación jerarquíca, ampliamente adoptada, de seis estapas de comprensión y cuyos niveles son conocimiento, comprensión, aplicación, análisis, síntesis y evaluación.</v>
       </c>
       <c r="L9" t="str">
-        <f>VLOOKUP(B9,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Taxonomía de Fink.</v>
       </c>
       <c r="M9">
-        <f>VLOOKUP(B9,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3804,27 +3864,27 @@
         <v>1</v>
       </c>
       <c r="H10" t="str">
-        <f>VLOOKUP(A10,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> The associations people have with a product's name or identity.</v>
       </c>
       <c r="I10">
-        <f>VLOOKUP(A10,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>VLOOKUP(A10,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" t="str">
-        <f>VLOOKUP(B10,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Las asociaciones que las personas tienen con el nombre de un producto o identidad.</v>
       </c>
       <c r="L10">
-        <f>VLOOKUP(B10,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>VLOOKUP(B10,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3842,27 +3902,27 @@
         <v>1</v>
       </c>
       <c r="H11" t="str">
-        <f>VLOOKUP(A11,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> Having learners compare their reviews of sample work with a teacher's reviews before being allowed to review their peers' work.</v>
       </c>
       <c r="I11">
-        <f>VLOOKUP(A11,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>VLOOKUP(A11,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" t="str">
-        <f>VLOOKUP(B11,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Hacer que los alumnos comparen sus revisiones del trabajo de ejemplo con las de un maestro antes de que se les permita revisar el trabajo de sus pares.</v>
       </c>
       <c r="L11">
-        <f>VLOOKUP(B11,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>VLOOKUP(B11,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3880,27 +3940,27 @@
         <v>1</v>
       </c>
       <c r="H12" t="str">
-        <f>VLOOKUP(A12,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> The act of grouping related concepts together so that they can be stored and processed as a single unit.</v>
       </c>
       <c r="I12">
-        <f>VLOOKUP(A12,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>VLOOKUP(A12,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12" t="str">
-        <f>VLOOKUP(B12,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>El acto de agrupar conceptos relacionados juntos que pueden almacenarse y procesarse como una sola unidad.</v>
       </c>
       <c r="L12">
-        <f>VLOOKUP(B12,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>VLOOKUP(B12,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3918,27 +3978,27 @@
         <v>1</v>
       </c>
       <c r="H13" t="str">
-        <f>VLOOKUP(A13,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> Teaching with another teacher in the classroom.</v>
       </c>
       <c r="I13">
-        <f>VLOOKUP(A13,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>VLOOKUP(A13,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13" t="str">
-        <f>VLOOKUP(B13,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Enseñar con otro docente en el salón de clases.</v>
       </c>
       <c r="L13">
-        <f>VLOOKUP(B13,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>VLOOKUP(B13,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3956,27 +4016,27 @@
         <v>1</v>
       </c>
       <c r="H14" t="str">
-        <f>VLOOKUP(A14,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> A theory of learning that emphasizes the process of a master passing on skills and insights situationally to an apprentice.</v>
       </c>
       <c r="I14">
-        <f>VLOOKUP(A14,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>VLOOKUP(A14,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14" t="str">
-        <f>VLOOKUP(B14,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Una teoría de aprendizaje que enfatiza el proceso del docente que transmite habilidades e ideas situacionalmente al estudiante.</v>
       </c>
       <c r="L14">
-        <f>VLOOKUP(B14,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>VLOOKUP(B14,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3994,27 +4054,27 @@
         <v>1</v>
       </c>
       <c r="H15" t="str">
-        <f>VLOOKUP(A15,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> The mental effort needed to solve a problem. Cognitive load theory divides this into intrinsic, germane, and extraneous load, and holds that people learn fastest when germane and extraneous load are reduced.</v>
       </c>
       <c r="I15">
-        <f>VLOOKUP(A15,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>VLOOKUP(A15,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" t="str">
-        <f>VLOOKUP(B15,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>El esfuerzo mental necesario para resolver un problema. La teoría de la carga cognitiva lo divide en carga intrínseca, carga pertinente y carga extrínseca. Sostiene que las personas aprenden más rápido cuando se reduce la carga pertinente y extraña.</v>
       </c>
       <c r="L15">
-        <f>VLOOKUP(B15,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>VLOOKUP(B15,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4032,27 +4092,27 @@
         <v>1</v>
       </c>
       <c r="H16" t="str">
-        <f>VLOOKUP(A16,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> A theory of learning that holds that mental states and processes can and must be included in models of learning</v>
       </c>
       <c r="I16" t="str">
-        <f>VLOOKUP(A16,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>behaviorism.</v>
       </c>
       <c r="J16">
-        <f>VLOOKUP(A16,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16" t="str">
-        <f>VLOOKUP(B16,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Una teoría del aprendizaje que sostiene que los estados y procesos mentales pueden y deben incluirse en modelos de aprendizaje.</v>
       </c>
       <c r="L16">
-        <f>VLOOKUP(B16,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>VLOOKUP(B16,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4070,27 +4130,27 @@
         <v>1</v>
       </c>
       <c r="H17" t="str">
-        <f>VLOOKUP(A17,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> something managed jointly by a community according to rules they themselves have evolved and adopted.</v>
       </c>
       <c r="I17">
-        <f>VLOOKUP(A17,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>VLOOKUP(A17,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" t="str">
-        <f>VLOOKUP(B17,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Algo gestionado conjuntamente por una comunidad de acuerdo con las reglas que la misma comunidad ha desarrollado y adoptado.</v>
       </c>
       <c r="L17">
-        <f>VLOOKUP(B17,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M17">
-        <f>VLOOKUP(B17,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4111,27 +4171,27 @@
         <v>1</v>
       </c>
       <c r="H18" t="str">
-        <f>VLOOKUP(A18,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> A self-perpetuating group of people who share and develop a craft such as knitters, musicians, or programmers</v>
       </c>
       <c r="I18" t="str">
-        <f>VLOOKUP(A18,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>legitimate peripheral participation.</v>
       </c>
       <c r="J18">
-        <f>VLOOKUP(A18,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" t="str">
-        <f>VLOOKUP(B18,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Un grupo de personas que se perpetúan a sí mismas y comparten y desarrollan un oficio como tejedoras/es, músicas/os o programadoras/es.</v>
       </c>
       <c r="L18" t="str">
-        <f>VLOOKUP(B18,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Participación inicial legítima.</v>
       </c>
       <c r="M18">
-        <f>VLOOKUP(B18,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4149,27 +4209,27 @@
         <v>1</v>
       </c>
       <c r="H19" t="str">
-        <f>VLOOKUP(A19,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> Using cultural capital to highlight learners' social identities, histories, and community networks in learning activities.</v>
       </c>
       <c r="I19">
-        <f>VLOOKUP(A19,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>VLOOKUP(A19,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19" t="str">
-        <f>VLOOKUP(B19,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Usar el capital cultural para resaltar las identidades sociales, las historias y las redes comunitarias de las/os estudiantes en las actividades de aprendizaje.</v>
       </c>
       <c r="L19">
-        <f>VLOOKUP(B19,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19">
-        <f>VLOOKUP(B19,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4187,27 +4247,27 @@
         <v>1</v>
       </c>
       <c r="H20" t="str">
-        <f>VLOOKUP(A20,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> Using computing to re-implement pre-existing cultural artifacts, e.g.\ creating variants of traditional designs using computer drawing tools.</v>
       </c>
       <c r="I20">
-        <f>VLOOKUP(A20,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>VLOOKUP(A20,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" t="str">
-        <f>VLOOKUP(B20,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Usar la informática para volver a implementar artefactos culturales preexistentes, por ejemplo, crear variantes de diseños tradicionales usando herramientas de dibujo por computadora.</v>
       </c>
       <c r="L20">
-        <f>VLOOKUP(B20,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20">
-        <f>VLOOKUP(B20,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4231,27 +4291,27 @@
         <v>1</v>
       </c>
       <c r="H21" t="str">
-        <f>VLOOKUP(A21,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> Someone who can do normal tasks with normal effort under normal circumstances</v>
       </c>
       <c r="I21" t="str">
-        <f>VLOOKUP(A21,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>novice.</v>
       </c>
       <c r="J21" t="str">
-        <f>VLOOKUP(A21,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>expert.</v>
       </c>
       <c r="K21" t="str">
-        <f>VLOOKUP(B21,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Alguien que puede realizar tareas normales con un esfuerzo normal en circunstancias normales.</v>
       </c>
       <c r="L21" t="str">
-        <f>VLOOKUP(B21,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Principiante.</v>
       </c>
       <c r="M21" t="str">
-        <f>VLOOKUP(B21,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Expertos/as.</v>
       </c>
     </row>
@@ -4269,27 +4329,27 @@
         <v>1</v>
       </c>
       <c r="H22" t="str">
-        <f>VLOOKUP(A22,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> Thinking about problem-solving in ways inspired by programming (though the term is used in many other ways).</v>
       </c>
       <c r="I22">
-        <f>VLOOKUP(A22,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22">
-        <f>VLOOKUP(A22,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22" t="str">
-        <f>VLOOKUP(B22,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Pensar la resolución de problemas en formas inspiradas en la programación (aunque el término se usa de muchas otras maneras).</v>
       </c>
       <c r="L22">
-        <f>VLOOKUP(B22,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22">
-        <f>VLOOKUP(B22,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4307,27 +4367,27 @@
         <v>1</v>
       </c>
       <c r="H23" t="str">
-        <f>VLOOKUP(A23,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> A test designed to determine how well a learner understands a domain.  Unlike most instructor-authored tests, concept inventories are based on extensive research and validation.</v>
       </c>
       <c r="I23">
-        <f>VLOOKUP(A23,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>VLOOKUP(A23,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23" t="str">
-        <f>VLOOKUP(B23,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Una prueba diseñada para determinar qué tan bien un alumno comprende un dominio. A diferencia de la mayoría de las pruebas realizadas por instructores, los inventarios de conceptos se basan en una extensa investigación y validación.</v>
       </c>
       <c r="L23">
-        <f>VLOOKUP(B23,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>VLOOKUP(B23,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4345,27 +4405,27 @@
         <v>1</v>
       </c>
       <c r="H24" t="str">
-        <f>VLOOKUP(A24,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> A picture of a mental model in which concepts are nodes in a graph and relationships are (labeled) arcs.</v>
       </c>
       <c r="I24">
-        <f>VLOOKUP(A24,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>VLOOKUP(A24,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24" t="str">
-        <f>VLOOKUP(B24,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Una imagen de un modelo mental en el que los conceptos son nodos en un gráfico y las relaciones entre esos conceptos son arcos (etiquetados).</v>
       </c>
       <c r="L24">
-        <f>VLOOKUP(B24,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M24">
-        <f>VLOOKUP(B24,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4383,27 +4443,27 @@
         <v>1</v>
       </c>
       <c r="H25" t="str">
-        <f>VLOOKUP(A25,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> A theory of learning that holds that knowledge is distributed, that learning is the process of navigating, growing, and pruning connections, and which emphasizes the social aspects of learning made possible by the internet.</v>
       </c>
       <c r="I25">
-        <f>VLOOKUP(A25,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25">
-        <f>VLOOKUP(A25,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" t="str">
-        <f>VLOOKUP(B25,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Una teoría del aprendizaje que sostiene que el conocimiento se distribuye, que el aprendizaje es el proceso de navegación, crecimiento y poda de conexiones, y que enfatiza los aspectos sociales del aprendizaje hechos posibles por Internet.</v>
       </c>
       <c r="L25">
-        <f>VLOOKUP(B25,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>VLOOKUP(B25,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4421,27 +4481,27 @@
         <v>1</v>
       </c>
       <c r="H26" t="str">
-        <f>VLOOKUP(A26,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> A theory of learning that views learners as actively constructing knowledge.</v>
       </c>
       <c r="I26">
-        <f>VLOOKUP(A26,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26">
-        <f>VLOOKUP(A26,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" t="str">
-        <f>VLOOKUP(B26,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Una teoría del aprendizaje que considera a las/os estudiantes construyendo activamente el conocimiento.</v>
       </c>
       <c r="L26">
-        <f>VLOOKUP(B26,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M26">
-        <f>VLOOKUP(B26,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4465,27 +4525,27 @@
         <v>1</v>
       </c>
       <c r="H27" t="str">
-        <f>VLOOKUP(A27,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> A person's understanding of a subject</v>
       </c>
       <c r="I27" t="str">
-        <f>VLOOKUP(A27,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>general pedagogical knowledge.</v>
       </c>
       <c r="J27" t="str">
-        <f>VLOOKUP(A27,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>pedagogical content knowledge</v>
       </c>
       <c r="K27" t="str">
-        <f>VLOOKUP(B27,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>La comprensión de una persona de un tema.</v>
       </c>
       <c r="L27">
-        <f>VLOOKUP(B27,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M27">
-        <f>VLOOKUP(B27,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4506,27 +4566,27 @@
         <v>1</v>
       </c>
       <c r="H28" t="str">
-        <f>VLOOKUP(A28,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> Having learners produce artifacts to contribute to others' learning.</v>
       </c>
       <c r="I28">
-        <f>VLOOKUP(A28,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f>VLOOKUP(A28,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28" t="str">
-        <f>VLOOKUP(B28,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Tener a las/os estudiantes produciendo artefactos para contribuir al aprendizaje de otros.</v>
       </c>
       <c r="L28">
-        <f>VLOOKUP(B28,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M28">
-        <f>VLOOKUP(B28,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4544,27 +4604,27 @@
         <v>1</v>
       </c>
       <c r="H29" t="str">
-        <f>VLOOKUP(A29,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> Someone who needs to know enough about computing to have a meaningful conversation with a programmer, but isn't going to program themselves.</v>
       </c>
       <c r="I29">
-        <f>VLOOKUP(A29,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f>VLOOKUP(A29,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" t="str">
-        <f>VLOOKUP(B29,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Alguien que necesita saber lo suficiente sobre computación para tener una conversación significativa con un programador, pero no que va a programar por sí mismo.</v>
       </c>
       <c r="L29">
-        <f>VLOOKUP(B29,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M29">
-        <f>VLOOKUP(B29,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4585,27 +4645,27 @@
         <v>1</v>
       </c>
       <c r="H30" t="str">
-        <f>VLOOKUP(A30,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> A style of teaching that introduces computing concepts using non-programming examples and artifacts.</v>
       </c>
       <c r="I30">
-        <f>VLOOKUP(A30,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J30">
-        <f>VLOOKUP(A30,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" t="str">
-        <f>VLOOKUP(B30,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Un estilo de enseñanza que introduce conceptos informáticos utilizando ejemplos y artefactos que no son de programación.</v>
       </c>
       <c r="L30">
-        <f>VLOOKUP(B30,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f>VLOOKUP(B30,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4623,27 +4683,27 @@
         <v>1</v>
       </c>
       <c r="H31" t="str">
-        <f>VLOOKUP(A31,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> An introductory college-level course on computing aimed at non-majors with little or no prior experience of programming.</v>
       </c>
       <c r="I31">
-        <f>VLOOKUP(A31,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f>VLOOKUP(A31,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" t="str">
-        <f>VLOOKUP(B31,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Un curso introductorio de nivel universitario sobre computación dirigido a estudiantes no avanzados con poca o ninguna experiencia previa en programación.</v>
       </c>
       <c r="L31">
-        <f>VLOOKUP(B31,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f>VLOOKUP(B31,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4661,27 +4721,27 @@
         <v>1</v>
       </c>
       <c r="H32" t="str">
-        <f>VLOOKUP(A32,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> An introductory college-level computer science course, typically one semester long, that focuses on variables, loops, functions, and other basic mechanics.</v>
       </c>
       <c r="I32">
-        <f>VLOOKUP(A32,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f>VLOOKUP(A32,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K32" t="str">
-        <f>VLOOKUP(B32,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Un curso introductorio de ciencias de la computación a nivel universitario, generalmente de un semestre, que se enfoca en variables, bucles, funciones y otras mecánicas básicas.</v>
       </c>
       <c r="L32">
-        <f>VLOOKUP(B32,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <f>VLOOKUP(B32,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4699,27 +4759,27 @@
         <v>1</v>
       </c>
       <c r="H33" t="str">
-        <f>VLOOKUP(A33,English,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> A second college-level computer science course that typically introduces basic data structures such as stacks, queues, and dictionaries.</v>
       </c>
       <c r="I33">
-        <f>VLOOKUP(A33,English,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f>VLOOKUP(A33,English,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K33" t="str">
-        <f>VLOOKUP(B33,Spanish,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Un segundo curso de ciencias de la computación de nivel universitario que generalmente presenta estructuras de datos básicas como pilas, colas y diccionarios.</v>
       </c>
       <c r="L33">
-        <f>VLOOKUP(B33,Spanish,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M33">
-        <f>VLOOKUP(B33,Spanish,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4737,27 +4797,27 @@
         <v>1</v>
       </c>
       <c r="H34" t="str">
-        <f>VLOOKUP(A34,English,2,FALSE)</f>
+        <f t="shared" ref="H34:H65" si="6">VLOOKUP(A34,English,2,FALSE)</f>
         <v xml:space="preserve"> The idea that some groups are underrepresented in computing (or some other field) because their members lack some attribute or quality.</v>
       </c>
       <c r="I34">
-        <f>VLOOKUP(A34,English,3,FALSE)</f>
+        <f t="shared" ref="I34:I65" si="7">VLOOKUP(A34,English,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J34">
-        <f>VLOOKUP(A34,English,4,FALSE)</f>
+        <f t="shared" ref="J34:J65" si="8">VLOOKUP(A34,English,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K34" t="str">
-        <f>VLOOKUP(B34,Spanish,2,FALSE)</f>
+        <f t="shared" ref="K34:K65" si="9">VLOOKUP(B34,Spanish,2,FALSE)</f>
         <v>La idea de que algunos grupos están subrepresentados en informática (o algún otro campo) porque sus miembros carecen de algún atributo o calidad.</v>
       </c>
       <c r="L34">
-        <f>VLOOKUP(B34,Spanish,3,FALSE)</f>
+        <f t="shared" ref="L34:L65" si="10">VLOOKUP(B34,Spanish,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M34">
-        <f>VLOOKUP(B34,Spanish,4,FALSE)</f>
+        <f t="shared" ref="M34:M65" si="11">VLOOKUP(B34,Spanish,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -4775,27 +4835,27 @@
         <v>1</v>
       </c>
       <c r="H35" t="str">
-        <f>VLOOKUP(A35,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> The act of observing performance of a task while doing it in order to improve ability.</v>
       </c>
       <c r="I35">
-        <f>VLOOKUP(A35,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J35">
-        <f>VLOOKUP(A35,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K35" t="str">
-        <f>VLOOKUP(B35,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>El acto de observar el desempeño de una tarea mientras se realiza para mejorar la capacidad.</v>
       </c>
       <c r="L35">
-        <f>VLOOKUP(B35,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f>VLOOKUP(B35,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4813,27 +4873,27 @@
         <v>1</v>
       </c>
       <c r="H36" t="str">
-        <f>VLOOKUP(A36,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> A staged lesson in which one teacher presents to actual learners while other teachers observe in order to learn new teaching techniques.</v>
       </c>
       <c r="I36">
-        <f>VLOOKUP(A36,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f>VLOOKUP(A36,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K36" t="str">
-        <f>VLOOKUP(B36,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Una lección dictada por un/a docente a estudiantes reales mientras otras/os docentes observan para aprender nuevas técnicas de enseñanza.</v>
       </c>
       <c r="L36">
-        <f>VLOOKUP(B36,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f>VLOOKUP(B36,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4851,27 +4911,27 @@
         <v>1</v>
       </c>
       <c r="H37" t="str">
-        <f>VLOOKUP(A37,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> The degree to which a wrong answer to a question or exercise tells the teacher what misconceptions a particular learner has.</v>
       </c>
       <c r="I37">
-        <f>VLOOKUP(A37,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J37">
-        <f>VLOOKUP(A37,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K37" t="str">
-        <f>VLOOKUP(B37,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> El grado en que una respuesta incorrecta a una pregunta o ejercicio le dice al docente qué conceptos erróneos tiene un/a estudiante en particular.</v>
       </c>
       <c r="L37">
-        <f>VLOOKUP(B37,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M37">
-        <f>VLOOKUP(B37,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4889,27 +4949,27 @@
         <v>1</v>
       </c>
       <c r="H38" t="str">
-        <f>VLOOKUP(A38,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> A teaching method centered around meticulous curriculum design delivered through prescribed script.</v>
       </c>
       <c r="I38">
-        <f>VLOOKUP(A38,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J38">
-        <f>VLOOKUP(A38,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K38" t="str">
-        <f>VLOOKUP(B38,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Un método de enseñanza centrado en un diseño curricular meticuloso dictado a través de guiones pre-escritos.</v>
       </c>
       <c r="L38">
-        <f>VLOOKUP(B38,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M38">
-        <f>VLOOKUP(B38,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4927,27 +4987,27 @@
         <v>1</v>
       </c>
       <c r="H39" t="str">
-        <f>VLOOKUP(A39,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> The tendency of people who only know a little about a subject to incorrectly estimate their understanding of it.</v>
       </c>
       <c r="I39">
-        <f>VLOOKUP(A39,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J39">
-        <f>VLOOKUP(A39,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K39" t="str">
-        <f>VLOOKUP(B39,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>La tendencia de las personas que solo saben un poco sobre un tema a estimar incorrectamente su comprensión del mismo.</v>
       </c>
       <c r="L39">
-        <f>VLOOKUP(B39,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M39">
-        <f>VLOOKUP(B39,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4965,27 +5025,27 @@
         <v>1</v>
       </c>
       <c r="H40" t="str">
-        <f>VLOOKUP(A40,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> The study of how people learn</v>
       </c>
       <c r="I40" t="str">
-        <f>VLOOKUP(A40,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>instructional design.</v>
       </c>
       <c r="J40">
-        <f>VLOOKUP(A40,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K40" t="str">
-        <f>VLOOKUP(B40,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>El estudio de cómo la gente aprende</v>
       </c>
       <c r="L40" t="str">
-        <f>VLOOKUP(B40,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Diseño instruccional</v>
       </c>
       <c r="M40">
-        <f>VLOOKUP(B40,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5003,27 +5063,27 @@
         <v>1</v>
       </c>
       <c r="H41" t="str">
-        <f>VLOOKUP(A41,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> The impairment of self control resulting from prolonged or intensive use.  Recent work has failed to substantiate its existence.</v>
       </c>
       <c r="I41">
-        <f>VLOOKUP(A41,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J41">
-        <f>VLOOKUP(A41,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K41" t="str">
-        <f>VLOOKUP(B41,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>El deterioro del autocontrol debido del uso prolongado o intensivo. Trabajo recientes no han podido corroborar su existencia.</v>
       </c>
       <c r="L41">
-        <f>VLOOKUP(B41,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M41">
-        <f>VLOOKUP(B41,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5041,27 +5101,27 @@
         <v>1</v>
       </c>
       <c r="H42" t="str">
-        <f>VLOOKUP(A42,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> A short description of an idea, project, product, or person that can be delivered and understood in just a few seconds.</v>
       </c>
       <c r="I42">
-        <f>VLOOKUP(A42,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J42">
-        <f>VLOOKUP(A42,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K42" t="str">
-        <f>VLOOKUP(B42,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Una breve descripción de una idea, proyecto, producto o persona que se puede dar y comprender en solo unos segundos.</v>
       </c>
       <c r="L42">
-        <f>VLOOKUP(B42,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M42">
-        <f>VLOOKUP(B42,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5079,27 +5139,27 @@
         <v>1</v>
       </c>
       <c r="H43" t="str">
-        <f>VLOOKUP(A43,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> Someone who does not consider themselves a programmer, but who nevertheless writes and debugs software, such as an artist creating complex macros for a drawing tool.</v>
       </c>
       <c r="I43">
-        <f>VLOOKUP(A43,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J43">
-        <f>VLOOKUP(A43,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K43" t="str">
-        <f>VLOOKUP(B43,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Alguien que no se considera un programador, pero que, sin embargo, escribe y depura software, como por ejemplo, un artista que crea macros complejas para una herramienta de dibujo</v>
       </c>
       <c r="L43">
-        <f>VLOOKUP(B43,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <f>VLOOKUP(B43,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5117,27 +5177,27 @@
         <v>1</v>
       </c>
       <c r="H44" t="str">
-        <f>VLOOKUP(A44,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> By analogy with end-user-programmerend-user programmer, someone who is teaching frequently, but whose primary occupation is not teaching, who has little or no background in pedagogy, and who may work outside institutional classrooms.</v>
       </c>
       <c r="I44">
-        <f>VLOOKUP(A44,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f>VLOOKUP(A44,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K44" t="str">
-        <f>VLOOKUP(B44,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Por analogía con usuario final programador, alguien que enseña con frecuencia, pero cuya ocupación principal no es la enseñanza, que tiene poca o ninguna experiencia en pedagogía y que puede trabajar fuera de las aulas institucionales.</v>
       </c>
       <c r="L44">
-        <f>VLOOKUP(B44,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M44">
-        <f>VLOOKUP(B44,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5161,27 +5221,27 @@
         <v>1</v>
       </c>
       <c r="H45" t="str">
-        <f>VLOOKUP(A45,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> Someone who can diagnose and handle unusual situations, knows when the usual rules do not apply, and tends to recognize solutions rather than reasoning to them.</v>
       </c>
       <c r="I45" t="str">
-        <f>VLOOKUP(A45,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>competent practitioner</v>
       </c>
       <c r="J45" t="str">
-        <f>VLOOKUP(A45,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>novice</v>
       </c>
       <c r="K45" t="str">
-        <f>VLOOKUP(B45,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Alguien que puede diagnosticar y manejar situaciones inusuales, sabe cuándo no se aplican las reglas habituales y tiende a reconocer soluciones en lugar de razonarlas.</v>
       </c>
       <c r="L45" t="str">
-        <f>VLOOKUP(B45,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Practicantes competentes.</v>
       </c>
       <c r="M45" t="str">
-        <f>VLOOKUP(B45,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Principiante.</v>
       </c>
     </row>
@@ -5199,27 +5259,27 @@
         <v>1</v>
       </c>
       <c r="H46" t="str">
-        <f>VLOOKUP(A46,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> The inability of experts to empathize with novices who are encountering concepts or practices for the first time.</v>
       </c>
       <c r="I46">
-        <f>VLOOKUP(A46,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f>VLOOKUP(A46,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K46" t="str">
-        <f>VLOOKUP(B46,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>La incapacidad de las personas expertas para empatizar con las personas novatas que se encuentran por primera vez con conceptos o prácticas.</v>
       </c>
       <c r="L46">
-        <f>VLOOKUP(B46,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M46">
-        <f>VLOOKUP(B46,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5240,27 +5300,27 @@
         <v>1</v>
       </c>
       <c r="H47" t="str">
-        <f>VLOOKUP(A47,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> The way in which instruction that is effective for novices becomes ineffective for competent practitioners or experts.</v>
       </c>
       <c r="I47">
-        <f>VLOOKUP(A47,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f>VLOOKUP(A47,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K47" t="str">
-        <f>VLOOKUP(B47,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>La forma en que la instrucción que es efectiva para los novatos se vuelve ineficaz para los profesionales competentes o expertos.</v>
       </c>
       <c r="L47">
-        <f>VLOOKUP(B47,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f>VLOOKUP(B47,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5281,27 +5341,27 @@
         <v>1</v>
       </c>
       <c r="H48" t="str">
-        <f>VLOOKUP(A48,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> The use of graphical, physical, or verbal aids to augment thinking.</v>
       </c>
       <c r="I48">
-        <f>VLOOKUP(A48,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J48">
-        <f>VLOOKUP(A48,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K48" t="str">
-        <f>VLOOKUP(B48,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>El uso de ayuda gráfica, física o verbal para aumentar el pensamiento.</v>
       </c>
       <c r="L48">
-        <f>VLOOKUP(B48,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M48">
-        <f>VLOOKUP(B48,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5319,27 +5379,27 @@
         <v>1</v>
       </c>
       <c r="H49" t="str">
-        <f>VLOOKUP(A49,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> Any cognitive load that distracts from learning.</v>
       </c>
       <c r="I49">
-        <f>VLOOKUP(A49,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J49">
-        <f>VLOOKUP(A49,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K49" t="str">
-        <f>VLOOKUP(B49,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Cualquier carga cognitiva que distrae del aprendizaje.</v>
       </c>
       <c r="L49">
-        <f>VLOOKUP(B49,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M49">
-        <f>VLOOKUP(B49,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5360,27 +5420,27 @@
         <v>1</v>
       </c>
       <c r="H50" t="str">
-        <f>VLOOKUP(A50,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> Being driven by external rewards such as payment or fear of punishment</v>
       </c>
       <c r="I50" t="str">
-        <f>VLOOKUP(A50,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>intrinsic motivation.</v>
       </c>
       <c r="J50">
-        <f>VLOOKUP(A50,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K50" t="e">
-        <f>VLOOKUP(B50,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="L50" t="e">
-        <f>VLOOKUP(B50,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="M50" t="e">
-        <f>VLOOKUP(B50,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5401,27 +5461,27 @@
         <v>1</v>
       </c>
       <c r="H51" t="str">
-        <f>VLOOKUP(A51,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> A series of examples in which a steadily increasing number of key steps are blanked out</v>
       </c>
       <c r="I51" t="str">
-        <f>VLOOKUP(A51,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>scaffolding.</v>
       </c>
       <c r="J51">
-        <f>VLOOKUP(A51,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K51" t="str">
-        <f>VLOOKUP(B51,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Una serie de ejemplos en los que se borra un número cada vez mayor de pasos clave.</v>
       </c>
       <c r="L51" t="str">
-        <f>VLOOKUP(B51,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Andamiaje.</v>
       </c>
       <c r="M51">
-        <f>VLOOKUP(B51,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5442,27 +5502,27 @@
         <v>1</v>
       </c>
       <c r="H52" t="str">
-        <f>VLOOKUP(A52,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> Someone who has studied a language before but is learning it again. False beginners start at the same point as true beginners (i.e.\ a pre-test will show the same proficiency) but can move much more quickly.</v>
       </c>
       <c r="I52">
-        <f>VLOOKUP(A52,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f>VLOOKUP(A52,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K52" t="str">
-        <f>VLOOKUP(B52,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Alguien que ha estudiado un idioma antes pero lo está aprendiendo nuevamente. Los falsos principiantes comienzan en el mismo punto que los principiantes verdaderos (es decir, en una evaluación inicial mostrarán el mismo nivel de competencia) pero pueden avanzar mucho más rápidamente.</v>
       </c>
       <c r="L52" t="str">
-        <f>VLOOKUP(B52,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Principiante absoluto.</v>
       </c>
       <c r="M52">
-        <f>VLOOKUP(B52,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5483,27 +5543,27 @@
         <v>1</v>
       </c>
       <c r="H53" t="str">
-        <f>VLOOKUP(A53,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> The transfer of learning between widely-separated domains, e.g.\ improvement in math skills as a result of playing chess.</v>
       </c>
       <c r="I53">
-        <f>VLOOKUP(A53,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f>VLOOKUP(A53,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K53" t="str">
-        <f>VLOOKUP(B53,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>La transferencia de aprendizaje entre dominios ampliamente separados, por ejemplo, mejora en las habilidades matemáticas como resultado de jugar al ajedrez.</v>
       </c>
       <c r="L53" t="str">
-        <f>VLOOKUP(B53,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Transferencia de aprendizaje.</v>
       </c>
       <c r="M53">
-        <f>VLOOKUP(B53,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5524,27 +5584,27 @@
         <v>1</v>
       </c>
       <c r="H54" t="str">
-        <f>VLOOKUP(A54,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>A six-part non-hierarchical classification of understanding first proposed in Fink2013 whose categories are foundational knowledge, application, integration, human dimension, caring, and learning how to learn</v>
       </c>
       <c r="I54" t="str">
-        <f>VLOOKUP(A54,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Bloom's Taxonomy.</v>
       </c>
       <c r="J54">
-        <f>VLOOKUP(A54,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K54" t="str">
-        <f>VLOOKUP(B54,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Una clasificación de comprensión no jerárquica de seis partes, propuesta por primera vez en Fink, 2013, cuyas categorías son conocimiento fundamental, aplicación, integración, dimensión humana, cuidado y aprender a aprender</v>
       </c>
       <c r="L54" t="str">
-        <f>VLOOKUP(B54,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Taxonomía de Bloom.</v>
       </c>
       <c r="M54">
-        <f>VLOOKUP(B54,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5562,27 +5622,27 @@
         <v>1</v>
       </c>
       <c r="H55" t="str">
-        <f>VLOOKUP(A55,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>The belief that an ability is innate, and that failure is due to a lack of some necessary attribute</v>
       </c>
       <c r="I55" t="str">
-        <f>VLOOKUP(A55,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>growth mindset.</v>
       </c>
       <c r="J55">
-        <f>VLOOKUP(A55,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K55" t="str">
-        <f>VLOOKUP(B55,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>La creencia de que una habilidad es innata y que el fracaso se debe a la falta de algún atributo necesario</v>
       </c>
       <c r="L55" t="str">
-        <f>VLOOKUP(B55,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Mentalidad de crecimiento.</v>
       </c>
       <c r="M55">
-        <f>VLOOKUP(B55,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5600,27 +5660,27 @@
         <v>1</v>
       </c>
       <c r="H56" t="str">
-        <f>VLOOKUP(A56,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>One in which learners watch recorded lessons on their own time, while class time is used to work through problem sets and answer questions.</v>
       </c>
       <c r="I56">
-        <f>VLOOKUP(A56,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J56">
-        <f>VLOOKUP(A56,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K56" t="str">
-        <f>VLOOKUP(B56,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Una clase en la que los alumnos ven lecciones grabadas en su propio tiempo, mientras que el tiempo de clase se utiliza para resolver conjuntos de problemas y responder preguntas.</v>
       </c>
       <c r="L56">
-        <f>VLOOKUP(B56,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M56">
-        <f>VLOOKUP(B56,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5638,27 +5698,27 @@
         <v>1</v>
       </c>
       <c r="H57" t="str">
-        <f>VLOOKUP(A57,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>The feeling of being fully immersed in an activity;frequently associated with high productivity.</v>
       </c>
       <c r="I57">
-        <f>VLOOKUP(A57,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J57">
-        <f>VLOOKUP(A57,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K57" t="str">
-        <f>VLOOKUP(B57,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>La sensación de estar completamente inmerso en una actividad,  frecuentemente asociada con una alta productividad.</v>
       </c>
       <c r="L57">
-        <f>VLOOKUP(B57,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M57">
-        <f>VLOOKUP(B57,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5676,27 +5736,27 @@
         <v>1</v>
       </c>
       <c r="H58" t="str">
-        <f>VLOOKUP(A58,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>The ability to move quickly between different models of a problem.</v>
       </c>
       <c r="I58">
-        <f>VLOOKUP(A58,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J58">
-        <f>VLOOKUP(A58,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K58" t="str">
-        <f>VLOOKUP(B58,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>La capacidad de moverse rápidamente entre diferentes modelos de un problema.</v>
       </c>
       <c r="L58">
-        <f>VLOOKUP(B58,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M58">
-        <f>VLOOKUP(B58,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5717,27 +5777,27 @@
         <v>1</v>
       </c>
       <c r="H59" t="str">
-        <f>VLOOKUP(A59,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Assessment that takes place during a lesson in order to give both the learner and the teacher feedback on actual understanding</v>
       </c>
       <c r="I59" t="str">
-        <f>VLOOKUP(A59,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>summative assessment.</v>
       </c>
       <c r="J59">
-        <f>VLOOKUP(A59,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K59" t="str">
-        <f>VLOOKUP(B59,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Evaluación que se lleva a cabo durante una clase para dar retroalimentación tanto al alumno como al profesor sobre la comprensión real</v>
       </c>
       <c r="L59" t="str">
-        <f>VLOOKUP(B59,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Evaluación sumativa.</v>
       </c>
       <c r="M59">
-        <f>VLOOKUP(B59,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5758,27 +5818,27 @@
         <v>1</v>
       </c>
       <c r="H60" t="str">
-        <f>VLOOKUP(A60,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Someone learning outside an institutional classroom with required homework and mandated curriculum. (Those who use the term occasionally refer to learners in classrooms as "battery-farmed learners" but we don't because that would be rude.)</v>
       </c>
       <c r="I60">
-        <f>VLOOKUP(A60,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J60">
-        <f>VLOOKUP(A60,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K60" t="e">
-        <f>VLOOKUP(B60,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="L60" t="e">
-        <f>VLOOKUP(B60,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="M60" t="e">
-        <f>VLOOKUP(B60,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5796,27 +5856,27 @@
         <v>1</v>
       </c>
       <c r="H61" t="str">
-        <f>VLOOKUP(A61,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> A software testing technique based on generating and submitting random data.</v>
       </c>
       <c r="I61">
-        <f>VLOOKUP(A61,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J61">
-        <f>VLOOKUP(A61,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K61" t="str">
-        <f>VLOOKUP(B61,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Una técnica de prueba de software basada en generar y enviar datos aleatorios.</v>
       </c>
       <c r="L61">
-        <f>VLOOKUP(B61,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f>VLOOKUP(B61,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5843,27 +5903,27 @@
         <v>1</v>
       </c>
       <c r="H62" t="str">
-        <f>VLOOKUP(A62,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> A person's understanding of the general principles of teaching</v>
       </c>
       <c r="I62" t="str">
-        <f>VLOOKUP(A62,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>content knowledge</v>
       </c>
       <c r="J62" t="str">
-        <f>VLOOKUP(A62,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>pedagogical content knowledge.</v>
       </c>
       <c r="K62" t="str">
-        <f>VLOOKUP(B62,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>La comprensión de una persona de los principios generales de la enseñanza.</v>
       </c>
       <c r="L62" t="str">
-        <f>VLOOKUP(B62,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Conocimiento del contenido.</v>
       </c>
       <c r="M62" t="str">
-        <f>VLOOKUP(B62,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Conocimiento de contenido pedagógico</v>
       </c>
     </row>
@@ -5881,27 +5941,27 @@
         <v>1</v>
       </c>
       <c r="H63" t="str">
-        <f>VLOOKUP(A63,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> The cognitive-loadcognitive load required to link new information to old.</v>
       </c>
       <c r="I63">
-        <f>VLOOKUP(A63,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J63">
-        <f>VLOOKUP(A63,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K63" t="str">
-        <f>VLOOKUP(B63,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>La carga cognitiva requerida para vincular la nueva información con la antigua.</v>
       </c>
       <c r="L63">
-        <f>VLOOKUP(B63,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M63">
-        <f>VLOOKUP(B63,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5919,27 +5979,27 @@
         <v>1</v>
       </c>
       <c r="H64" t="str">
-        <f>VLOOKUP(A64,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> A board whose primary responsibility is to hire, monitor, and if need be, fire the director.</v>
       </c>
       <c r="I64">
-        <f>VLOOKUP(A64,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J64">
-        <f>VLOOKUP(A64,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K64" t="str">
-        <f>VLOOKUP(B64,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Una junta cuya responsabilidad principal es contratar, supervisar y, si es necesario, despedir al director.</v>
       </c>
       <c r="L64">
-        <f>VLOOKUP(B64,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M64">
-        <f>VLOOKUP(B64,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5963,27 +6023,27 @@
         <v>1</v>
       </c>
       <c r="H65" t="str">
-        <f>VLOOKUP(A65,English,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> The belief that ability comes with practice</v>
       </c>
       <c r="I65" t="str">
-        <f>VLOOKUP(A65,English,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>fixed-mindsetfixed mindset.</v>
       </c>
       <c r="J65">
-        <f>VLOOKUP(A65,English,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K65" t="str">
-        <f>VLOOKUP(B65,Spanish,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>La creencia de que la habilidad viene con la práctica.</v>
       </c>
       <c r="L65" t="str">
-        <f>VLOOKUP(B65,Spanish,3,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Mentalidad fija.</v>
       </c>
       <c r="M65">
-        <f>VLOOKUP(B65,Spanish,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6001,27 +6061,27 @@
         <v>1</v>
       </c>
       <c r="H66" t="str">
-        <f>VLOOKUP(A66,English,2,FALSE)</f>
+        <f t="shared" ref="H66:H97" si="12">VLOOKUP(A66,English,2,FALSE)</f>
         <v xml:space="preserve"> Teacher-prepared notes that cue learners to respond to key information in a lecture or discussion.</v>
       </c>
       <c r="I66">
-        <f>VLOOKUP(A66,English,3,FALSE)</f>
+        <f t="shared" ref="I66:I97" si="13">VLOOKUP(A66,English,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J66">
-        <f>VLOOKUP(A66,English,4,FALSE)</f>
+        <f t="shared" ref="J66:J97" si="14">VLOOKUP(A66,English,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K66" t="str">
-        <f>VLOOKUP(B66,Spanish,2,FALSE)</f>
+        <f t="shared" ref="K66:K97" si="15">VLOOKUP(B66,Spanish,2,FALSE)</f>
         <v>Notas preparadas por la/el docente que indican a las/os estudiantes que respondan a la información clave en una conferencia o discusión.</v>
       </c>
       <c r="L66">
-        <f>VLOOKUP(B66,Spanish,3,FALSE)</f>
+        <f t="shared" ref="L66:L97" si="16">VLOOKUP(B66,Spanish,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M66">
-        <f>VLOOKUP(B66,Spanish,4,FALSE)</f>
+        <f t="shared" ref="M66:M97" si="17">VLOOKUP(B66,Spanish,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -6039,27 +6099,27 @@
         <v>1</v>
       </c>
       <c r="H67" t="str">
-        <f>VLOOKUP(A67,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> Generating a condensed pseudo-random digital key from data; any specific input produces the same output, but different inputs are highly likely to produce different outputs.</v>
       </c>
       <c r="I67">
-        <f>VLOOKUP(A67,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J67">
-        <f>VLOOKUP(A67,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K67" t="str">
-        <f>VLOOKUP(B67,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Generar una clave digital pseudoaleatoria condensada a partir de datos; cualquier entrada específica produce la misma salida, pero es muy probable que diferentes entradas produzcan diferentes salidas.</v>
       </c>
       <c r="L67">
-        <f>VLOOKUP(B67,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M67">
-        <f>VLOOKUP(B67,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6080,27 +6140,27 @@
         <v>1</v>
       </c>
       <c r="H68" t="e">
-        <f>VLOOKUP(A68,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="I68" t="e">
-        <f>VLOOKUP(A68,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="J68" t="e">
-        <f>VLOOKUP(A68,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="K68" t="str">
-        <f>VLOOKUP(B68,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Cuanto más creé alguien que su respuesta en un exámen era correcta, más probabilidades hay de que no repitan el error una vez que descubre que, de hecho, estaban equivocados.</v>
       </c>
       <c r="L68">
-        <f>VLOOKUP(B68,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M68">
-        <f>VLOOKUP(B68,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6121,27 +6181,27 @@
         <v>1</v>
       </c>
       <c r="H69" t="str">
-        <f>VLOOKUP(A69,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> The study of how to translate research findings to everyday clinical practice.</v>
       </c>
       <c r="I69">
-        <f>VLOOKUP(A69,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J69">
-        <f>VLOOKUP(A69,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K69" t="str">
-        <f>VLOOKUP(B69,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>El estudio de cómo traducir los hallazgos de la investigación a la práctica clínica diaria.</v>
       </c>
       <c r="L69">
-        <f>VLOOKUP(B69,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M69">
-        <f>VLOOKUP(B69,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6159,27 +6219,27 @@
         <v>1</v>
       </c>
       <c r="H70" t="str">
-        <f>VLOOKUP(A70,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> A feeling of insecurity about one's accomplishments that manifests as a fear of being exposed as a fraud.</v>
       </c>
       <c r="I70">
-        <f>VLOOKUP(A70,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J70">
-        <f>VLOOKUP(A70,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K70" t="str">
-        <f>VLOOKUP(B70,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Un sentimiento de inseguridad sobre los logros propios, que se manifiesta como un miedo a ser expuesto como un fraude.</v>
       </c>
       <c r="L70">
-        <f>VLOOKUP(B70,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f>VLOOKUP(B70,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6197,27 +6257,27 @@
         <v>1</v>
       </c>
       <c r="H71" t="str">
-        <f>VLOOKUP(A71,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> Working actively to include people with diverse backgrounds and needs.</v>
       </c>
       <c r="I71">
-        <f>VLOOKUP(A71,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f>VLOOKUP(A71,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K71" t="str">
-        <f>VLOOKUP(B71,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Trabajar activamente para incluir personas con diversos antecedentes y necesidades.</v>
       </c>
       <c r="L71">
-        <f>VLOOKUP(B71,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M71">
-        <f>VLOOKUP(B71,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6238,27 +6298,27 @@
         <v>1</v>
       </c>
       <c r="H72" t="str">
-        <f>VLOOKUP(A72,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> The practice of allowing learners to ask their own questions, set their own goals, and find their own path through a subject.</v>
       </c>
       <c r="I72">
-        <f>VLOOKUP(A72,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <f>VLOOKUP(A72,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K72" t="str">
-        <f>VLOOKUP(B72,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>La práctica de permitir que las/os estudiantes hagan sus propias preguntas, establezcan sus propios objetivos y encuentren su propio camino a través de un tema.</v>
       </c>
       <c r="L72">
-        <f>VLOOKUP(B72,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M72">
-        <f>VLOOKUP(B72,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6279,27 +6339,27 @@
         <v>1</v>
       </c>
       <c r="H73" t="str">
-        <f>VLOOKUP(A73,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> The craft of creating and evaluating specific lessons for specific audiences</v>
       </c>
       <c r="I73" t="str">
-        <f>VLOOKUP(A73,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>educational psychology.</v>
       </c>
       <c r="J73">
-        <f>VLOOKUP(A73,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K73" t="str">
-        <f>VLOOKUP(B73,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>El arte de crear y evaluar lecciones específicas para audiencias específicas.</v>
       </c>
       <c r="L73" t="str">
-        <f>VLOOKUP(B73,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>Psicología Educacional.</v>
       </c>
       <c r="M73">
-        <f>VLOOKUP(B73,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6317,27 +6377,27 @@
         <v>1</v>
       </c>
       <c r="H74" t="str">
-        <f>VLOOKUP(A74,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> The cognitive load required to absorb new information.</v>
       </c>
       <c r="I74" t="str">
-        <f>VLOOKUP(A74,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>cognitive load.</v>
       </c>
       <c r="J74">
-        <f>VLOOKUP(A74,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K74" t="str">
-        <f>VLOOKUP(B74,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>La carga cognitiva requerida para absorber nueva información.</v>
       </c>
       <c r="L74" t="str">
-        <f>VLOOKUP(B74,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>Carga cognitiva.</v>
       </c>
       <c r="M74">
-        <f>VLOOKUP(B74,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6358,27 +6418,27 @@
         <v>1</v>
       </c>
       <c r="H75" t="str">
-        <f>VLOOKUP(A75,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> Being driven by enjoyment of a task or the satisfaction of doing it for its own sake</v>
       </c>
       <c r="I75" t="str">
-        <f>VLOOKUP(A75,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>extrinsic motivation.</v>
       </c>
       <c r="J75">
-        <f>VLOOKUP(A75,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K75" t="str">
-        <f>VLOOKUP(B75,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Ser impulsada/o por el disfrute o la satisfacción de hacer una tarea como fin en si mismo</v>
       </c>
       <c r="L75" t="str">
-        <f>VLOOKUP(B75,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>Motivación extrínseca</v>
       </c>
       <c r="M75">
-        <f>VLOOKUP(B75,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6396,27 +6456,27 @@
         <v>1</v>
       </c>
       <c r="H76" t="str">
-        <f>VLOOKUP(A76,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> The ability to understand something immediately, without any apparent need for conscious reasoning.</v>
       </c>
       <c r="I76">
-        <f>VLOOKUP(A76,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J76">
-        <f>VLOOKUP(A76,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K76" t="str">
-        <f>VLOOKUP(B76,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>La capacidad de comprender algo de inmediato, sin necesidad aparente de razonamiento consciente.</v>
       </c>
       <c r="L76">
-        <f>VLOOKUP(B76,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M76">
-        <f>VLOOKUP(B76,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6434,27 +6494,27 @@
         <v>1</v>
       </c>
       <c r="H77" t="str">
-        <f>VLOOKUP(A77,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> Literally "lesson study" a set of practices that includes having teachers routinely observe one another and discuss lessons to share knowledge and improve skills.</v>
       </c>
       <c r="I77">
-        <f>VLOOKUP(A77,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J77">
-        <f>VLOOKUP(A77,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K77" t="str">
-        <f>VLOOKUP(B77,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Literalmente "estudio de lección", un conjunto de prácticas que incluye hacer que las/os docentes se observen rutinariamente entre sí y discutan las lecciones que imparten para compartir conocimientos y mejorar habilidades.</v>
       </c>
       <c r="L77">
-        <f>VLOOKUP(B77,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M77">
-        <f>VLOOKUP(B77,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6475,27 +6535,27 @@
         <v>1</v>
       </c>
       <c r="H78" t="str">
-        <f>VLOOKUP(A78,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> A situation in which people who are repeatedly subjected to negative feedback that they have no way to escape learn not to even try to escape when they could.</v>
       </c>
       <c r="I78">
-        <f>VLOOKUP(A78,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J78">
-        <f>VLOOKUP(A78,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K78" t="e">
-        <f>VLOOKUP(B78,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="L78" t="e">
-        <f>VLOOKUP(B78,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="M78" t="e">
-        <f>VLOOKUP(B78,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -6513,27 +6573,27 @@
         <v>1</v>
       </c>
       <c r="H79" t="str">
-        <f>VLOOKUP(A79,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> A brief description of a typical target learner for a lesson that includes their general background, what they already know, what they want to do, how the lesson will help them, and any special needs they might have.</v>
       </c>
       <c r="I79">
-        <f>VLOOKUP(A79,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J79">
-        <f>VLOOKUP(A79,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K79" t="str">
-        <f>VLOOKUP(B79,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Una breve descripción de un/a estudiante objetivo tipo para una lección que incluye: sus antecedentes generales, lo que ya sabe, lo que quiere hacer, cómo la lección le ayudará y cualquier necesidad especial que puedan tener.</v>
       </c>
       <c r="L79">
-        <f>VLOOKUP(B79,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M79">
-        <f>VLOOKUP(B79,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6551,27 +6611,27 @@
         <v>1</v>
       </c>
       <c r="H80" t="str">
-        <f>VLOOKUP(A80,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> An application for tracking course enrollment, exercise submissions, grades, and other bureaucratic aspects of formal classroom learning.</v>
       </c>
       <c r="I80">
-        <f>VLOOKUP(A80,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J80">
-        <f>VLOOKUP(A80,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K80" t="str">
-        <f>VLOOKUP(B80,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Una aplicación para registrar la inscripción a cursos, presentaciones de ejercicios, calificaciones y otros aspectos burocráticos del aprendizaje formal en el aula.</v>
       </c>
       <c r="L80">
-        <f>VLOOKUP(B80,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M80">
-        <f>VLOOKUP(B80,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6589,27 +6649,27 @@
         <v>1</v>
       </c>
       <c r="H81" t="str">
-        <f>VLOOKUP(A81,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> What a lesson is trying to achieve.</v>
       </c>
       <c r="I81">
-        <f>VLOOKUP(A81,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J81">
-        <f>VLOOKUP(A81,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K81" t="str">
-        <f>VLOOKUP(B81,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Qué está intentando lograr la lección.</v>
       </c>
       <c r="L81">
-        <f>VLOOKUP(B81,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M81">
-        <f>VLOOKUP(B81,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6627,27 +6687,27 @@
         <v>1</v>
       </c>
       <c r="H82" t="str">
-        <f>VLOOKUP(A82,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> What a lesson actually achieves.</v>
       </c>
       <c r="I82">
-        <f>VLOOKUP(A82,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J82">
-        <f>VLOOKUP(A82,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K82" t="str">
-        <f>VLOOKUP(B82,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Qué es lo que la lección realmente logra.</v>
       </c>
       <c r="L82">
-        <f>VLOOKUP(B82,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M82">
-        <f>VLOOKUP(B82,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6665,27 +6725,27 @@
         <v>1</v>
       </c>
       <c r="H83" t="e">
-        <f>VLOOKUP(A83,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="I83" t="e">
-        <f>VLOOKUP(A83,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="J83" t="e">
-        <f>VLOOKUP(A83,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="K83" t="str">
-        <f>VLOOKUP(B83,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>La participación de las/os recién llegadas/os en tareas simples y de bajo riesgo que una comunidad de práctica reconoce como contribuciones válidas.</v>
       </c>
       <c r="L83" t="str">
-        <f>VLOOKUP(B83,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>Comunidad de práctica.</v>
       </c>
       <c r="M83">
-        <f>VLOOKUP(B83,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6703,27 +6763,27 @@
         <v>1</v>
       </c>
       <c r="H84" t="str">
-        <f>VLOOKUP(A84,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> The act of teaching programming by writing software in front of learners as the lesson progresses.</v>
       </c>
       <c r="I84">
-        <f>VLOOKUP(A84,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J84">
-        <f>VLOOKUP(A84,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K84" t="str">
-        <f>VLOOKUP(B84,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>El acto de enseñar programación escribiendo software frente a los alumnos a medida que avanza la lección.</v>
       </c>
       <c r="L84">
-        <f>VLOOKUP(B84,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M84">
-        <f>VLOOKUP(B84,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6744,27 +6804,27 @@
         <v>1</v>
       </c>
       <c r="H85" t="str">
-        <f>VLOOKUP(A85,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> The part of memory that stores information for long periods of time. Long-term memory is very large, but slow</v>
       </c>
       <c r="I85" t="str">
-        <f>VLOOKUP(A85,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>short-term memory.</v>
       </c>
       <c r="J85">
-        <f>VLOOKUP(A85,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K85" t="str">
-        <f>VLOOKUP(B85,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>La parte de la memoria que almacena información durante largos períodos de tiempo. La memoria a largo plazo es muy grande, pero lenta.</v>
       </c>
       <c r="L85" t="str">
-        <f>VLOOKUP(B85,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>Memoria de corto plazo.</v>
       </c>
       <c r="M85">
-        <f>VLOOKUP(B85,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6782,27 +6842,27 @@
         <v>1</v>
       </c>
       <c r="H86" t="str">
-        <f>VLOOKUP(A86,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> Reference material intended to help someone who already understands a subject fill in (or remind themselves of) details.</v>
       </c>
       <c r="I86">
-        <f>VLOOKUP(A86,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J86">
-        <f>VLOOKUP(A86,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K86" t="str">
-        <f>VLOOKUP(B86,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Material de referencia, destinado a ayudar a alguien que ya comprende un tema, a completar (o recordar) detalles.</v>
       </c>
       <c r="L86">
-        <f>VLOOKUP(B86,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M86">
-        <f>VLOOKUP(B86,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6820,27 +6880,27 @@
         <v>1</v>
       </c>
       <c r="H87" t="str">
-        <f>VLOOKUP(A87,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> The craft of seeing things from other people's perspective, understanding their wants and needs, and finding ways to meet them </v>
       </c>
       <c r="I87">
-        <f>VLOOKUP(A87,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J87">
-        <f>VLOOKUP(A87,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K87" t="str">
-        <f>VLOOKUP(B87,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>El arte de ver las cosas desde la perspectiva de otras personas, comprender sus deseos y necesidades y encontrar formas de satisfacerlas.</v>
       </c>
       <c r="L87">
-        <f>VLOOKUP(B87,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M87">
-        <f>VLOOKUP(B87,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6858,27 +6918,27 @@
         <v>1</v>
       </c>
       <c r="H88" t="str">
-        <f>VLOOKUP(A88,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> An online course designed for massive enrollment and asynchronous study, typically using recorded videos and automated grading.</v>
       </c>
       <c r="I88">
-        <f>VLOOKUP(A88,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J88">
-        <f>VLOOKUP(A88,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K88" t="str">
-        <f>VLOOKUP(B88,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Un curso en línea diseñado para la inscripción masiva y el estudio asincrónico, que generalmente usa videos grabados y calificaciones automáticas.</v>
       </c>
       <c r="L88">
-        <f>VLOOKUP(B88,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M88">
-        <f>VLOOKUP(B88,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6896,27 +6956,27 @@
         <v>1</v>
       </c>
       <c r="H89" t="str">
-        <f>VLOOKUP(A89,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> A simplified representation of the key elements and relationships of some problem domain that is good enough to support problem solving.</v>
       </c>
       <c r="I89">
-        <f>VLOOKUP(A89,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J89">
-        <f>VLOOKUP(A89,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K89" t="str">
-        <f>VLOOKUP(B89,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Una representación simplificada de los elementos clave y las relaciones de algunos dominios de problemas que es lo suficientemente buena como para apoyar la resolución de problemas.</v>
       </c>
       <c r="L89">
-        <f>VLOOKUP(B89,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M89">
-        <f>VLOOKUP(B89,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6934,27 +6994,27 @@
         <v>1</v>
       </c>
       <c r="H90" t="str">
-        <f>VLOOKUP(A90,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> Thinking about thinking.</v>
       </c>
       <c r="I90">
-        <f>VLOOKUP(A90,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J90">
-        <f>VLOOKUP(A90,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K90" t="str">
-        <f>VLOOKUP(B90,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Pensar sobre pensar.</v>
       </c>
       <c r="L90">
-        <f>VLOOKUP(B90,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M90">
-        <f>VLOOKUP(B90,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6975,27 +7035,27 @@
         <v>1</v>
       </c>
       <c r="H91" t="str">
-        <f>VLOOKUP(A91,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> An approach to training that breaks every task into single-page instructions that also explain how to diagnose and correct common errors.</v>
       </c>
       <c r="I91">
-        <f>VLOOKUP(A91,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f>VLOOKUP(A91,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K91" t="str">
-        <f>VLOOKUP(B91,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Un enfoque de capacitación que divide cada tarea en instrucciones de una sola página que también explican cómo diagnosticar y corregir errores comunes.</v>
       </c>
       <c r="L91">
-        <f>VLOOKUP(B91,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M91">
-        <f>VLOOKUP(B91,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -7016,27 +7076,27 @@
         <v>1</v>
       </c>
       <c r="H92" t="str">
-        <f>VLOOKUP(A92,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> A feedback technique in which learners spend a minute writing one positive thing about a lesson (e.g.\ one thing they've learned) and one negative thing (e.g.\ a question that still hasn't been answered).</v>
       </c>
       <c r="I92">
-        <f>VLOOKUP(A92,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J92">
-        <f>VLOOKUP(A92,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K92" t="str">
-        <f>VLOOKUP(B92,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Una técnica de retroalimentación en la que los alumnos pasan un minuto escribiendo una cosa positiva sobre una lección (por ejemplo, una cosa que han aprendido) y una cosa negativa (por ejemplo, una pregunta que aún no ha sido respondida).</v>
       </c>
       <c r="L92">
-        <f>VLOOKUP(B92,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M92">
-        <f>VLOOKUP(B92,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -7054,27 +7114,27 @@
         <v>1</v>
       </c>
       <c r="H93" t="str">
-        <f>VLOOKUP(A93,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> Transfer of learning between closely-related domains, e.g.\ improvement in understanding of decimals as a result of doing exercises with fractions.</v>
       </c>
       <c r="I93">
-        <f>VLOOKUP(A93,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f>VLOOKUP(A93,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K93" t="str">
-        <f>VLOOKUP(B93,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Transferencia de aprendizaje entre dominios estrechamente relacionados, por ejemplo, mejora en la comprensión de decimales como resultado de hacer ejercicios con fracciones.</v>
       </c>
       <c r="L93" t="str">
-        <f>VLOOKUP(B93,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>Transferencia de aprendizaje.</v>
       </c>
       <c r="M93">
-        <f>VLOOKUP(B93,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -7092,27 +7152,27 @@
         <v>1</v>
       </c>
       <c r="H94" t="str">
-        <f>VLOOKUP(A94,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> A general, simplified model of how a particular family of programs executes.</v>
       </c>
       <c r="I94">
-        <f>VLOOKUP(A94,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J94">
-        <f>VLOOKUP(A94,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K94" t="str">
-        <f>VLOOKUP(B94,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Un modelo general simplificado de cómo se ejecuta una familia particular de programas.</v>
       </c>
       <c r="L94">
-        <f>VLOOKUP(B94,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M94">
-        <f>VLOOKUP(B94,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -7136,27 +7196,27 @@
         <v>1</v>
       </c>
       <c r="H95" t="str">
-        <f>VLOOKUP(A95,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> Someone who has not yet built a usable mental model of a domain</v>
       </c>
       <c r="I95" t="str">
-        <f>VLOOKUP(A95,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>competent practitioner.</v>
       </c>
       <c r="J95" t="str">
-        <f>VLOOKUP(A95,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>expert.</v>
       </c>
       <c r="K95" t="str">
-        <f>VLOOKUP(B95,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Alguien que aún no ha construido un modelo mental utilizable de un dominio.</v>
       </c>
       <c r="L95" t="str">
-        <f>VLOOKUP(B95,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>Practicantes competentes.</v>
       </c>
       <c r="M95" t="str">
-        <f>VLOOKUP(B95,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>Experta/o.</v>
       </c>
     </row>
@@ -7174,27 +7234,27 @@
         <v>1</v>
       </c>
       <c r="H96" t="str">
-        <f>VLOOKUP(A96,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> An approach to teaching programming in which objects and classes are introduced early.</v>
       </c>
       <c r="I96">
-        <f>VLOOKUP(A96,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J96">
-        <f>VLOOKUP(A96,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K96" t="e">
-        <f>VLOOKUP(B96,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="L96" t="e">
-        <f>VLOOKUP(B96,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="M96" t="e">
-        <f>VLOOKUP(B96,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -7212,27 +7272,27 @@
         <v>1</v>
       </c>
       <c r="H97" t="str">
-        <f>VLOOKUP(A97,English,2,FALSE)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> A software development practice in which two programmers share one computer. One programmer (the driver) does the typing, while the other (the navigator) offers comments and suggestions in real time. Pair programming is often used as a teaching practice in programming classes.</v>
       </c>
       <c r="I97">
-        <f>VLOOKUP(A97,English,3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J97">
-        <f>VLOOKUP(A97,English,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K97" t="str">
-        <f>VLOOKUP(B97,Spanish,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>Una práctica de desarrollo de software en la que dos programadores comparten una computadora. Un programador (el piloto) escribe, mientras que el otro (el navegante) ofrece comentarios y sugerencias en tiempo real. La programación en pareja a menudo se usa como práctica docente en las clases de programación (Pars2006).</v>
       </c>
       <c r="L97">
-        <f>VLOOKUP(B97,Spanish,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M97">
-        <f>VLOOKUP(B97,Spanish,4,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -7250,27 +7310,27 @@
         <v>1</v>
       </c>
       <c r="H98" t="str">
-        <f>VLOOKUP(A98,English,2,FALSE)</f>
+        <f t="shared" ref="H98:H129" si="18">VLOOKUP(A98,English,2,FALSE)</f>
         <v xml:space="preserve"> An assessment technique developed by Dale Parsons and others in which learners rearrange given material to construct a correct answer to a question.</v>
       </c>
       <c r="I98">
-        <f>VLOOKUP(A98,English,3,FALSE)</f>
+        <f t="shared" ref="I98:I129" si="19">VLOOKUP(A98,English,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J98">
-        <f>VLOOKUP(A98,English,4,FALSE)</f>
+        <f t="shared" ref="J98:J129" si="20">VLOOKUP(A98,English,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K98" t="str">
-        <f>VLOOKUP(B98,Spanish,2,FALSE)</f>
+        <f t="shared" ref="K98:K129" si="21">VLOOKUP(B98,Spanish,2,FALSE)</f>
         <v>Una técnica de evaluación desarrollada por Dale Parsons y otros en la que los alumnos reorganizan el material dado para construir una respuesta correcta a una pregunta.</v>
       </c>
       <c r="L98">
-        <f>VLOOKUP(B98,Spanish,3,FALSE)</f>
+        <f t="shared" ref="L98:L129" si="22">VLOOKUP(B98,Spanish,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M98">
-        <f>VLOOKUP(B98,Spanish,4,FALSE)</f>
+        <f t="shared" ref="M98:M129" si="23">VLOOKUP(B98,Spanish,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7288,27 +7348,27 @@
         <v>1</v>
       </c>
       <c r="H99" t="str">
-        <f>VLOOKUP(A99,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> An approach to instruction in which learners read, listen, or watch without immediately using new knowledge. Passive learning is less effective than active learning.</v>
       </c>
       <c r="I99">
-        <f>VLOOKUP(A99,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f>VLOOKUP(A99,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K99" t="str">
-        <f>VLOOKUP(B99,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Un enfoque de la enseñanza en el que las/os estudiantes leen, escuchan o miran sin utilizar inmediatamente nuevos conocimientos. El aprendizaje pasivo es menos efectivo que el aprendizaje activo.</v>
       </c>
       <c r="L99">
-        <f>VLOOKUP(B99,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M99">
-        <f>VLOOKUP(B99,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7329,27 +7389,27 @@
         <v>1</v>
       </c>
       <c r="H100" t="str">
-        <f>VLOOKUP(A100,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> An approach to instruction in which the teacher does not adjust pace or examples, or otherwise act on feedback from learners, during the lesson</v>
       </c>
       <c r="I100" t="str">
-        <f>VLOOKUP(A100,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>active teaching.</v>
       </c>
       <c r="J100">
-        <f>VLOOKUP(A100,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K100" t="str">
-        <f>VLOOKUP(B100,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Un enfoque a la enseñanza en el que la/el docente no ajusta el ritmo o los ejemplos, o no actúa de acuerdo con los comentarios de las/os estudiantes, durante la lección</v>
       </c>
       <c r="L100" t="str">
-        <f>VLOOKUP(B100,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>Enseñanza activa.</v>
       </c>
       <c r="M100">
-        <f>VLOOKUP(B100,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7376,27 +7436,27 @@
         <v>1</v>
       </c>
       <c r="H101" t="str">
-        <f>VLOOKUP(A101,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> The understanding of how to teach a particular subject, i.e.\ the best order in which to introduce topics and what examples to use</v>
       </c>
       <c r="I101" t="str">
-        <f>VLOOKUP(A101,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>content knowledge</v>
       </c>
       <c r="J101" t="str">
-        <f>VLOOKUP(A101,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>general pedagogical knowledge.</v>
       </c>
       <c r="K101" t="str">
-        <f>VLOOKUP(B101,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>La comprensión de cómo enseñar un tema en particular, es decir, el mejor orden en el cual introducir temas y qué ejemplos usar</v>
       </c>
       <c r="L101" t="str">
-        <f>VLOOKUP(B101,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>Conocimiento del contenido</v>
       </c>
       <c r="M101" t="str">
-        <f>VLOOKUP(B101,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>Conocimiento pedagógico general</v>
       </c>
     </row>
@@ -7414,27 +7474,27 @@
         <v>1</v>
       </c>
       <c r="H102" t="str">
-        <f>VLOOKUP(A102,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> A teaching method in which an teacher poses a question and then learners commit to a first answer, discuss answers with their peers, and commit to a (revised) answer.</v>
       </c>
       <c r="I102">
-        <f>VLOOKUP(A102,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J102">
-        <f>VLOOKUP(A102,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K102" t="str">
-        <f>VLOOKUP(B102,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Un método de enseñanza en el que la/el docente hace una pregunta y luego las/os estudiantes se comprometen con una primera respuesta, discuten las respuestas con sus compañeras/os y se comprometen con una respuesta revisada.</v>
       </c>
       <c r="L102">
-        <f>VLOOKUP(B102,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M102">
-        <f>VLOOKUP(B102,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7455,27 +7515,27 @@
         <v>1</v>
       </c>
       <c r="H103" t="str">
-        <f>VLOOKUP(A103,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> See long-term memory.</v>
       </c>
       <c r="I103" t="str">
-        <f>VLOOKUP(A103,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>long-term memory.</v>
       </c>
       <c r="J103">
-        <f>VLOOKUP(A103,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K103">
-        <f>VLOOKUP(B103,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L103" t="str">
-        <f>VLOOKUP(B103,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>Memoria de largo plazo.</v>
       </c>
       <c r="M103">
-        <f>VLOOKUP(B103,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7493,27 +7553,27 @@
         <v>1</v>
       </c>
       <c r="H104" t="str">
-        <f>VLOOKUP(A104,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> Automatically tailoring lessons to meet the needs of individual learners.</v>
       </c>
       <c r="I104">
-        <f>VLOOKUP(A104,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J104">
-        <f>VLOOKUP(A104,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K104" t="str">
-        <f>VLOOKUP(B104,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Adaptación automática de lecciones para satisfacer las necesidades de los alumnos individuales.</v>
       </c>
       <c r="L104">
-        <f>VLOOKUP(B104,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M104">
-        <f>VLOOKUP(B104,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7531,27 +7591,27 @@
         <v>1</v>
       </c>
       <c r="H105" t="str">
-        <f>VLOOKUP(A105,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> A wrong or less-than-best answer to a multiple-choice question that looks like it could be right</v>
       </c>
       <c r="I105" t="str">
-        <f>VLOOKUP(A105,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>diagnostic power.</v>
       </c>
       <c r="J105">
-        <f>VLOOKUP(A105,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K105" t="str">
-        <f>VLOOKUP(B105,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Una respuesta incorrecta, pero que podría ser correcta, a una pregunta de opción múltiple.</v>
       </c>
       <c r="L105" t="str">
-        <f>VLOOKUP(B105,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>Poder de diagnóstico.</v>
       </c>
       <c r="M105">
-        <f>VLOOKUP(B105,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7569,27 +7629,27 @@
         <v>1</v>
       </c>
       <c r="H106" t="str">
-        <f>VLOOKUP(A106,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> What sets one brand apart from other, similar brands.</v>
       </c>
       <c r="I106">
-        <f>VLOOKUP(A106,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J106">
-        <f>VLOOKUP(A106,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K106" t="str">
-        <f>VLOOKUP(B106,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>La ventaja de provenir de un entorno que proporciona más preparación para una tarea de aprendizaje en particular que otras.</v>
       </c>
       <c r="L106">
-        <f>VLOOKUP(B106,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M106">
-        <f>VLOOKUP(B106,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7607,27 +7667,27 @@
         <v>1</v>
       </c>
       <c r="H107" t="str">
-        <f>VLOOKUP(A107,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> The advantage of coming from a background that provides more preparation for a particular learning task than others.</v>
       </c>
       <c r="I107">
-        <f>VLOOKUP(A107,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J107">
-        <f>VLOOKUP(A107,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K107" t="str">
-        <f>VLOOKUP(B107,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Una situación en la que a las/os estudiantes se les dan deliberadamente, problemas que no se pueden resolver con el conocimiento que tienen y deben salir y adquirir nueva información para progresar.</v>
       </c>
       <c r="L107">
-        <f>VLOOKUP(B107,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M107">
-        <f>VLOOKUP(B107,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7648,27 +7708,27 @@
         <v>1</v>
       </c>
       <c r="H108" t="str">
-        <f>VLOOKUP(A108,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> A situation in which learners are deliberately given problems that can't be solved with the knowledge they have and must go out and acquire new information in order to make progress</v>
       </c>
       <c r="I108" t="str">
-        <f>VLOOKUP(A108,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>Zone of Proximal Development.</v>
       </c>
       <c r="J108">
-        <f>VLOOKUP(A108,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K108" t="str">
-        <f>VLOOKUP(B108,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Una situación en la que a las/os estudiantes se les dan deliberadamente, problemas que no se pueden resolver con el conocimiento que tienen y deben salir y adquirir nueva información para progresar.</v>
       </c>
       <c r="L108" t="str">
-        <f>VLOOKUP(B108,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>Zona de Desarrollo Proximal.</v>
       </c>
       <c r="M108">
-        <f>VLOOKUP(B108,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7686,28 +7746,28 @@
         <v>1</v>
       </c>
       <c r="H109" t="str">
-        <f>VLOOKUP(A109,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> A set of proposed changes to a GitHub repository that can be reviewed, updated, and eventually merged.</v>
       </c>
       <c r="I109">
-        <f>VLOOKUP(A109,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J109">
-        <f>VLOOKUP(A109,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K109" t="str">
-        <f>VLOOKUP(B109,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Un conjunto de cambios propuestos a un repositorio de 
 GitHub que pueden revisarse, actualizarse y, finalmente, agregarse al repositorio.</v>
       </c>
       <c r="L109">
-        <f>VLOOKUP(B109,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M109">
-        <f>VLOOKUP(B109,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7725,27 +7785,27 @@
         <v>1</v>
       </c>
       <c r="H110" t="str">
-        <f>VLOOKUP(A110,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> A study practice in which the learner covers up key facts or terms during a first pass through material, then checks their recall on a second pass.</v>
       </c>
       <c r="I110">
-        <f>VLOOKUP(A110,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J110">
-        <f>VLOOKUP(A110,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <f>VLOOKUP(B110,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K110" t="str">
+        <f t="shared" si="21"/>
+        <v>Una práctica de estudio en la que la/el estudiante cubre hechos o términos clave durante un primer paso por el material y luego verifica cuanto recuerda en un segundo paso.</v>
       </c>
       <c r="L110">
-        <f>VLOOKUP(B110,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M110">
-        <f>VLOOKUP(B110,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7766,27 +7826,27 @@
         <v>1</v>
       </c>
       <c r="H111" t="str">
-        <f>VLOOKUP(A111,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> See deliberate practice.</v>
       </c>
       <c r="I111">
-        <f>VLOOKUP(A111,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J111">
-        <f>VLOOKUP(A111,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K111">
-        <f>VLOOKUP(B111,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L111" t="str">
-        <f>VLOOKUP(B111,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>Practica deliberada.</v>
       </c>
       <c r="M111">
-        <f>VLOOKUP(B111,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7804,27 +7864,27 @@
         <v>1</v>
       </c>
       <c r="H112" t="str">
-        <f>VLOOKUP(A112,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> Holds that the more reusable part of a lesson is, the less pedagogically effective it is.</v>
       </c>
       <c r="I112">
-        <f>VLOOKUP(A112,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J112">
-        <f>VLOOKUP(A112,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <f>VLOOKUP(B112,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K112" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Sostiene que cuanto más reutilizable es una lección, es menos efectiva pedagógicamente.</v>
       </c>
       <c r="L112">
-        <f>VLOOKUP(B112,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M112">
-        <f>VLOOKUP(B112,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7845,27 +7905,27 @@
         <v>1</v>
       </c>
       <c r="H113" t="str">
-        <f>VLOOKUP(A113,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> Extra material provided to early-stage learners to help them solve problems.</v>
       </c>
       <c r="I113">
-        <f>VLOOKUP(A113,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J113">
-        <f>VLOOKUP(A113,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <f>VLOOKUP(B113,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K113" t="str">
+        <f t="shared" si="21"/>
+        <v>Se proporciona material adicional a las/os estudiantes en etapa inicial para ayudarlas/os a resolver problemas.</v>
       </c>
       <c r="L113">
-        <f>VLOOKUP(B113,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M113">
-        <f>VLOOKUP(B113,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7883,27 +7943,27 @@
         <v>1</v>
       </c>
       <c r="H114" t="str">
-        <f>VLOOKUP(A114,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> Increasing the quantity and quality of web site traffic by making pages more easily found by, or seem more important to, search engines.</v>
       </c>
       <c r="I114">
-        <f>VLOOKUP(A114,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J114">
-        <f>VLOOKUP(A114,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K114">
-        <f>VLOOKUP(B114,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K114" t="str">
+        <f t="shared" si="21"/>
+        <v>Aumentar la cantidad y la calidad del tráfico del sitio web al hacer que las páginas sean más fáciles de encontrar o parezcan más importantes para los motores de búsqueda.</v>
       </c>
       <c r="L114">
-        <f>VLOOKUP(B114,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M114">
-        <f>VLOOKUP(B114,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7921,27 +7981,27 @@
         <v>1</v>
       </c>
       <c r="H115" t="str">
-        <f>VLOOKUP(A115,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> A board whose members take on working roles in the organization.</v>
       </c>
       <c r="I115">
-        <f>VLOOKUP(A115,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J115">
-        <f>VLOOKUP(A115,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <f>VLOOKUP(B115,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K115" t="str">
+        <f t="shared" si="21"/>
+        <v>Una junta cuyos miembros asumen roles de trabajo en la organización.</v>
       </c>
       <c r="L115">
-        <f>VLOOKUP(B115,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M115">
-        <f>VLOOKUP(B115,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7959,27 +8019,27 @@
         <v>1</v>
       </c>
       <c r="H116" t="str">
-        <f>VLOOKUP(A116,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> The part of memory that briefly stores information that can be directly accessed by consciousness.</v>
       </c>
       <c r="I116">
-        <f>VLOOKUP(A116,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J116">
-        <f>VLOOKUP(A116,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K116">
-        <f>VLOOKUP(B116,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K116" t="str">
+        <f t="shared" si="21"/>
+        <v>La parte de la memoria que almacena brevemente información a la que puede acceder directamente la conciencia.</v>
       </c>
       <c r="L116">
-        <f>VLOOKUP(B116,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M116">
-        <f>VLOOKUP(B116,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7997,27 +8057,27 @@
         <v>1</v>
       </c>
       <c r="H117" t="str">
-        <f>VLOOKUP(A117,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> A model of learning that focuses on people's transition from being newcomers to be accepted members of a community of practice.</v>
       </c>
       <c r="I117">
-        <f>VLOOKUP(A117,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J117">
-        <f>VLOOKUP(A117,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <f>VLOOKUP(B117,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K117" t="str">
+        <f t="shared" si="21"/>
+        <v>Un modelo de aprendizaje que se centra en la transición de las personas de ser recién llegadas a ser miembros aceptados de una comunidad de práctica.</v>
       </c>
       <c r="L117" t="str">
-        <f>VLOOKUP(B117,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>Comunidad de práctica.</v>
       </c>
       <c r="M117">
-        <f>VLOOKUP(B117,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8035,27 +8095,27 @@
         <v>1</v>
       </c>
       <c r="H118" t="str">
-        <f>VLOOKUP(A118,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> The decrease in learning that occurs when learners must divide their attention between multiple concurrent presentations of the same information (e.g.\ captions and a voiceover).</v>
       </c>
       <c r="I118">
-        <f>VLOOKUP(A118,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J118">
-        <f>VLOOKUP(A118,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <f>VLOOKUP(B118,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" si="21"/>
+        <v>La disminución que ocurre en el aprendizaje cuando las/os estudiantes deben dividir su atención entre múltiples presentaciones concurrentes de la misma información (por ejemplo, subtítulos y una voz en off).</v>
       </c>
       <c r="L118">
-        <f>VLOOKUP(B118,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M118">
-        <f>VLOOKUP(B118,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8073,27 +8133,27 @@
         <v>1</v>
       </c>
       <c r="H119" t="str">
-        <f>VLOOKUP(A119,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> A situation in which people feel that they are at risk of being held to stereotypes of their social group.</v>
       </c>
       <c r="I119">
-        <f>VLOOKUP(A119,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J119">
-        <f>VLOOKUP(A119,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <f>VLOOKUP(B119,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K119" t="str">
+        <f t="shared" si="21"/>
+        <v>Una situación en la que las personas sienten que corren el riesgo de ser sometidas a los estereotipos de su grupo social.</v>
       </c>
       <c r="L119">
-        <f>VLOOKUP(B119,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M119">
-        <f>VLOOKUP(B119,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8114,27 +8174,27 @@
         <v>1</v>
       </c>
       <c r="H120" t="str">
-        <f>VLOOKUP(A120,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> Giving names to the steps in a step-by-step description of a problem-solving process.</v>
       </c>
       <c r="I120">
-        <f>VLOOKUP(A120,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J120">
-        <f>VLOOKUP(A120,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <f>VLOOKUP(B120,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K120" t="str">
+        <f t="shared" si="21"/>
+        <v>Dar nombres a cada paso en una descripción paso a paso de un proceso de resolución de problemas.</v>
       </c>
       <c r="L120">
-        <f>VLOOKUP(B120,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M120">
-        <f>VLOOKUP(B120,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8152,27 +8212,27 @@
         <v>1</v>
       </c>
       <c r="H121" t="str">
-        <f>VLOOKUP(A121,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> Assessment that takes place at the end of a lesson to tell whether the desired learning has taken place.</v>
       </c>
       <c r="I121">
-        <f>VLOOKUP(A121,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J121">
-        <f>VLOOKUP(A121,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <f>VLOOKUP(B121,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" si="21"/>
+        <v>Evaluación que se realiza al final de una lección para determinar si se ha realizado el aprendizaje deseado.</v>
       </c>
       <c r="L121">
-        <f>VLOOKUP(B121,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M121">
-        <f>VLOOKUP(B121,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8190,27 +8250,27 @@
         <v>1</v>
       </c>
       <c r="H122" t="str">
-        <f>VLOOKUP(A122,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> Something a learner can work on whose state gives feedback about the learner's progress and helps the learner diagnose mistakes.</v>
       </c>
       <c r="I122">
-        <f>VLOOKUP(A122,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J122">
-        <f>VLOOKUP(A122,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <f>VLOOKUP(B122,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="21"/>
+        <v>Algo en lo que una/un estudiante puede trabajar y cuyo estado proporciona retroalimentación sobre el progreso que la/el estudiante realizó y ayuda a diagnosticar errores.</v>
       </c>
       <c r="L122">
-        <f>VLOOKUP(B122,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M122">
-        <f>VLOOKUP(B122,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8231,27 +8291,27 @@
         <v>1</v>
       </c>
       <c r="H123" t="str">
-        <f>VLOOKUP(A123,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> Any method of "education" that focuses on preparing students to pass standardized tests, rather than on actual learning.</v>
       </c>
       <c r="I123">
-        <f>VLOOKUP(A123,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J123">
-        <f>VLOOKUP(A123,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <f>VLOOKUP(B123,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="21"/>
+        <v>Cualquier método de "educación" que se centre en preparar a las/los estudiantes para aprobar los exámenes estandarizados, en lugar de aprender realmente.</v>
       </c>
       <c r="L123">
-        <f>VLOOKUP(B123,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M123">
-        <f>VLOOKUP(B123,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8269,27 +8329,27 @@
         <v>1</v>
       </c>
       <c r="H124" t="str">
-        <f>VLOOKUP(A124,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> A software development practice in which programmers write tests first in order to give themselves concrete goals and clarify their understanding of what "done" looks like.</v>
       </c>
       <c r="I124">
-        <f>VLOOKUP(A124,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J124">
-        <f>VLOOKUP(A124,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <f>VLOOKUP(B124,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="21"/>
+        <v>Una práctica de desarrollo de software en la que las/los programadoras/es escriben primero los test para darse objetivos concretos y aclarar su comprensión de cómo se ve "terminado".</v>
       </c>
       <c r="L124">
-        <f>VLOOKUP(B124,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M124">
-        <f>VLOOKUP(B124,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8310,27 +8370,27 @@
         <v>1</v>
       </c>
       <c r="H125" t="str">
-        <f>VLOOKUP(A125,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> A collaboration method in which each person thinks individually about a question or problem, then pairs with a partner to pool ideas, and then have one person from each pair present to the whole group.</v>
       </c>
       <c r="I125">
-        <f>VLOOKUP(A125,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J125">
-        <f>VLOOKUP(A125,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K125" t="e">
-        <f>VLOOKUP(B125,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="L125" t="e">
-        <f>VLOOKUP(B125,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="M125" t="e">
-        <f>VLOOKUP(B125,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8357,27 +8417,27 @@
         <v>1</v>
       </c>
       <c r="H126" t="str">
-        <f>VLOOKUP(A126,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> Applying knowledge learned in one context to problems in another context</v>
       </c>
       <c r="I126" t="str">
-        <f>VLOOKUP(A126,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>near transfer.</v>
       </c>
       <c r="J126" t="str">
-        <f>VLOOKUP(A126,English,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>far transfer.</v>
       </c>
       <c r="K126" t="e">
-        <f>VLOOKUP(B126,Spanish,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="L126" t="e">
-        <f>VLOOKUP(B126,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="M126" t="e">
-        <f>VLOOKUP(B126,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8398,27 +8458,27 @@
         <v>1</v>
       </c>
       <c r="H127" t="str">
-        <f>VLOOKUP(A127,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> The improvement in recall that occurs when practice uses activities similar to those used in testing.</v>
       </c>
       <c r="I127">
-        <f>VLOOKUP(A127,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J127">
-        <f>VLOOKUP(A127,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <f>VLOOKUP(B127,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" si="21"/>
+        <v>La mejora en  recordar que ocurre cuando la práctica utiliza actividades similares a las utilizadas en los test.</v>
       </c>
       <c r="L127">
-        <f>VLOOKUP(B127,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M127">
-        <f>VLOOKUP(B127,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8436,27 +8496,27 @@
         <v>1</v>
       </c>
       <c r="H128" t="str">
-        <f>VLOOKUP(A128,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> A lesson intended to help someone improve their general understanding of a subject.</v>
       </c>
       <c r="I128">
-        <f>VLOOKUP(A128,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J128">
-        <f>VLOOKUP(A128,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <f>VLOOKUP(B128,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K128" t="str">
+        <f t="shared" si="21"/>
+        <v>Una lección destinada a ayudar a alguien a mejorar su comprensión general de un tema.</v>
       </c>
       <c r="L128">
-        <f>VLOOKUP(B128,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M128">
-        <f>VLOOKUP(B128,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8474,27 +8534,27 @@
         <v>1</v>
       </c>
       <c r="H129" t="str">
-        <f>VLOOKUP(A129,English,2,FALSE)</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> Having a group of people decide moment by moment or line by line what to add to a program next.</v>
       </c>
       <c r="I129">
-        <f>VLOOKUP(A129,English,3,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J129">
-        <f>VLOOKUP(A129,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <f>VLOOKUP(B129,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K129" t="str">
+        <f t="shared" si="21"/>
+        <v>Hacer que un grupo de personas decida momento a momento o línea por línea qué agregarle a un programa a continuación.</v>
       </c>
       <c r="L129">
-        <f>VLOOKUP(B129,Spanish,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M129">
-        <f>VLOOKUP(B129,Spanish,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8515,27 +8575,27 @@
         <v>1</v>
       </c>
       <c r="H130" t="str">
-        <f>VLOOKUP(A130,English,2,FALSE)</f>
+        <f t="shared" ref="H130:H148" si="24">VLOOKUP(A130,English,2,FALSE)</f>
         <v xml:space="preserve"> see short-term memory.</v>
       </c>
       <c r="I130">
-        <f>VLOOKUP(A130,English,3,FALSE)</f>
+        <f t="shared" ref="I130:I148" si="25">VLOOKUP(A130,English,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J130">
-        <f>VLOOKUP(A130,English,4,FALSE)</f>
+        <f t="shared" ref="J130:J148" si="26">VLOOKUP(A130,English,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K130">
-        <f>VLOOKUP(B130,Spanish,2,FALSE)</f>
+        <f t="shared" ref="K130:K148" si="27">VLOOKUP(B130,Spanish,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L130" t="str">
-        <f>VLOOKUP(B130,Spanish,3,FALSE)</f>
+        <f t="shared" ref="L130:L148" si="28">VLOOKUP(B130,Spanish,3,FALSE)</f>
         <v>Memoria de corto plazo.</v>
       </c>
       <c r="M130">
-        <f>VLOOKUP(B130,Spanish,4,FALSE)</f>
+        <f t="shared" ref="M130:M148" si="29">VLOOKUP(B130,Spanish,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8559,27 +8619,27 @@
         <v>1</v>
       </c>
       <c r="H131" t="str">
-        <f>VLOOKUP(A131,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> Includes the set of problems that people cannot yet solve on their own but are able to solve with assistance from a more experienced mentor</v>
       </c>
       <c r="I131" t="str">
-        <f>VLOOKUP(A131,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>productive failure.</v>
       </c>
       <c r="J131">
-        <f>VLOOKUP(A131,English,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <f>VLOOKUP(B131,Spanish,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K131" t="str">
+        <f t="shared" si="27"/>
+        <v>Incluye el conjunto de problemas que las personas aún no pueden resolver por sí mismas pero que pueden resolver con la ayuda de un mentor más experimentado.</v>
       </c>
       <c r="L131" t="str">
-        <f>VLOOKUP(B131,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>Falla productiva.</v>
       </c>
       <c r="M131">
-        <f>VLOOKUP(B131,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -8600,27 +8660,27 @@
         <v>0</v>
       </c>
       <c r="H132" t="e">
-        <f>VLOOKUP(A132,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I132" t="e">
-        <f>VLOOKUP(A132,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J132" t="e">
-        <f>VLOOKUP(A132,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K132" t="e">
-        <f>VLOOKUP(B132,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L132" t="e">
-        <f>VLOOKUP(B132,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M132" t="e">
-        <f>VLOOKUP(B132,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8641,27 +8701,27 @@
         <v>0</v>
       </c>
       <c r="H133" t="e">
-        <f>VLOOKUP(A133,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I133" t="e">
-        <f>VLOOKUP(A133,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J133" t="e">
-        <f>VLOOKUP(A133,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K133" t="e">
-        <f>VLOOKUP(B133,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L133" t="e">
-        <f>VLOOKUP(B133,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M133" t="e">
-        <f>VLOOKUP(B133,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8682,27 +8742,27 @@
         <v>0</v>
       </c>
       <c r="H134" t="e">
-        <f>VLOOKUP(A134,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I134" t="e">
-        <f>VLOOKUP(A134,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J134" t="e">
-        <f>VLOOKUP(A134,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K134" t="e">
-        <f>VLOOKUP(B134,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L134" t="e">
-        <f>VLOOKUP(B134,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M134" t="e">
-        <f>VLOOKUP(B134,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8723,27 +8783,27 @@
         <v>0</v>
       </c>
       <c r="H135" t="e">
-        <f>VLOOKUP(A135,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I135" t="e">
-        <f>VLOOKUP(A135,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J135" t="e">
-        <f>VLOOKUP(A135,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K135" t="e">
-        <f>VLOOKUP(B135,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L135" t="e">
-        <f>VLOOKUP(B135,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M135" t="e">
-        <f>VLOOKUP(B135,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8764,27 +8824,27 @@
         <v>0</v>
       </c>
       <c r="H136" t="e">
-        <f>VLOOKUP(A136,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I136" t="e">
-        <f>VLOOKUP(A136,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J136" t="e">
-        <f>VLOOKUP(A136,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K136" t="e">
-        <f>VLOOKUP(B136,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L136" t="e">
-        <f>VLOOKUP(B136,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M136" t="e">
-        <f>VLOOKUP(B136,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8805,27 +8865,27 @@
         <v>0</v>
       </c>
       <c r="H137" t="e">
-        <f>VLOOKUP(A137,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I137" t="e">
-        <f>VLOOKUP(A137,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J137" t="e">
-        <f>VLOOKUP(A137,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K137" t="e">
-        <f>VLOOKUP(B137,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L137" t="e">
-        <f>VLOOKUP(B137,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M137" t="e">
-        <f>VLOOKUP(B137,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8846,27 +8906,27 @@
         <v>0</v>
       </c>
       <c r="H138" t="e">
-        <f>VLOOKUP(A138,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I138" t="e">
-        <f>VLOOKUP(A138,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J138" t="e">
-        <f>VLOOKUP(A138,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K138" t="e">
-        <f>VLOOKUP(B138,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L138" t="e">
-        <f>VLOOKUP(B138,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M138" t="e">
-        <f>VLOOKUP(B138,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8887,27 +8947,27 @@
         <v>0</v>
       </c>
       <c r="H139" t="e">
-        <f>VLOOKUP(A139,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I139" t="e">
-        <f>VLOOKUP(A139,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J139" t="e">
-        <f>VLOOKUP(A139,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K139" t="e">
-        <f>VLOOKUP(B139,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L139" t="e">
-        <f>VLOOKUP(B139,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M139" t="e">
-        <f>VLOOKUP(B139,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8928,27 +8988,27 @@
         <v>0</v>
       </c>
       <c r="H140" t="e">
-        <f>VLOOKUP(A140,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I140" t="e">
-        <f>VLOOKUP(A140,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J140" t="e">
-        <f>VLOOKUP(A140,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K140" t="e">
-        <f>VLOOKUP(B140,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L140" t="e">
-        <f>VLOOKUP(B140,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M140" t="e">
-        <f>VLOOKUP(B140,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8969,27 +9029,27 @@
         <v>0</v>
       </c>
       <c r="H141" t="e">
-        <f>VLOOKUP(A141,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I141" t="e">
-        <f>VLOOKUP(A141,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J141" t="e">
-        <f>VLOOKUP(A141,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K141" t="e">
-        <f>VLOOKUP(B141,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L141" t="e">
-        <f>VLOOKUP(B141,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M141" t="e">
-        <f>VLOOKUP(B141,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -9010,27 +9070,27 @@
         <v>0</v>
       </c>
       <c r="H142" t="e">
-        <f>VLOOKUP(A142,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I142" t="e">
-        <f>VLOOKUP(A142,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J142" t="e">
-        <f>VLOOKUP(A142,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K142" t="e">
-        <f>VLOOKUP(B142,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L142" t="e">
-        <f>VLOOKUP(B142,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M142" t="e">
-        <f>VLOOKUP(B142,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -9051,27 +9111,27 @@
         <v>0</v>
       </c>
       <c r="H143" t="e">
-        <f>VLOOKUP(A143,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I143" t="e">
-        <f>VLOOKUP(A143,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J143" t="e">
-        <f>VLOOKUP(A143,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K143" t="e">
-        <f>VLOOKUP(B143,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L143" t="e">
-        <f>VLOOKUP(B143,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M143" t="e">
-        <f>VLOOKUP(B143,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -9092,27 +9152,27 @@
         <v>0</v>
       </c>
       <c r="H144" t="e">
-        <f>VLOOKUP(A144,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I144" t="e">
-        <f>VLOOKUP(A144,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J144" t="e">
-        <f>VLOOKUP(A144,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K144" t="e">
-        <f>VLOOKUP(B144,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L144" t="e">
-        <f>VLOOKUP(B144,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M144" t="e">
-        <f>VLOOKUP(B144,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -9133,27 +9193,27 @@
         <v>0</v>
       </c>
       <c r="H145" t="e">
-        <f>VLOOKUP(A145,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I145" t="e">
-        <f>VLOOKUP(A145,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J145" t="e">
-        <f>VLOOKUP(A145,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K145" t="e">
-        <f>VLOOKUP(B145,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L145" t="e">
-        <f>VLOOKUP(B145,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M145" t="e">
-        <f>VLOOKUP(B145,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -9174,27 +9234,27 @@
         <v>0</v>
       </c>
       <c r="H146" t="e">
-        <f>VLOOKUP(A146,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I146" t="e">
-        <f>VLOOKUP(A146,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J146" t="e">
-        <f>VLOOKUP(A146,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K146" t="e">
-        <f>VLOOKUP(B146,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L146" t="e">
-        <f>VLOOKUP(B146,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M146" t="e">
-        <f>VLOOKUP(B146,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -9215,27 +9275,27 @@
         <v>0</v>
       </c>
       <c r="H147" t="e">
-        <f>VLOOKUP(A147,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I147" t="e">
-        <f>VLOOKUP(A147,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J147" t="e">
-        <f>VLOOKUP(A147,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K147" t="e">
-        <f>VLOOKUP(B147,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L147" t="e">
-        <f>VLOOKUP(B147,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M147" t="e">
-        <f>VLOOKUP(B147,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -9256,27 +9316,27 @@
         <v>0</v>
       </c>
       <c r="H148" t="e">
-        <f>VLOOKUP(A148,English,2,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I148" t="e">
-        <f>VLOOKUP(A148,English,3,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="J148" t="e">
-        <f>VLOOKUP(A148,English,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="K148" t="e">
-        <f>VLOOKUP(B148,Spanish,2,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="L148" t="e">
-        <f>VLOOKUP(B148,Spanish,3,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="M148" t="e">
-        <f>VLOOKUP(B148,Spanish,4,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -9291,8 +9351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10290,6 +10350,9 @@
       <c r="A110" t="s">
         <v>414</v>
       </c>
+      <c r="B110" s="5" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -10303,31 +10366,49 @@
       <c r="A112" t="s">
         <v>211</v>
       </c>
+      <c r="B112" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>416</v>
       </c>
+      <c r="B113" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>214</v>
       </c>
+      <c r="B114" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>417</v>
       </c>
+      <c r="B115" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>162</v>
       </c>
+      <c r="B116" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>163</v>
       </c>
+      <c r="B117" t="s">
+        <v>597</v>
+      </c>
       <c r="C117" t="s">
         <v>191</v>
       </c>
@@ -10336,46 +10417,73 @@
       <c r="A118" t="s">
         <v>215</v>
       </c>
+      <c r="B118" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>418</v>
       </c>
+      <c r="B119" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>419</v>
       </c>
+      <c r="B120" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>164</v>
       </c>
+      <c r="B121" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>420</v>
       </c>
+      <c r="B122" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>525</v>
       </c>
+      <c r="B123" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>165</v>
       </c>
+      <c r="B124" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>526</v>
       </c>
+      <c r="B125" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>513</v>
       </c>
+      <c r="B126" t="s">
+        <v>608</v>
+      </c>
       <c r="C126" t="s">
         <v>410</v>
       </c>
@@ -10387,16 +10495,25 @@
       <c r="A127" t="s">
         <v>422</v>
       </c>
+      <c r="B127" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>166</v>
       </c>
+      <c r="B128" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>137</v>
       </c>
+      <c r="B129" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -10409,6 +10526,9 @@
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>423</v>
+      </c>
+      <c r="B131" t="s">
+        <v>610</v>
       </c>
       <c r="C131" t="s">
         <v>210</v>

--- a/files/GlosarioT3.xlsx
+++ b/files/GlosarioT3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\T3Glossary\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79A038C-659C-44A2-AA34-E36CF840DBBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58A8F4B-408C-466E-9837-D538410A36FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lexicon" sheetId="5" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="English" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EnglishSpanish!$A$1:$K$146</definedName>
-    <definedName name="English">English!$A$2:$D$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EnglishSpanish!$A$1:$L$146</definedName>
+    <definedName name="English">English!$A$2:$E$131</definedName>
     <definedName name="englishspanish_1" localSheetId="1">EnglishSpanish!$A$2:$B$131</definedName>
     <definedName name="ingles" localSheetId="3">English!$A$2:$C$131</definedName>
     <definedName name="Spanish">Spanish!$A$2:$E$131</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="738">
   <si>
     <t>english</t>
   </si>
@@ -1424,9 +1424,6 @@
   </si>
   <si>
     <t>Un método de diseño instruccional que trabaja hacia atrás desde una evaluación sumativa hasta evaluaciones formativas y desde allí al contenido de la lección.</t>
-  </si>
-  <si>
-    <t>Poner un ver también en los términos que menciona y se definen en el diccionario?</t>
   </si>
   <si>
     <t>Una teoría del aprendizaje cuyo principio central es estímulo y respuesta, y cuyo objetivo es explicar el comportamiento sin recurrir a estados mentales internos u otros inobservables.</t>
@@ -2241,6 +2238,42 @@
   </si>
   <si>
     <t>Includes the set of problems that people cannot yet solve on their own but are able to solve with assistance from a more experienced mentor</t>
+  </si>
+  <si>
+    <t>acronym</t>
+  </si>
+  <si>
+    <t>Sistema de gestión de aprendizaje.</t>
+  </si>
+  <si>
+    <t>LMS</t>
+  </si>
+  <si>
+    <t>ZPD</t>
+  </si>
+  <si>
+    <t>Learning Management System</t>
+  </si>
+  <si>
+    <t>Massive Open Online Course</t>
+  </si>
+  <si>
+    <t>MOOC</t>
+  </si>
+  <si>
+    <t>Pedagogical content knowledge</t>
+  </si>
+  <si>
+    <t>PCK</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Zone of Proximal Development</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
 </sst>
 </file>
@@ -2645,7 +2678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990111A-369A-41E8-8C22-1342FD4CCC65}">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -2694,7 +2727,7 @@
         <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2726,7 +2759,7 @@
         <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D3" t="s">
         <v>343</v>
@@ -2758,7 +2791,7 @@
         <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D4" t="s">
         <v>167</v>
@@ -2790,7 +2823,7 @@
         <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2822,7 +2855,7 @@
         <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2854,7 +2887,7 @@
         <v>355</v>
       </c>
       <c r="C7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2886,7 +2919,7 @@
         <v>356</v>
       </c>
       <c r="C8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D8" t="s">
         <v>344</v>
@@ -2895,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2918,7 +2951,7 @@
         <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -2927,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G9" t="s">
         <v>193</v>
@@ -2950,7 +2983,7 @@
         <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2959,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2982,7 +3015,7 @@
         <v>357</v>
       </c>
       <c r="C11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2991,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3014,7 +3047,7 @@
         <v>418</v>
       </c>
       <c r="C12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3023,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3046,7 +3079,7 @@
         <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3055,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3078,7 +3111,7 @@
         <v>358</v>
       </c>
       <c r="C14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3087,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3110,7 +3143,7 @@
         <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3119,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3142,7 +3175,7 @@
         <v>179</v>
       </c>
       <c r="C16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -3151,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3174,7 +3207,7 @@
         <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3183,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3206,7 +3239,7 @@
         <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -3215,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G18" t="s">
         <v>385</v>
@@ -3238,7 +3271,7 @@
         <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3247,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3270,7 +3303,7 @@
         <v>359</v>
       </c>
       <c r="C20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3279,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3302,7 +3335,7 @@
         <v>369</v>
       </c>
       <c r="C21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D21" t="s">
         <v>348</v>
@@ -3311,7 +3344,7 @@
         <v>349</v>
       </c>
       <c r="F21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G21" t="s">
         <v>202</v>
@@ -3334,7 +3367,7 @@
         <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3343,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3366,7 +3399,7 @@
         <v>360</v>
       </c>
       <c r="C23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3375,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3398,7 +3431,7 @@
         <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3407,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3430,7 +3463,7 @@
         <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3439,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3462,7 +3495,7 @@
         <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3471,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3494,7 +3527,7 @@
         <v>361</v>
       </c>
       <c r="C27" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D27" t="s">
         <v>350</v>
@@ -3503,7 +3536,7 @@
         <v>178</v>
       </c>
       <c r="F27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G27" t="s">
         <v>394</v>
@@ -3526,7 +3559,7 @@
         <v>362</v>
       </c>
       <c r="C28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3535,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3561,7 +3594,7 @@
         <v>363</v>
       </c>
       <c r="C29" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3570,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3593,7 +3626,7 @@
         <v>365</v>
       </c>
       <c r="C30" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3602,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3628,7 +3661,7 @@
         <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3637,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3660,7 +3693,7 @@
         <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3669,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3692,7 +3725,7 @@
         <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3701,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3724,7 +3757,7 @@
         <v>389</v>
       </c>
       <c r="C34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3733,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3756,7 +3789,7 @@
         <v>390</v>
       </c>
       <c r="C35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3765,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3788,7 +3821,7 @@
         <v>391</v>
       </c>
       <c r="C36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3797,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3820,7 +3853,7 @@
         <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3829,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3852,7 +3885,7 @@
         <v>392</v>
       </c>
       <c r="C38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3861,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3884,7 +3917,7 @@
         <v>216</v>
       </c>
       <c r="C39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3893,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3916,7 +3949,7 @@
         <v>366</v>
       </c>
       <c r="C40" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D40" t="s">
         <v>347</v>
@@ -3925,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G40" t="s">
         <v>399</v>
@@ -3948,7 +3981,7 @@
         <v>367</v>
       </c>
       <c r="C41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3957,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3980,7 +4013,7 @@
         <v>375</v>
       </c>
       <c r="C42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3989,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4009,19 +4042,19 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
+        <v>489</v>
+      </c>
+      <c r="C43" t="s">
+        <v>645</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
         <v>490</v>
-      </c>
-      <c r="C43" t="s">
-        <v>646</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>491</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4041,19 +4074,19 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
+        <v>491</v>
+      </c>
+      <c r="C44" t="s">
+        <v>646</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
         <v>492</v>
-      </c>
-      <c r="C44" t="s">
-        <v>647</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
-        <v>493</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4076,7 +4109,7 @@
         <v>419</v>
       </c>
       <c r="C45" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D45" t="s">
         <v>177</v>
@@ -4085,7 +4118,7 @@
         <v>176</v>
       </c>
       <c r="F45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G45" t="s">
         <v>368</v>
@@ -4108,7 +4141,7 @@
         <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4117,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4140,7 +4173,7 @@
         <v>372</v>
       </c>
       <c r="C47" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4149,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4175,7 +4208,7 @@
         <v>376</v>
       </c>
       <c r="C48" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4184,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4210,7 +4243,7 @@
         <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4219,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4239,10 +4272,10 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C50" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D50" t="s">
         <v>168</v>
@@ -4251,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G50" t="s">
         <v>370</v>
@@ -4271,10 +4304,10 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C51" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D51" t="s">
         <v>345</v>
@@ -4283,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G51" t="s">
         <v>409</v>
@@ -4309,7 +4342,7 @@
         <v>192</v>
       </c>
       <c r="C52" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -4318,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G52" t="s">
         <v>185</v>
@@ -4341,7 +4374,7 @@
         <v>377</v>
       </c>
       <c r="C53" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4350,10 +4383,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
+        <v>503</v>
+      </c>
+      <c r="G53" t="s">
         <v>504</v>
-      </c>
-      <c r="G53" t="s">
-        <v>505</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -4376,7 +4409,7 @@
         <v>193</v>
       </c>
       <c r="C54" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D54" t="s">
         <v>169</v>
@@ -4385,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G54" t="s">
         <v>180</v>
@@ -4408,7 +4441,7 @@
         <v>378</v>
       </c>
       <c r="C55" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -4417,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G55" t="s">
         <v>396</v>
@@ -4440,7 +4473,7 @@
         <v>379</v>
       </c>
       <c r="C56" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -4449,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4472,7 +4505,7 @@
         <v>393</v>
       </c>
       <c r="C57" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -4481,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -4504,7 +4537,7 @@
         <v>380</v>
       </c>
       <c r="C58" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -4513,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4536,7 +4569,7 @@
         <v>194</v>
       </c>
       <c r="C59" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D59" t="s">
         <v>170</v>
@@ -4545,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G59" t="s">
         <v>164</v>
@@ -4565,19 +4598,19 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
+        <v>521</v>
+      </c>
+      <c r="C60" t="s">
+        <v>513</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
         <v>522</v>
-      </c>
-      <c r="C60" t="s">
-        <v>514</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" t="s">
-        <v>523</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -4603,7 +4636,7 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -4612,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -4635,7 +4668,7 @@
         <v>394</v>
       </c>
       <c r="C62" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -4644,7 +4677,7 @@
         <v>351</v>
       </c>
       <c r="F62" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G62" t="s">
         <v>382</v>
@@ -4670,7 +4703,7 @@
         <v>195</v>
       </c>
       <c r="C63" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -4679,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -4702,7 +4735,7 @@
         <v>395</v>
       </c>
       <c r="C64" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4711,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -4734,7 +4767,7 @@
         <v>396</v>
       </c>
       <c r="C65" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D65" t="s">
         <v>346</v>
@@ -4743,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G65" t="s">
         <v>378</v>
@@ -4769,7 +4802,7 @@
         <v>397</v>
       </c>
       <c r="C66" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4778,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -4801,7 +4834,7 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4810,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -4833,16 +4866,16 @@
         <v>401</v>
       </c>
       <c r="C68" t="s">
+        <v>530</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
         <v>531</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" t="s">
-        <v>532</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -4868,7 +4901,7 @@
         <v>402</v>
       </c>
       <c r="C69" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -4877,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4903,7 +4936,7 @@
         <v>196</v>
       </c>
       <c r="C70" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4912,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4935,7 +4968,7 @@
         <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4944,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4967,7 +5000,7 @@
         <v>400</v>
       </c>
       <c r="C72" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4976,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -5002,7 +5035,7 @@
         <v>399</v>
       </c>
       <c r="C73" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D73" t="s">
         <v>171</v>
@@ -5011,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G73" t="s">
         <v>366</v>
@@ -5034,16 +5067,16 @@
         <v>398</v>
       </c>
       <c r="C74" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D74" t="s">
+        <v>538</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
         <v>539</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74" t="s">
-        <v>540</v>
       </c>
       <c r="G74" t="s">
         <v>140</v>
@@ -5066,7 +5099,7 @@
         <v>370</v>
       </c>
       <c r="C75" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -5075,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G75" t="s">
         <v>148</v>
@@ -5098,7 +5131,7 @@
         <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -5107,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -5130,7 +5163,7 @@
         <v>197</v>
       </c>
       <c r="C77" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -5139,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -5159,10 +5192,10 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C78" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -5171,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -5197,7 +5230,7 @@
         <v>198</v>
       </c>
       <c r="C79" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -5206,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -5229,7 +5262,7 @@
         <v>388</v>
       </c>
       <c r="C80" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -5238,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5261,7 +5294,7 @@
         <v>386</v>
       </c>
       <c r="C81" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -5270,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -5293,7 +5326,7 @@
         <v>387</v>
       </c>
       <c r="C82" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -5302,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -5325,7 +5358,7 @@
         <v>385</v>
       </c>
       <c r="C83" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -5334,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G83" t="s">
         <v>189</v>
@@ -5357,7 +5390,7 @@
         <v>199</v>
       </c>
       <c r="C84" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -5366,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -5389,7 +5422,7 @@
         <v>200</v>
       </c>
       <c r="C85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D85" t="s">
         <v>172</v>
@@ -5398,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G85" t="s">
         <v>162</v>
@@ -5421,7 +5454,7 @@
         <v>151</v>
       </c>
       <c r="C86" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -5430,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -5453,7 +5486,7 @@
         <v>201</v>
       </c>
       <c r="C87" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -5462,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -5485,7 +5518,7 @@
         <v>152</v>
       </c>
       <c r="C88" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -5494,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -5517,7 +5550,7 @@
         <v>153</v>
       </c>
       <c r="C89" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -5526,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5549,7 +5582,7 @@
         <v>154</v>
       </c>
       <c r="C90" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -5558,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -5581,7 +5614,7 @@
         <v>403</v>
       </c>
       <c r="C91" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -5590,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5616,7 +5649,7 @@
         <v>405</v>
       </c>
       <c r="C92" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -5625,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5651,7 +5684,7 @@
         <v>404</v>
       </c>
       <c r="C93" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5660,10 +5693,10 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G93" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5683,7 +5716,7 @@
         <v>155</v>
       </c>
       <c r="C94" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5692,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -5715,7 +5748,7 @@
         <v>434</v>
       </c>
       <c r="C95" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D95" t="s">
         <v>352</v>
@@ -5724,7 +5757,7 @@
         <v>349</v>
       </c>
       <c r="F95" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G95" t="s">
         <v>368</v>
@@ -5744,10 +5777,10 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C96" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5756,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5779,7 +5812,7 @@
         <v>406</v>
       </c>
       <c r="C97" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5788,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -5811,7 +5844,7 @@
         <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5820,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -5843,7 +5876,7 @@
         <v>156</v>
       </c>
       <c r="C99" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5852,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -5875,7 +5908,7 @@
         <v>204</v>
       </c>
       <c r="C100" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D100" t="s">
         <v>173</v>
@@ -5884,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G100" t="s">
         <v>187</v>
@@ -5907,7 +5940,7 @@
         <v>384</v>
       </c>
       <c r="C101" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D101" t="s">
         <v>6</v>
@@ -5916,7 +5949,7 @@
         <v>350</v>
       </c>
       <c r="F101" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G101" t="s">
         <v>361</v>
@@ -5942,7 +5975,7 @@
         <v>157</v>
       </c>
       <c r="C102" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5951,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -5974,16 +6007,16 @@
         <v>205</v>
       </c>
       <c r="C103" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D103" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G103" t="s">
         <v>200</v>
@@ -6006,7 +6039,7 @@
         <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -6015,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -6038,7 +6071,7 @@
         <v>206</v>
       </c>
       <c r="C105" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -6047,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G105" t="s">
         <v>215</v>
@@ -6070,7 +6103,7 @@
         <v>159</v>
       </c>
       <c r="C106" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -6079,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -6102,7 +6135,7 @@
         <v>207</v>
       </c>
       <c r="C107" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -6111,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -6134,7 +6167,7 @@
         <v>208</v>
       </c>
       <c r="C108" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D108" t="s">
         <v>174</v>
@@ -6143,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G108" t="s">
         <v>416</v>
@@ -6166,7 +6199,7 @@
         <v>160</v>
       </c>
       <c r="C109" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -6175,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -6198,7 +6231,7 @@
         <v>407</v>
       </c>
       <c r="C110" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -6207,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -6230,7 +6263,7 @@
         <v>408</v>
       </c>
       <c r="C111" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -6239,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G111" t="s">
         <v>390</v>
@@ -6262,7 +6295,7 @@
         <v>209</v>
       </c>
       <c r="C112" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -6271,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -6294,7 +6327,7 @@
         <v>409</v>
       </c>
       <c r="C113" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -6303,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -6329,7 +6362,7 @@
         <v>212</v>
       </c>
       <c r="C114" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -6338,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -6361,7 +6394,7 @@
         <v>410</v>
       </c>
       <c r="C115" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -6370,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -6393,7 +6426,7 @@
         <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -6402,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6425,7 +6458,7 @@
         <v>163</v>
       </c>
       <c r="C117" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -6434,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G117" t="s">
         <v>189</v>
@@ -6457,7 +6490,7 @@
         <v>213</v>
       </c>
       <c r="C118" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -6466,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -6489,7 +6522,7 @@
         <v>411</v>
       </c>
       <c r="C119" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -6498,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6521,7 +6554,7 @@
         <v>412</v>
       </c>
       <c r="C120" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -6530,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6556,7 +6589,7 @@
         <v>164</v>
       </c>
       <c r="C121" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -6565,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6588,7 +6621,7 @@
         <v>413</v>
       </c>
       <c r="C122" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -6597,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6617,10 +6650,10 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C123" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -6629,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6655,7 +6688,7 @@
         <v>165</v>
       </c>
       <c r="C124" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -6664,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6684,10 +6717,10 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C125" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -6696,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6719,10 +6752,10 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C126" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D126" t="s">
         <v>354</v>
@@ -6731,7 +6764,7 @@
         <v>353</v>
       </c>
       <c r="F126" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G126" t="s">
         <v>404</v>
@@ -6757,7 +6790,7 @@
         <v>414</v>
       </c>
       <c r="C127" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -6766,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -6792,7 +6825,7 @@
         <v>166</v>
       </c>
       <c r="C128" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -6801,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -6824,7 +6857,7 @@
         <v>137</v>
       </c>
       <c r="C129" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -6833,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -6856,7 +6889,7 @@
         <v>214</v>
       </c>
       <c r="C130" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -6865,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G130" t="s">
         <v>162</v>
@@ -6888,7 +6921,7 @@
         <v>415</v>
       </c>
       <c r="C131" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D131" t="s">
         <v>175</v>
@@ -6897,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G131" t="s">
         <v>208</v>
@@ -7172,10 +7205,10 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B147" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I147" t="s">
         <v>161</v>
@@ -7189,10 +7222,10 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B148" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I148" t="s">
         <v>161</v>
@@ -7212,10 +7245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:K148"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I132" sqref="I132:I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7227,7 +7260,7 @@
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7253,16 +7286,19 @@
         <v>221</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -7293,14 +7329,18 @@
         <f t="shared" ref="H2:H33" si="5">VLOOKUP(B2,Spanish,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="I2" t="str">
+        <f>TRIM(VLOOKUP(A2,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7331,14 +7371,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>1</v>
+      <c r="I3" t="str">
+        <f>TRIM(VLOOKUP(A3,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7369,14 +7413,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>1</v>
+      <c r="I4" t="str">
+        <f>TRIM(VLOOKUP(A4,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -7407,14 +7455,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>1</v>
+      <c r="I5" t="str">
+        <f>TRIM(VLOOKUP(A5,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -7445,14 +7497,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="I6" t="str">
+        <f>TRIM(VLOOKUP(A6,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -7483,14 +7539,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
+      <c r="I7" t="str">
+        <f>TRIM(VLOOKUP(A7,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -7521,14 +7581,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>1</v>
+      <c r="I8" t="str">
+        <f>TRIM(VLOOKUP(A8,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -7559,14 +7623,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>1</v>
+      <c r="I9" t="str">
+        <f>TRIM(VLOOKUP(A9,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -7597,14 +7665,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
+      <c r="I10" t="str">
+        <f>TRIM(VLOOKUP(A10,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -7635,14 +7707,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>1</v>
+      <c r="I11" t="str">
+        <f>TRIM(VLOOKUP(A11,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -7673,14 +7749,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>1</v>
+      <c r="I12" t="str">
+        <f>TRIM(VLOOKUP(A12,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -7711,14 +7791,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>1</v>
+      <c r="I13" t="str">
+        <f>TRIM(VLOOKUP(A13,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -7749,14 +7833,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>1</v>
+      <c r="I14" t="str">
+        <f>TRIM(VLOOKUP(A14,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -7787,14 +7875,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>1</v>
+      <c r="I15" t="str">
+        <f>TRIM(VLOOKUP(A15,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -7825,14 +7917,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>1</v>
+      <c r="I16" t="str">
+        <f>TRIM(VLOOKUP(A16,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -7863,14 +7959,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
+      <c r="I17" t="str">
+        <f>TRIM(VLOOKUP(A17,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -7901,14 +8001,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
+      <c r="I18" t="str">
+        <f>TRIM(VLOOKUP(A18,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -7939,14 +8043,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
+      <c r="I19" t="str">
+        <f>TRIM(VLOOKUP(A19,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -7977,14 +8085,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
+      <c r="I20" t="str">
+        <f>TRIM(VLOOKUP(A20,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -8015,14 +8127,18 @@
         <f t="shared" si="5"/>
         <v>Expertos/as.</v>
       </c>
-      <c r="J21">
-        <v>1</v>
+      <c r="I21" t="str">
+        <f>TRIM(VLOOKUP(A21,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -8053,14 +8169,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
+      <c r="I22" t="str">
+        <f>TRIM(VLOOKUP(A22,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -8091,14 +8211,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>1</v>
+      <c r="I23" t="str">
+        <f>TRIM(VLOOKUP(A23,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -8129,14 +8253,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>1</v>
+      <c r="I24" t="str">
+        <f>TRIM(VLOOKUP(A24,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -8167,14 +8295,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>1</v>
+      <c r="I25" t="str">
+        <f>TRIM(VLOOKUP(A25,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -8205,14 +8337,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>1</v>
+      <c r="I26" t="str">
+        <f>TRIM(VLOOKUP(A26,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -8243,14 +8379,18 @@
         <f t="shared" si="5"/>
         <v>Conocimiento de contenido pedagógico.</v>
       </c>
-      <c r="J27">
-        <v>1</v>
+      <c r="I27" t="str">
+        <f>TRIM(VLOOKUP(A27,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -8281,17 +8421,21 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" t="str">
+        <f>TRIM(VLOOKUP(A28,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J28" t="s">
         <v>364</v>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -8322,14 +8466,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>0</v>
+      <c r="I29" t="str">
+        <f>TRIM(VLOOKUP(A29,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -8360,17 +8508,21 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" t="str">
+        <f>TRIM(VLOOKUP(A30,English,5,FALSE))</f>
+        <v>CS</v>
+      </c>
+      <c r="J30" t="s">
         <v>364</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -8401,14 +8553,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>0</v>
+      <c r="I31" t="str">
+        <f>TRIM(VLOOKUP(A31,English,5,FALSE))</f>
+        <v>CS0</v>
       </c>
       <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -8439,14 +8595,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J32">
-        <v>0</v>
+      <c r="I32" t="str">
+        <f>TRIM(VLOOKUP(A32,English,5,FALSE))</f>
+        <v>CS1</v>
       </c>
       <c r="K32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -8477,14 +8637,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>0</v>
+      <c r="I33" t="str">
+        <f>TRIM(VLOOKUP(A33,English,5,FALSE))</f>
+        <v>CS2</v>
       </c>
       <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -8515,14 +8679,18 @@
         <f t="shared" ref="H34:H65" si="11">VLOOKUP(B34,Spanish,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J34">
-        <v>1</v>
+      <c r="I34" t="str">
+        <f>TRIM(VLOOKUP(A34,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -8553,14 +8721,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J35">
-        <v>1</v>
+      <c r="I35" t="str">
+        <f>TRIM(VLOOKUP(A35,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -8591,14 +8763,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J36">
-        <v>1</v>
+      <c r="I36" t="str">
+        <f>TRIM(VLOOKUP(A36,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -8629,14 +8805,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J37">
-        <v>1</v>
+      <c r="I37" t="str">
+        <f>TRIM(VLOOKUP(A37,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -8667,14 +8847,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J38">
-        <v>1</v>
+      <c r="I38" t="str">
+        <f>TRIM(VLOOKUP(A38,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -8705,14 +8889,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>1</v>
+      <c r="I39" t="str">
+        <f>TRIM(VLOOKUP(A39,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -8743,14 +8931,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J40">
-        <v>1</v>
+      <c r="I40" t="str">
+        <f>TRIM(VLOOKUP(A40,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -8781,14 +8973,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J41">
-        <v>0</v>
+      <c r="I41" t="str">
+        <f>TRIM(VLOOKUP(A41,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -8819,19 +9015,23 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>0</v>
+      <c r="I42" t="str">
+        <f>TRIM(VLOOKUP(A42,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="6"/>
@@ -8857,19 +9057,23 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J43">
-        <v>0</v>
+      <c r="I43" t="str">
+        <f>TRIM(VLOOKUP(A43,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="6"/>
@@ -8895,14 +9099,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J44">
-        <v>0</v>
+      <c r="I44" t="str">
+        <f>TRIM(VLOOKUP(A44,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -8933,14 +9141,18 @@
         <f t="shared" si="11"/>
         <v>Principiante.</v>
       </c>
-      <c r="J45">
-        <v>1</v>
+      <c r="I45" t="str">
+        <f>TRIM(VLOOKUP(A45,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -8971,14 +9183,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J46">
-        <v>1</v>
+      <c r="I46" t="str">
+        <f>TRIM(VLOOKUP(A46,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -9009,17 +9225,21 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" t="str">
+        <f>TRIM(VLOOKUP(A47,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J47" t="s">
         <v>364</v>
       </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
       <c r="K47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -9050,17 +9270,21 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" t="str">
+        <f>TRIM(VLOOKUP(A48,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J48" t="s">
         <v>364</v>
       </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
       <c r="K48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -9091,19 +9315,23 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J49">
-        <v>1</v>
+      <c r="I49" t="str">
+        <f>TRIM(VLOOKUP(A49,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="6"/>
@@ -9129,19 +9357,23 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J50">
-        <v>1</v>
+      <c r="I50" t="str">
+        <f>TRIM(VLOOKUP(A50,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="6"/>
@@ -9167,17 +9399,21 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" t="str">
+        <f>TRIM(VLOOKUP(A51,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J51" t="s">
         <v>364</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
       <c r="K51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -9208,14 +9444,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J52">
-        <v>1</v>
+      <c r="I52" t="str">
+        <f>TRIM(VLOOKUP(A52,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -9246,17 +9486,21 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" t="str">
+        <f>TRIM(VLOOKUP(A53,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J53" t="s">
         <v>364</v>
       </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
       <c r="K53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -9287,14 +9531,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J54">
-        <v>1</v>
+      <c r="I54" t="str">
+        <f>TRIM(VLOOKUP(A54,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -9325,14 +9573,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J55">
-        <v>1</v>
+      <c r="I55" t="str">
+        <f>TRIM(VLOOKUP(A55,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -9363,14 +9615,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J56">
-        <v>1</v>
+      <c r="I56" t="str">
+        <f>TRIM(VLOOKUP(A56,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -9401,14 +9657,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J57">
-        <v>0</v>
+      <c r="I57" t="str">
+        <f>TRIM(VLOOKUP(A57,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -9439,14 +9699,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J58">
-        <v>1</v>
+      <c r="I58" t="str">
+        <f>TRIM(VLOOKUP(A58,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -9477,19 +9741,23 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J59">
-        <v>1</v>
+      <c r="I59" t="str">
+        <f>TRIM(VLOOKUP(A59,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="6"/>
@@ -9515,17 +9783,21 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" t="str">
+        <f>TRIM(VLOOKUP(A60,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J60" t="s">
         <v>364</v>
       </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
       <c r="K60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -9556,14 +9828,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J61">
-        <v>1</v>
+      <c r="I61" t="str">
+        <f>TRIM(VLOOKUP(A61,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -9594,17 +9870,21 @@
         <f t="shared" si="11"/>
         <v>Conocimiento de contenido pedagógico</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" t="str">
+        <f>TRIM(VLOOKUP(A62,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J62" t="s">
         <v>364</v>
       </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
       <c r="K62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -9635,14 +9915,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J63">
-        <v>1</v>
+      <c r="I63" t="str">
+        <f>TRIM(VLOOKUP(A63,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -9673,14 +9957,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J64">
-        <v>0</v>
+      <c r="I64" t="str">
+        <f>TRIM(VLOOKUP(A64,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -9711,17 +9999,21 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" t="str">
+        <f>TRIM(VLOOKUP(A65,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J65" t="s">
         <v>364</v>
       </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
       <c r="K65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -9752,14 +10044,18 @@
         <f t="shared" ref="H66:H97" si="17">VLOOKUP(B66,Spanish,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J66">
-        <v>1</v>
+      <c r="I66" t="str">
+        <f>TRIM(VLOOKUP(A66,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -9790,14 +10086,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J67">
-        <v>0</v>
+      <c r="I67" t="str">
+        <f>TRIM(VLOOKUP(A67,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -9828,17 +10128,21 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" t="str">
+        <f>TRIM(VLOOKUP(A68,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J68" t="s">
         <v>364</v>
       </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
       <c r="K68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -9869,17 +10173,21 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" t="str">
+        <f>TRIM(VLOOKUP(A69,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J69" t="s">
         <v>364</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
       <c r="K69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -9910,14 +10218,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J70">
-        <v>0</v>
+      <c r="I70" t="str">
+        <f>TRIM(VLOOKUP(A70,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -9948,14 +10260,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J71">
-        <v>0</v>
+      <c r="I71" t="str">
+        <f>TRIM(VLOOKUP(A71,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -9986,17 +10302,21 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" t="str">
+        <f>TRIM(VLOOKUP(A72,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J72" t="s">
         <v>364</v>
       </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
       <c r="K72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -10027,14 +10347,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J73">
-        <v>1</v>
+      <c r="I73" t="str">
+        <f>TRIM(VLOOKUP(A73,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -10065,14 +10389,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J74">
-        <v>1</v>
+      <c r="I74" t="str">
+        <f>TRIM(VLOOKUP(A74,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -10103,14 +10431,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J75">
-        <v>1</v>
+      <c r="I75" t="str">
+        <f>TRIM(VLOOKUP(A75,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -10141,14 +10473,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J76">
-        <v>0</v>
+      <c r="I76" t="str">
+        <f>TRIM(VLOOKUP(A76,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -10179,19 +10515,23 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J77">
-        <v>1</v>
+      <c r="I77" t="str">
+        <f>TRIM(VLOOKUP(A77,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="12"/>
@@ -10217,17 +10557,21 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" t="str">
+        <f>TRIM(VLOOKUP(A78,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J78" t="s">
         <v>364</v>
       </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
       <c r="K78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -10258,19 +10602,23 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J79">
-        <v>1</v>
+      <c r="I79" t="str">
+        <f>TRIM(VLOOKUP(A79,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>730</v>
       </c>
       <c r="B80" t="s">
-        <v>388</v>
+        <v>727</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="12"/>
@@ -10296,14 +10644,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J80">
-        <v>1</v>
+      <c r="I80" t="str">
+        <f>TRIM(VLOOKUP(A80,English,5,FALSE))</f>
+        <v>LMS</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -10334,14 +10686,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J81">
-        <v>1</v>
+      <c r="I81" t="str">
+        <f>TRIM(VLOOKUP(A81,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -10372,14 +10728,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J82">
-        <v>1</v>
+      <c r="I82" t="str">
+        <f>TRIM(VLOOKUP(A82,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -10410,14 +10770,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J83">
-        <v>0</v>
+      <c r="I83" t="str">
+        <f>TRIM(VLOOKUP(A83,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -10448,14 +10812,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J84">
-        <v>0</v>
+      <c r="I84" t="str">
+        <f>TRIM(VLOOKUP(A84,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -10486,14 +10854,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J85">
-        <v>0</v>
+      <c r="I85" t="str">
+        <f>TRIM(VLOOKUP(A85,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -10524,14 +10896,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J86">
-        <v>0</v>
+      <c r="I86" t="str">
+        <f>TRIM(VLOOKUP(A86,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -10562,16 +10938,20 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J87">
-        <v>0</v>
+      <c r="I87" t="str">
+        <f>TRIM(VLOOKUP(A87,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>731</v>
       </c>
       <c r="B88" t="s">
         <v>152</v>
@@ -10600,14 +10980,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J88">
-        <v>1</v>
+      <c r="I88" t="str">
+        <f>TRIM(VLOOKUP(A88,English,5,FALSE))</f>
+        <v>MOOC</v>
       </c>
       <c r="K88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -10638,14 +11022,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J89">
-        <v>1</v>
+      <c r="I89" t="str">
+        <f>TRIM(VLOOKUP(A89,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -10676,14 +11064,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J90">
-        <v>1</v>
+      <c r="I90" t="str">
+        <f>TRIM(VLOOKUP(A90,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -10714,17 +11106,21 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" t="str">
+        <f>TRIM(VLOOKUP(A91,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J91" t="s">
         <v>364</v>
       </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
       <c r="K91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>99</v>
       </c>
@@ -10755,17 +11151,21 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" t="str">
+        <f>TRIM(VLOOKUP(A92,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J92" t="s">
         <v>364</v>
       </c>
-      <c r="J92">
-        <v>1</v>
-      </c>
       <c r="K92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -10796,14 +11196,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J93">
-        <v>1</v>
+      <c r="I93" t="str">
+        <f>TRIM(VLOOKUP(A93,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -10834,14 +11238,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J94">
-        <v>1</v>
+      <c r="I94" t="str">
+        <f>TRIM(VLOOKUP(A94,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>102</v>
       </c>
@@ -10872,19 +11280,23 @@
         <f t="shared" si="17"/>
         <v>Experta/o.</v>
       </c>
-      <c r="J95">
-        <v>1</v>
+      <c r="I95" t="str">
+        <f>TRIM(VLOOKUP(A95,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="12"/>
@@ -10910,14 +11322,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J96">
-        <v>0</v>
+      <c r="I96" t="str">
+        <f>TRIM(VLOOKUP(A96,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -10948,14 +11364,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J97">
-        <v>0</v>
+      <c r="I97" t="str">
+        <f>TRIM(VLOOKUP(A97,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>105</v>
       </c>
@@ -10986,14 +11406,18 @@
         <f t="shared" ref="H98:H129" si="23">VLOOKUP(B98,Spanish,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J98">
-        <v>1</v>
+      <c r="I98" t="str">
+        <f>TRIM(VLOOKUP(A98,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>106</v>
       </c>
@@ -11024,14 +11448,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J99">
-        <v>1</v>
+      <c r="I99" t="str">
+        <f>TRIM(VLOOKUP(A99,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>107</v>
       </c>
@@ -11062,16 +11490,20 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J100">
-        <v>1</v>
+      <c r="I100" t="str">
+        <f>TRIM(VLOOKUP(A100,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>108</v>
+        <v>733</v>
       </c>
       <c r="B101" t="s">
         <v>384</v>
@@ -11100,17 +11532,21 @@
         <f t="shared" si="23"/>
         <v>Conocimiento pedagógico general</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" t="str">
+        <f>TRIM(VLOOKUP(A101,English,5,FALSE))</f>
+        <v>PCK</v>
+      </c>
+      <c r="J101" t="s">
         <v>364</v>
       </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
       <c r="K101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -11141,14 +11577,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J102">
-        <v>1</v>
+      <c r="I102" t="str">
+        <f>TRIM(VLOOKUP(A102,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>110</v>
       </c>
@@ -11179,14 +11619,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J103">
-        <v>1</v>
+      <c r="I103" t="str">
+        <f>TRIM(VLOOKUP(A103,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>111</v>
       </c>
@@ -11217,14 +11661,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J104">
-        <v>1</v>
+      <c r="I104" t="str">
+        <f>TRIM(VLOOKUP(A104,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -11255,14 +11703,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J105">
-        <v>1</v>
+      <c r="I105" t="str">
+        <f>TRIM(VLOOKUP(A105,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>113</v>
       </c>
@@ -11293,14 +11745,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J106">
-        <v>0</v>
+      <c r="I106" t="str">
+        <f>TRIM(VLOOKUP(A106,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>114</v>
       </c>
@@ -11331,14 +11787,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J107">
-        <v>1</v>
+      <c r="I107" t="str">
+        <f>TRIM(VLOOKUP(A107,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -11369,14 +11829,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J108">
-        <v>1</v>
+      <c r="I108" t="str">
+        <f>TRIM(VLOOKUP(A108,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>116</v>
       </c>
@@ -11408,14 +11872,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J109">
-        <v>0</v>
+      <c r="I109" t="str">
+        <f>TRIM(VLOOKUP(A109,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -11446,14 +11914,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J110">
-        <v>0</v>
+      <c r="I110" t="str">
+        <f>TRIM(VLOOKUP(A110,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>118</v>
       </c>
@@ -11484,14 +11956,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J111">
-        <v>1</v>
+      <c r="I111" t="str">
+        <f>TRIM(VLOOKUP(A111,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -11522,14 +11998,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J112">
-        <v>0</v>
+      <c r="I112" t="str">
+        <f>TRIM(VLOOKUP(A112,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>120</v>
       </c>
@@ -11560,17 +12040,21 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" t="str">
+        <f>TRIM(VLOOKUP(A113,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J113" t="s">
         <v>364</v>
       </c>
-      <c r="J113">
-        <v>1</v>
-      </c>
       <c r="K113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>122</v>
       </c>
@@ -11601,14 +12085,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J114">
-        <v>0</v>
+      <c r="I114" t="str">
+        <f>TRIM(VLOOKUP(A114,English,5,FALSE))</f>
+        <v>SEO</v>
       </c>
       <c r="K114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -11639,14 +12127,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J115">
-        <v>0</v>
+      <c r="I115" t="str">
+        <f>TRIM(VLOOKUP(A115,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -11677,14 +12169,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J116">
-        <v>1</v>
+      <c r="I116" t="str">
+        <f>TRIM(VLOOKUP(A116,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -11715,14 +12211,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J117">
-        <v>1</v>
+      <c r="I117" t="str">
+        <f>TRIM(VLOOKUP(A117,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -11753,14 +12253,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J118">
-        <v>1</v>
+      <c r="I118" t="str">
+        <f>TRIM(VLOOKUP(A118,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -11791,14 +12295,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J119">
-        <v>0</v>
+      <c r="I119" t="str">
+        <f>TRIM(VLOOKUP(A119,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -11829,17 +12337,21 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" t="str">
+        <f>TRIM(VLOOKUP(A120,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J120" t="s">
         <v>364</v>
       </c>
-      <c r="J120">
-        <v>1</v>
-      </c>
       <c r="K120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>129</v>
       </c>
@@ -11870,14 +12382,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J121">
-        <v>1</v>
+      <c r="I121" t="str">
+        <f>TRIM(VLOOKUP(A121,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -11908,19 +12424,23 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J122">
-        <v>1</v>
+      <c r="I122" t="str">
+        <f>TRIM(VLOOKUP(A122,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="18"/>
@@ -11946,17 +12466,21 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" t="str">
+        <f>TRIM(VLOOKUP(A123,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J123" t="s">
         <v>364</v>
       </c>
-      <c r="J123">
-        <v>1</v>
-      </c>
       <c r="K123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>132</v>
       </c>
@@ -11987,19 +12511,23 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J124">
-        <v>0</v>
+      <c r="I124" t="str">
+        <f>TRIM(VLOOKUP(A124,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="18"/>
@@ -12025,22 +12553,26 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" t="str">
+        <f>TRIM(VLOOKUP(A125,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J125" t="s">
         <v>364</v>
       </c>
-      <c r="J125">
-        <v>1</v>
-      </c>
       <c r="K125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="18"/>
@@ -12066,17 +12598,21 @@
         <f t="shared" si="23"/>
         <v>Transferencia lejana.</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" t="str">
+        <f>TRIM(VLOOKUP(A126,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J126" t="s">
         <v>364</v>
       </c>
-      <c r="J126">
-        <v>1</v>
-      </c>
       <c r="K126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -12107,17 +12643,21 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" t="str">
+        <f>TRIM(VLOOKUP(A127,English,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J127" t="s">
         <v>364</v>
       </c>
-      <c r="J127">
-        <v>1</v>
-      </c>
       <c r="K127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -12148,14 +12688,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J128">
-        <v>1</v>
+      <c r="I128" t="str">
+        <f>TRIM(VLOOKUP(A128,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -12186,14 +12730,18 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J129">
-        <v>0</v>
+      <c r="I129" t="str">
+        <f>TRIM(VLOOKUP(A129,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -12224,19 +12772,23 @@
         <f>VLOOKUP(B130,Spanish,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J130">
-        <v>1</v>
+      <c r="I130" t="str">
+        <f>TRIM(VLOOKUP(A130,English,5,FALSE))</f>
+        <v/>
       </c>
       <c r="K130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>736</v>
       </c>
       <c r="B131" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="18"/>
@@ -12262,302 +12814,306 @@
         <f>VLOOKUP(B131,Spanish,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" t="str">
+        <f>TRIM(VLOOKUP(A131,English,5,FALSE))</f>
+        <v>ZPD</v>
+      </c>
+      <c r="J131" t="s">
         <v>364</v>
       </c>
-      <c r="J131">
-        <v>1</v>
-      </c>
       <c r="K131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>121</v>
       </c>
       <c r="B132" t="s">
         <v>210</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
         <v>161</v>
       </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
       <c r="K132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
         <v>161</v>
       </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
       <c r="K133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>421</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>161</v>
       </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
       <c r="K134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>422</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>161</v>
       </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
       <c r="K135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>423</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>161</v>
       </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
       <c r="K136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>426</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
         <v>161</v>
       </c>
-      <c r="J137">
-        <v>1</v>
-      </c>
       <c r="K137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>428</v>
       </c>
       <c r="B138" t="s">
         <v>429</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>161</v>
       </c>
-      <c r="J138">
-        <v>1</v>
-      </c>
       <c r="K138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
         <v>161</v>
       </c>
-      <c r="J139">
-        <v>1</v>
-      </c>
       <c r="K139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>432</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
         <v>161</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
       <c r="K140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>161</v>
       </c>
-      <c r="J141">
-        <v>1</v>
-      </c>
       <c r="K141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>438</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I142" t="s">
+      <c r="J142" t="s">
         <v>161</v>
       </c>
-      <c r="J142">
-        <v>1</v>
-      </c>
       <c r="K142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
         <v>161</v>
       </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
       <c r="K143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
         <v>161</v>
       </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
       <c r="K144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>444</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>161</v>
       </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
       <c r="K145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>446</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I146" t="s">
+      <c r="J146" t="s">
         <v>161</v>
       </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
       <c r="K146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="J147" t="s">
+        <v>161</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B148" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J148" t="s">
         <v>161</v>
       </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="I148" t="s">
-        <v>161</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
       <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
         <v>0</v>
       </c>
     </row>
@@ -12571,8 +13127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12597,7 +13153,7 @@
         <v>221</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>211</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12656,16 +13212,13 @@
       <c r="B7" t="s">
         <v>454</v>
       </c>
-      <c r="E7" t="s">
-        <v>455</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12673,7 +13226,7 @@
         <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C9" t="s">
         <v>193</v>
@@ -12684,7 +13237,7 @@
         <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12692,7 +13245,7 @@
         <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12700,7 +13253,7 @@
         <v>418</v>
       </c>
       <c r="B12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -12708,7 +13261,7 @@
         <v>182</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -12716,7 +13269,7 @@
         <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -12724,7 +13277,7 @@
         <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -12732,50 +13285,50 @@
         <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>189</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C18" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>217</v>
       </c>
       <c r="B19" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>359</v>
       </c>
       <c r="B20" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>369</v>
       </c>
       <c r="B21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C21" t="s">
         <v>202</v>
@@ -12784,52 +13337,52 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>360</v>
       </c>
       <c r="B23" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>361</v>
       </c>
       <c r="B27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C27" t="s">
         <v>394</v>
@@ -12838,151 +13391,163 @@
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>362</v>
       </c>
       <c r="B28" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>363</v>
       </c>
       <c r="B29" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>365</v>
       </c>
       <c r="B30" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="E30" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>146</v>
       </c>
       <c r="B32" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>389</v>
       </c>
       <c r="B34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>390</v>
       </c>
       <c r="B35" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>391</v>
       </c>
       <c r="B36" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>215</v>
       </c>
       <c r="B37" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>392</v>
       </c>
       <c r="B38" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>216</v>
       </c>
       <c r="B39" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>366</v>
       </c>
       <c r="B40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C40" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>367</v>
       </c>
       <c r="B41" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>375</v>
       </c>
       <c r="B42" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>490</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>492</v>
       </c>
-      <c r="B44" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>419</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C45" t="s">
         <v>368</v>
@@ -12991,28 +13556,28 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>372</v>
       </c>
       <c r="B47" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>376</v>
       </c>
       <c r="B48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -13020,15 +13585,15 @@
         <v>191</v>
       </c>
       <c r="B49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>498</v>
+      </c>
+      <c r="B50" t="s">
         <v>499</v>
-      </c>
-      <c r="B50" t="s">
-        <v>500</v>
       </c>
       <c r="C50" t="s">
         <v>370</v>
@@ -13036,10 +13601,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>500</v>
+      </c>
+      <c r="B51" t="s">
         <v>501</v>
-      </c>
-      <c r="B51" t="s">
-        <v>502</v>
       </c>
       <c r="C51" t="s">
         <v>409</v>
@@ -13050,7 +13615,7 @@
         <v>192</v>
       </c>
       <c r="B52" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C52" t="s">
         <v>185</v>
@@ -13061,10 +13626,10 @@
         <v>377</v>
       </c>
       <c r="B53" t="s">
+        <v>503</v>
+      </c>
+      <c r="C53" t="s">
         <v>504</v>
-      </c>
-      <c r="C53" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -13072,7 +13637,7 @@
         <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C54" t="s">
         <v>180</v>
@@ -13083,7 +13648,7 @@
         <v>378</v>
       </c>
       <c r="B55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C55" t="s">
         <v>396</v>
@@ -13094,7 +13659,7 @@
         <v>379</v>
       </c>
       <c r="B56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -13102,7 +13667,7 @@
         <v>393</v>
       </c>
       <c r="B57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -13110,7 +13675,7 @@
         <v>380</v>
       </c>
       <c r="B58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -13118,7 +13683,7 @@
         <v>194</v>
       </c>
       <c r="B59" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C59" t="s">
         <v>164</v>
@@ -13126,10 +13691,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>521</v>
+      </c>
+      <c r="B60" t="s">
         <v>522</v>
-      </c>
-      <c r="B60" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -13137,7 +13702,7 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -13145,7 +13710,7 @@
         <v>394</v>
       </c>
       <c r="B62" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C62" t="s">
         <v>382</v>
@@ -13159,7 +13724,7 @@
         <v>195</v>
       </c>
       <c r="B63" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -13167,276 +13732,282 @@
         <v>395</v>
       </c>
       <c r="B64" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>396</v>
       </c>
       <c r="B65" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C65" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>397</v>
       </c>
       <c r="B66" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>401</v>
       </c>
       <c r="B68" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>402</v>
       </c>
       <c r="B69" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>196</v>
       </c>
       <c r="B70" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
       <c r="B71" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>400</v>
       </c>
       <c r="B72" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>399</v>
       </c>
       <c r="B73" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C73" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>398</v>
       </c>
       <c r="B74" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C74" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>370</v>
       </c>
       <c r="B75" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C75" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>197</v>
       </c>
       <c r="B77" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>600</v>
+      </c>
+      <c r="B78" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>601</v>
-      </c>
-      <c r="B78" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>198</v>
       </c>
       <c r="B79" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>727</v>
+      </c>
+      <c r="B80" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>388</v>
-      </c>
-      <c r="B80" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>386</v>
       </c>
       <c r="B81" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>387</v>
       </c>
       <c r="B82" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>385</v>
       </c>
       <c r="B83" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C83" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>200</v>
       </c>
       <c r="B85" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C85" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>151</v>
       </c>
       <c r="B86" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>201</v>
       </c>
       <c r="B87" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>152</v>
       </c>
       <c r="B88" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+      <c r="E88" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>153</v>
       </c>
       <c r="B89" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>154</v>
       </c>
       <c r="B90" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>403</v>
       </c>
       <c r="B91" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>405</v>
       </c>
       <c r="B92" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>404</v>
       </c>
       <c r="B93" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C93" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>155</v>
       </c>
       <c r="B94" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>434</v>
       </c>
       <c r="B95" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C95" t="s">
         <v>368</v>
@@ -13445,55 +14016,55 @@
         <v>435</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B96" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>406</v>
       </c>
       <c r="B97" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>203</v>
       </c>
       <c r="B98" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>204</v>
       </c>
       <c r="B100" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C100" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>384</v>
       </c>
       <c r="B101" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C101" t="s">
         <v>361</v>
@@ -13501,220 +14072,226 @@
       <c r="D101" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>157</v>
       </c>
       <c r="B102" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>205</v>
       </c>
       <c r="B103" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C103" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>206</v>
       </c>
       <c r="B105" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C105" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>159</v>
       </c>
       <c r="B106" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>207</v>
       </c>
       <c r="B107" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>208</v>
       </c>
       <c r="B108" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C108" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>160</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>407</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>408</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C111" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>209</v>
       </c>
       <c r="B112" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>409</v>
       </c>
       <c r="B113" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>212</v>
       </c>
       <c r="B114" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="E114" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>410</v>
       </c>
       <c r="B115" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>162</v>
       </c>
       <c r="B116" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>163</v>
       </c>
       <c r="B117" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C117" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>213</v>
       </c>
       <c r="B118" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>411</v>
       </c>
       <c r="B119" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>412</v>
       </c>
       <c r="B120" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>164</v>
       </c>
       <c r="B121" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>413</v>
       </c>
       <c r="B122" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>515</v>
+      </c>
+      <c r="B123" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>516</v>
-      </c>
-      <c r="B123" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>165</v>
       </c>
       <c r="B124" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>516</v>
+      </c>
+      <c r="B125" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>517</v>
-      </c>
-      <c r="B125" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B126" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C126" t="s">
         <v>404</v>
@@ -13723,50 +14300,53 @@
         <v>377</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>414</v>
       </c>
       <c r="B127" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>166</v>
       </c>
       <c r="B128" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>214</v>
       </c>
       <c r="B130" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B131" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C131" t="s">
         <v>208</v>
+      </c>
+      <c r="E131" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -13776,21 +14356,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -13802,17 +14382,20 @@
       <c r="D1" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -13822,8 +14405,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -13833,32 +14416,32 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -13868,8 +14451,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -13879,56 +14462,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -13938,16 +14521,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -13957,24 +14540,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -13987,48 +14570,48 @@
         <v>349</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -14041,104 +14624,116 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="E30" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -14148,40 +14743,40 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -14194,24 +14789,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -14219,7 +14814,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -14227,7 +14822,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -14238,7 +14833,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -14249,7 +14844,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -14257,7 +14852,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -14265,72 +14860,72 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C54" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="C59" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -14338,7 +14933,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -14352,7 +14947,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -14360,15 +14955,15 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -14378,64 +14973,64 @@
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -14445,19 +15040,19 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C74" t="s">
         <v>538</v>
       </c>
-      <c r="C74" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -14467,80 +15062,83 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>87</v>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>730</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="E80" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -14550,80 +15148,83 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>95</v>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="E88" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -14636,40 +15237,40 @@
         <v>349</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -14679,12 +15280,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>108</v>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -14692,36 +15293,39 @@
       <c r="D101" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="E101" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C103" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -14731,24 +15335,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -14758,144 +15362,147 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="E114" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -14908,47 +15515,50 @@
         <v>353</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>139</v>
+    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>336</v>
       </c>
       <c r="C131" t="s">
         <v>175</v>
+      </c>
+      <c r="E131" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/files/GlosarioT3.xlsx
+++ b/files/GlosarioT3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\T3Glossary\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E8254-75C6-4A01-97A9-88AA89D1CB52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AEA18B-D08C-4D1C-A0DA-7FBE910E91CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lexicon" sheetId="5" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="870">
   <si>
     <t>english</t>
   </si>
@@ -2293,6 +2293,393 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Principiante absoluto</t>
+  </si>
+  <si>
+    <t>Aprendizaje activo</t>
+  </si>
+  <si>
+    <t>Enseñanza activa</t>
+  </si>
+  <si>
+    <t>Tarea auténtica</t>
+  </si>
+  <si>
+    <t>Automaticidad. De forma automática.</t>
+  </si>
+  <si>
+    <t>Reingeniería</t>
+  </si>
+  <si>
+    <t>Conductismo</t>
+  </si>
+  <si>
+    <t>Taxonomía de Bloom</t>
+  </si>
+  <si>
+    <t>Revisión por pares calibrada</t>
+  </si>
+  <si>
+    <t>Particionar. Fragmentar</t>
+  </si>
+  <si>
+    <t>Aprendizaje cognitivo</t>
+  </si>
+  <si>
+    <t>Carga cognitiva</t>
+  </si>
+  <si>
+    <t>Cognitivismo</t>
+  </si>
+  <si>
+    <t>Comunidad de práctica</t>
+  </si>
+  <si>
+    <t>Representación de la comunidad</t>
+  </si>
+  <si>
+    <t>Integración computacional</t>
+  </si>
+  <si>
+    <t>Practicante competente. Personas competentes</t>
+  </si>
+  <si>
+    <t>Pensamiento computacional</t>
+  </si>
+  <si>
+    <t>Inventario de conceptos</t>
+  </si>
+  <si>
+    <t>Mapa conceptual</t>
+  </si>
+  <si>
+    <t>Conectivismo</t>
+  </si>
+  <si>
+    <t>Constructivismo</t>
+  </si>
+  <si>
+    <t>Conocimiento del contenid</t>
+  </si>
+  <si>
+    <t>Contribuyendo a la pedagogía estudianti</t>
+  </si>
+  <si>
+    <t>Programadora conversacional</t>
+  </si>
+  <si>
+    <t>Ciencias de la computación acústico</t>
+  </si>
+  <si>
+    <t>CS1. ciencias de la computación I</t>
+  </si>
+  <si>
+    <t>CS2. ciencias de la computación II</t>
+  </si>
+  <si>
+    <t>Modelo deficitario</t>
+  </si>
+  <si>
+    <t>Practica deliberada</t>
+  </si>
+  <si>
+    <t>Leccion de demostracion</t>
+  </si>
+  <si>
+    <t>Poder de diagnóstico</t>
+  </si>
+  <si>
+    <t>Instrucción directa</t>
+  </si>
+  <si>
+    <t>Efecto Dunning-Kruger</t>
+  </si>
+  <si>
+    <t>Psicología Educacional</t>
+  </si>
+  <si>
+    <t>Agotamiento del ego</t>
+  </si>
+  <si>
+    <t>Discurso de presentación</t>
+  </si>
+  <si>
+    <t>Usuario final programador</t>
+  </si>
+  <si>
+    <t>Usuario final docente</t>
+  </si>
+  <si>
+    <t>Expertos/as. Personas expertas</t>
+  </si>
+  <si>
+    <t>Punto ciego del experto</t>
+  </si>
+  <si>
+    <t>Efecto inverso de la experiencia</t>
+  </si>
+  <si>
+    <t>Cognición externalizad</t>
+  </si>
+  <si>
+    <t>Carga extrínseca</t>
+  </si>
+  <si>
+    <t>Ejemplos desvanecidos</t>
+  </si>
+  <si>
+    <t>Falso principiante</t>
+  </si>
+  <si>
+    <t>Transferencia lejana</t>
+  </si>
+  <si>
+    <t>Taxonomía de Fink</t>
+  </si>
+  <si>
+    <t>Mentalidad fija</t>
+  </si>
+  <si>
+    <t>Aula invertida</t>
+  </si>
+  <si>
+    <t>Flujo</t>
+  </si>
+  <si>
+    <t>Representación fluida</t>
+  </si>
+  <si>
+    <t>Evaluación formativa</t>
+  </si>
+  <si>
+    <t>Estudiante free-range. Estudiante de rango libre</t>
+  </si>
+  <si>
+    <t>Fuzz testin</t>
+  </si>
+  <si>
+    <t>Carga pertinente</t>
+  </si>
+  <si>
+    <t>Directorio. Junta</t>
+  </si>
+  <si>
+    <t>Mentalidad de crecimiento</t>
+  </si>
+  <si>
+    <t>Notas guiada</t>
+  </si>
+  <si>
+    <t>Hashin</t>
+  </si>
+  <si>
+    <t>Efecto de hipercorrecció</t>
+  </si>
+  <si>
+    <t>Ciencia de implementació</t>
+  </si>
+  <si>
+    <t>Síndrome del impostor</t>
+  </si>
+  <si>
+    <t>Inclusión</t>
+  </si>
+  <si>
+    <t>Aprendizaje basado en la indagació</t>
+  </si>
+  <si>
+    <t>Diseño instrucciona</t>
+  </si>
+  <si>
+    <t>Carga instrínseca</t>
+  </si>
+  <si>
+    <t>Motivación intrínseca</t>
+  </si>
+  <si>
+    <t>Intuición.</t>
+  </si>
+  <si>
+    <t>Impotencia aprendida</t>
+  </si>
+  <si>
+    <t>Estudiante tipo.</t>
+  </si>
+  <si>
+    <t>Sistema de gestión de aprendizaje</t>
+  </si>
+  <si>
+    <t>Objetivo de aprendizaje</t>
+  </si>
+  <si>
+    <t>Resultado de aprendizaje</t>
+  </si>
+  <si>
+    <t>Participación inicial legítima</t>
+  </si>
+  <si>
+    <t>Memoria de largo plazo</t>
+  </si>
+  <si>
+    <t>Manual.</t>
+  </si>
+  <si>
+    <t>Modelo mental</t>
+  </si>
+  <si>
+    <t>Metacognición</t>
+  </si>
+  <si>
+    <t>Manual mínimo</t>
+  </si>
+  <si>
+    <t>Tarjetas de minutos</t>
+  </si>
+  <si>
+    <t>Transferencia cercana</t>
+  </si>
+  <si>
+    <t>Máquina nocional</t>
+  </si>
+  <si>
+    <t>Novata/o. Persona novata. Principiante</t>
+  </si>
+  <si>
+    <t>Primero los objetos</t>
+  </si>
+  <si>
+    <t>Programación en pareja</t>
+  </si>
+  <si>
+    <t>Problemas de Parson</t>
+  </si>
+  <si>
+    <t>Enseñanza pasiva</t>
+  </si>
+  <si>
+    <t>Instrucción por pares</t>
+  </si>
+  <si>
+    <t>Memoria persistente</t>
+  </si>
+  <si>
+    <t>Aprendizaje personalizado</t>
+  </si>
+  <si>
+    <t>Distractor pausible</t>
+  </si>
+  <si>
+    <t>Posicionamiento</t>
+  </si>
+  <si>
+    <t>Privilegio preparatorio</t>
+  </si>
+  <si>
+    <t>Falla productiva</t>
+  </si>
+  <si>
+    <t>Leer-cubrir-recupera</t>
+  </si>
+  <si>
+    <t>Práctica reflexiva</t>
+  </si>
+  <si>
+    <t>Paradoja de la reusabilidad</t>
+  </si>
+  <si>
+    <t>Andamiaje</t>
+  </si>
+  <si>
+    <t>Motor de optimización de posicionamiento en buscadores</t>
+  </si>
+  <si>
+    <t>Directorio o junta de servicio</t>
+  </si>
+  <si>
+    <t>Memoria de corto plazo</t>
+  </si>
+  <si>
+    <t>Aprendizaje situado</t>
+  </si>
+  <si>
+    <t>Efecto de atención dividida</t>
+  </si>
+  <si>
+    <t>Amenaza del estereotipo</t>
+  </si>
+  <si>
+    <t>Etiquetado de submetas</t>
+  </si>
+  <si>
+    <t>Evaluación sumativa</t>
+  </si>
+  <si>
+    <t>Artefacto tangibl</t>
+  </si>
+  <si>
+    <t>Enseñando para el exámen</t>
+  </si>
+  <si>
+    <t>Desarrollo basado en test</t>
+  </si>
+  <si>
+    <t>Piensa-trabaja en pareja-comparte</t>
+  </si>
+  <si>
+    <t>Transferencia de aprendizaje</t>
+  </si>
+  <si>
+    <t>Transferencia apropiada de procesamient</t>
+  </si>
+  <si>
+    <t>Twitch codin</t>
+  </si>
+  <si>
+    <t>Memoria de trabajo</t>
+  </si>
+  <si>
+    <t>Zona de Desarrollo Proximal</t>
+  </si>
+  <si>
+    <t>Co-enseñanza</t>
+  </si>
+  <si>
+    <t>CS0. Introducción a las ciencias de la computación</t>
+  </si>
+  <si>
+    <t>Programación en vivo</t>
+  </si>
+  <si>
+    <t>Cursos on-line masivos</t>
+  </si>
+  <si>
+    <t>Aprendizaje pasivo</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Grabación de pantalla</t>
+  </si>
+  <si>
+    <t>Síndrome de desgaste ocupacional</t>
+  </si>
+  <si>
+    <t>Docentes free-range. Docentes de rango libre.</t>
+  </si>
+  <si>
+    <t>Pericia.</t>
+  </si>
+  <si>
+    <t>Retroalimentación.</t>
+  </si>
+  <si>
+    <t>El modelo de desarrollo de habilidades</t>
+  </si>
+  <si>
+    <t>Devolución</t>
   </si>
 </sst>
 </file>
@@ -2701,7 +3088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990111A-369A-41E8-8C22-1342FD4CCC65}">
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -6338,16 +6725,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -6396,7 +6783,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>741</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C33" si="0">TRIM(VLOOKUP(A2,English,2,FALSE))</f>
@@ -6438,7 +6825,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>742</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -6480,7 +6867,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>743</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -6522,7 +6909,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>744</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -6564,7 +6951,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>745</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -6606,7 +6993,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>746</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -6648,7 +7035,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>747</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -6690,7 +7077,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>748</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -6732,7 +7119,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>862</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -6774,7 +7161,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>353</v>
+        <v>749</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -6816,7 +7203,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>750</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -6858,7 +7245,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>857</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -6900,7 +7287,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>751</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -6942,7 +7329,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>752</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -6984,7 +7371,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>753</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -7026,7 +7413,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -7068,7 +7455,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>754</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -7110,7 +7497,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>755</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -7152,7 +7539,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>355</v>
+        <v>756</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -7194,7 +7581,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>365</v>
+        <v>757</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -7236,7 +7623,7 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>758</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -7278,7 +7665,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>759</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -7320,7 +7707,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>760</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -7362,7 +7749,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>761</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -7404,7 +7791,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>762</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -7446,7 +7833,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>357</v>
+        <v>763</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -7488,7 +7875,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>358</v>
+        <v>764</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -7533,7 +7920,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>359</v>
+        <v>765</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -7575,7 +7962,7 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>361</v>
+        <v>766</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -7620,7 +8007,7 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>858</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -7662,7 +8049,7 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>767</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -7704,7 +8091,7 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>768</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -7746,7 +8133,7 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>384</v>
+        <v>769</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ref="C34:C65" si="7">TRIM(VLOOKUP(A34,English,2,FALSE))</f>
@@ -7788,7 +8175,7 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>385</v>
+        <v>770</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="7"/>
@@ -7830,7 +8217,7 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>386</v>
+        <v>771</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="7"/>
@@ -7872,7 +8259,7 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
+        <v>772</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="7"/>
@@ -7914,7 +8301,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>387</v>
+        <v>773</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="7"/>
@@ -7956,7 +8343,7 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>774</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="7"/>
@@ -7998,7 +8385,7 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>362</v>
+        <v>775</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="7"/>
@@ -8040,7 +8427,7 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>363</v>
+        <v>776</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="7"/>
@@ -8082,7 +8469,7 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>371</v>
+        <v>777</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="7"/>
@@ -8124,7 +8511,7 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>483</v>
+        <v>778</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="7"/>
@@ -8166,7 +8553,7 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>485</v>
+        <v>779</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="7"/>
@@ -8208,7 +8595,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>413</v>
+        <v>780</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="7"/>
@@ -8250,7 +8637,7 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>781</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="7"/>
@@ -8292,7 +8679,7 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>782</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="7"/>
@@ -8337,7 +8724,7 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>372</v>
+        <v>783</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="7"/>
@@ -8382,7 +8769,7 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>784</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="7"/>
@@ -8424,7 +8811,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>492</v>
+        <v>144</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="7"/>
@@ -8466,7 +8853,7 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>494</v>
+        <v>785</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="7"/>
@@ -8511,7 +8898,7 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>786</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="7"/>
@@ -8553,7 +8940,7 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>373</v>
+        <v>787</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="7"/>
@@ -8598,7 +8985,7 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>788</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="7"/>
@@ -8640,7 +9027,7 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>374</v>
+        <v>789</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="7"/>
@@ -8682,7 +9069,7 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>375</v>
+        <v>790</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="7"/>
@@ -8724,7 +9111,7 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>388</v>
+        <v>791</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="7"/>
@@ -8766,7 +9153,7 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>376</v>
+        <v>792</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="7"/>
@@ -8808,7 +9195,7 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>793</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="7"/>
@@ -8850,7 +9237,7 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>515</v>
+        <v>794</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="7"/>
@@ -8895,7 +9282,7 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>795</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="7"/>
@@ -8937,7 +9324,7 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="7"/>
@@ -8982,7 +9369,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>796</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="7"/>
@@ -9024,7 +9411,7 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>390</v>
+        <v>797</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="7"/>
@@ -9066,7 +9453,7 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>391</v>
+        <v>798</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="7"/>
@@ -9111,7 +9498,7 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>392</v>
+        <v>799</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ref="C66:C97" si="14">TRIM(VLOOKUP(A66,English,2,FALSE))</f>
@@ -9153,7 +9540,7 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>800</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="14"/>
@@ -9195,7 +9582,7 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>396</v>
+        <v>801</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="14"/>
@@ -9240,7 +9627,7 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>397</v>
+        <v>802</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="14"/>
@@ -9285,7 +9672,7 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>803</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="14"/>
@@ -9327,7 +9714,7 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>804</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="14"/>
@@ -9369,7 +9756,7 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>395</v>
+        <v>805</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="14"/>
@@ -9414,7 +9801,7 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>394</v>
+        <v>806</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="14"/>
@@ -9456,7 +9843,7 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>393</v>
+        <v>807</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="14"/>
@@ -9498,7 +9885,7 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>366</v>
+        <v>808</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="14"/>
@@ -9540,7 +9927,7 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>809</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="14"/>
@@ -9582,7 +9969,7 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="14"/>
@@ -9624,7 +10011,7 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>594</v>
+        <v>810</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="14"/>
@@ -9669,7 +10056,7 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>811</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="14"/>
@@ -9711,7 +10098,7 @@
         <v>724</v>
       </c>
       <c r="B80" t="s">
-        <v>721</v>
+        <v>812</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="14"/>
@@ -9753,7 +10140,7 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>382</v>
+        <v>813</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="14"/>
@@ -9795,7 +10182,7 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>383</v>
+        <v>814</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="14"/>
@@ -9837,7 +10224,7 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>381</v>
+        <v>815</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="14"/>
@@ -9879,7 +10266,7 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>195</v>
+        <v>859</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="14"/>
@@ -9921,7 +10308,7 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>196</v>
+        <v>816</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="14"/>
@@ -9963,7 +10350,7 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>147</v>
+        <v>817</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="14"/>
@@ -10005,7 +10392,7 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="14"/>
@@ -10047,7 +10434,7 @@
         <v>725</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>860</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="14"/>
@@ -10089,7 +10476,7 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>818</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="14"/>
@@ -10131,7 +10518,7 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>819</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="14"/>
@@ -10173,7 +10560,7 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>398</v>
+        <v>820</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="14"/>
@@ -10218,7 +10605,7 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>400</v>
+        <v>821</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="14"/>
@@ -10263,7 +10650,7 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>399</v>
+        <v>822</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="14"/>
@@ -10305,7 +10692,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>823</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="14"/>
@@ -10347,7 +10734,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>428</v>
+        <v>824</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="14"/>
@@ -10389,7 +10776,7 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>508</v>
+        <v>825</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="14"/>
@@ -10431,7 +10818,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>401</v>
+        <v>826</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="14"/>
@@ -10473,7 +10860,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>827</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" ref="C98:C131" si="21">TRIM(VLOOKUP(A98,English,2,FALSE))</f>
@@ -10515,7 +10902,7 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>861</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="21"/>
@@ -10557,7 +10944,7 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>828</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="21"/>
@@ -10599,7 +10986,7 @@
         <v>727</v>
       </c>
       <c r="B101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="21"/>
@@ -10644,7 +11031,7 @@
         <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
+        <v>829</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="21"/>
@@ -10686,7 +11073,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>830</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="21"/>
@@ -10728,7 +11115,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>154</v>
+        <v>831</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="21"/>
@@ -10770,7 +11157,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>832</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="21"/>
@@ -10812,7 +11199,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>155</v>
+        <v>833</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="21"/>
@@ -10854,7 +11241,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>203</v>
+        <v>834</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="21"/>
@@ -10896,7 +11283,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
+        <v>835</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="21"/>
@@ -10938,7 +11325,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="21"/>
@@ -10981,7 +11368,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>402</v>
+        <v>836</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="21"/>
@@ -11023,7 +11410,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>403</v>
+        <v>837</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="21"/>
@@ -11065,7 +11452,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>838</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="21"/>
@@ -11107,7 +11494,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>404</v>
+        <v>839</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="21"/>
@@ -11152,7 +11539,7 @@
         <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>840</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="21"/>
@@ -11194,7 +11581,7 @@
         <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>405</v>
+        <v>841</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="21"/>
@@ -11236,7 +11623,7 @@
         <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>842</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="21"/>
@@ -11278,7 +11665,7 @@
         <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>843</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="21"/>
@@ -11320,7 +11707,7 @@
         <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>844</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="21"/>
@@ -11362,7 +11749,7 @@
         <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>406</v>
+        <v>845</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="21"/>
@@ -11404,7 +11791,7 @@
         <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>407</v>
+        <v>846</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="21"/>
@@ -11449,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>160</v>
+        <v>847</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="21"/>
@@ -11491,7 +11878,7 @@
         <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>408</v>
+        <v>848</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="21"/>
@@ -11533,7 +11920,7 @@
         <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>509</v>
+        <v>849</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="21"/>
@@ -11578,7 +11965,7 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>161</v>
+        <v>850</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="21"/>
@@ -11620,7 +12007,7 @@
         <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>510</v>
+        <v>851</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="21"/>
@@ -11665,7 +12052,7 @@
         <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>498</v>
+        <v>852</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="21"/>
@@ -11710,7 +12097,7 @@
         <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>409</v>
+        <v>853</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="21"/>
@@ -11755,7 +12142,7 @@
         <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="21"/>
@@ -11797,7 +12184,7 @@
         <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>854</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="21"/>
@@ -11839,7 +12226,7 @@
         <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>210</v>
+        <v>855</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="21"/>
@@ -11881,7 +12268,7 @@
         <v>730</v>
       </c>
       <c r="B131" t="s">
-        <v>410</v>
+        <v>856</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="21"/>
@@ -11926,7 +12313,7 @@
         <v>118</v>
       </c>
       <c r="B132" t="s">
-        <v>206</v>
+        <v>863</v>
       </c>
       <c r="J132" t="s">
         <v>157</v>
@@ -11942,8 +12329,8 @@
       <c r="A133" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>411</v>
+      <c r="B133" t="s">
+        <v>864</v>
       </c>
       <c r="J133" t="s">
         <v>157</v>
@@ -11959,8 +12346,8 @@
       <c r="A134" t="s">
         <v>415</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>411</v>
+      <c r="B134" t="s">
+        <v>864</v>
       </c>
       <c r="J134" t="s">
         <v>157</v>
@@ -11993,7 +12380,7 @@
       <c r="A136" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" t="s">
         <v>419</v>
       </c>
       <c r="J136" t="s">
@@ -12010,8 +12397,8 @@
       <c r="A137" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>421</v>
+      <c r="B137" t="s">
+        <v>865</v>
       </c>
       <c r="J137" t="s">
         <v>157</v>
@@ -12028,7 +12415,7 @@
         <v>422</v>
       </c>
       <c r="B138" t="s">
-        <v>423</v>
+        <v>866</v>
       </c>
       <c r="J138" t="s">
         <v>157</v>
@@ -12044,8 +12431,8 @@
       <c r="A139" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>425</v>
+      <c r="B139" t="s">
+        <v>867</v>
       </c>
       <c r="J139" t="s">
         <v>157</v>
@@ -12061,7 +12448,7 @@
       <c r="A140" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" t="s">
         <v>427</v>
       </c>
       <c r="J140" t="s">
@@ -12078,7 +12465,7 @@
       <c r="A141" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" t="s">
         <v>431</v>
       </c>
       <c r="J141" t="s">
@@ -12095,8 +12482,8 @@
       <c r="A142" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>433</v>
+      <c r="B142" t="s">
+        <v>868</v>
       </c>
       <c r="J142" t="s">
         <v>157</v>
@@ -12112,7 +12499,7 @@
       <c r="A143" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" t="s">
         <v>435</v>
       </c>
       <c r="J143" t="s">
@@ -12129,7 +12516,7 @@
       <c r="A144" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" t="s">
         <v>437</v>
       </c>
       <c r="J144" t="s">
@@ -12146,7 +12533,7 @@
       <c r="A145" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" t="s">
         <v>439</v>
       </c>
       <c r="J145" t="s">
@@ -12163,7 +12550,7 @@
       <c r="A146" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" t="s">
         <v>441</v>
       </c>
       <c r="J146" t="s">
@@ -12180,7 +12567,7 @@
       <c r="A147" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" t="s">
         <v>557</v>
       </c>
       <c r="J147" t="s">
@@ -12197,7 +12584,7 @@
       <c r="A148" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" t="s">
         <v>558</v>
       </c>
       <c r="J148" t="s">
@@ -12208,6 +12595,14 @@
       </c>
       <c r="L148">
         <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B149" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -12220,16 +12615,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -12251,7 +12646,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>741</v>
       </c>
       <c r="B2" t="s">
         <v>443</v>
@@ -12262,7 +12657,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>742</v>
       </c>
       <c r="B3" t="s">
         <v>444</v>
@@ -12273,7 +12668,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>743</v>
       </c>
       <c r="B4" t="s">
         <v>445</v>
@@ -12284,7 +12679,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>744</v>
       </c>
       <c r="B5" t="s">
         <v>446</v>
@@ -12292,7 +12687,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>745</v>
       </c>
       <c r="B6" t="s">
         <v>447</v>
@@ -12300,7 +12695,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>746</v>
       </c>
       <c r="B7" t="s">
         <v>448</v>
@@ -12308,7 +12703,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>747</v>
       </c>
       <c r="B8" t="s">
         <v>449</v>
@@ -12316,7 +12711,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>748</v>
       </c>
       <c r="B9" t="s">
         <v>450</v>
@@ -12327,7 +12722,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>862</v>
       </c>
       <c r="B10" t="s">
         <v>451</v>
@@ -12335,7 +12730,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>749</v>
       </c>
       <c r="B11" t="s">
         <v>452</v>
@@ -12343,7 +12738,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>412</v>
+        <v>750</v>
       </c>
       <c r="B12" t="s">
         <v>453</v>
@@ -12351,7 +12746,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>857</v>
       </c>
       <c r="B13" t="s">
         <v>454</v>
@@ -12359,7 +12754,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>751</v>
       </c>
       <c r="B14" t="s">
         <v>455</v>
@@ -12367,7 +12762,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>752</v>
       </c>
       <c r="B15" t="s">
         <v>456</v>
@@ -12375,7 +12770,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>753</v>
       </c>
       <c r="B16" t="s">
         <v>457</v>
@@ -12383,7 +12778,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>573</v>
@@ -12391,7 +12786,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>754</v>
       </c>
       <c r="B18" t="s">
         <v>458</v>
@@ -12402,7 +12797,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>755</v>
       </c>
       <c r="B19" t="s">
         <v>459</v>
@@ -12410,7 +12805,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>355</v>
+        <v>756</v>
       </c>
       <c r="B20" t="s">
         <v>460</v>
@@ -12418,7 +12813,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>365</v>
+        <v>757</v>
       </c>
       <c r="B21" t="s">
         <v>461</v>
@@ -12432,7 +12827,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>758</v>
       </c>
       <c r="B22" t="s">
         <v>462</v>
@@ -12440,7 +12835,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>356</v>
+        <v>759</v>
       </c>
       <c r="B23" t="s">
         <v>463</v>
@@ -12448,7 +12843,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>760</v>
       </c>
       <c r="B24" t="s">
         <v>464</v>
@@ -12456,7 +12851,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>761</v>
       </c>
       <c r="B25" t="s">
         <v>465</v>
@@ -12464,7 +12859,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>762</v>
       </c>
       <c r="B26" t="s">
         <v>466</v>
@@ -12472,7 +12867,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>357</v>
+        <v>763</v>
       </c>
       <c r="B27" t="s">
         <v>467</v>
@@ -12486,7 +12881,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>358</v>
+        <v>764</v>
       </c>
       <c r="B28" t="s">
         <v>468</v>
@@ -12494,7 +12889,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>359</v>
+        <v>765</v>
       </c>
       <c r="B29" t="s">
         <v>469</v>
@@ -12502,7 +12897,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>361</v>
+        <v>766</v>
       </c>
       <c r="B30" t="s">
         <v>470</v>
@@ -12513,7 +12908,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>858</v>
       </c>
       <c r="B31" t="s">
         <v>471</v>
@@ -12524,7 +12919,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>767</v>
       </c>
       <c r="B32" t="s">
         <v>472</v>
@@ -12535,7 +12930,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>768</v>
       </c>
       <c r="B33" t="s">
         <v>473</v>
@@ -12546,7 +12941,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>384</v>
+        <v>769</v>
       </c>
       <c r="B34" t="s">
         <v>474</v>
@@ -12554,7 +12949,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>385</v>
+        <v>770</v>
       </c>
       <c r="B35" t="s">
         <v>475</v>
@@ -12562,7 +12957,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>386</v>
+        <v>771</v>
       </c>
       <c r="B36" t="s">
         <v>476</v>
@@ -12570,7 +12965,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>772</v>
       </c>
       <c r="B37" t="s">
         <v>477</v>
@@ -12578,7 +12973,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>387</v>
+        <v>773</v>
       </c>
       <c r="B38" t="s">
         <v>478</v>
@@ -12586,7 +12981,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>774</v>
       </c>
       <c r="B39" t="s">
         <v>479</v>
@@ -12594,7 +12989,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>362</v>
+        <v>775</v>
       </c>
       <c r="B40" t="s">
         <v>480</v>
@@ -12605,7 +13000,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>776</v>
       </c>
       <c r="B41" t="s">
         <v>481</v>
@@ -12613,7 +13008,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>371</v>
+        <v>777</v>
       </c>
       <c r="B42" t="s">
         <v>482</v>
@@ -12621,7 +13016,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>483</v>
+        <v>778</v>
       </c>
       <c r="B43" t="s">
         <v>484</v>
@@ -12629,15 +13024,15 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>485</v>
+        <v>779</v>
       </c>
       <c r="B44" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>413</v>
+        <v>780</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>487</v>
@@ -12651,7 +13046,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>781</v>
       </c>
       <c r="B46" t="s">
         <v>488</v>
@@ -12659,7 +13054,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>368</v>
+        <v>782</v>
       </c>
       <c r="B47" t="s">
         <v>489</v>
@@ -12667,7 +13062,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>372</v>
+        <v>783</v>
       </c>
       <c r="B48" t="s">
         <v>490</v>
@@ -12675,7 +13070,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>784</v>
       </c>
       <c r="B49" t="s">
         <v>491</v>
@@ -12683,7 +13078,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>492</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
         <v>493</v>
@@ -12694,7 +13089,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>494</v>
+        <v>785</v>
       </c>
       <c r="B51" t="s">
         <v>495</v>
@@ -12705,7 +13100,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>786</v>
       </c>
       <c r="B52" t="s">
         <v>496</v>
@@ -12716,7 +13111,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>373</v>
+        <v>787</v>
       </c>
       <c r="B53" t="s">
         <v>497</v>
@@ -12727,7 +13122,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>788</v>
       </c>
       <c r="B54" t="s">
         <v>500</v>
@@ -12738,7 +13133,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>374</v>
+        <v>789</v>
       </c>
       <c r="B55" t="s">
         <v>502</v>
@@ -12749,7 +13144,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>375</v>
+        <v>790</v>
       </c>
       <c r="B56" t="s">
         <v>511</v>
@@ -12757,7 +13152,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>388</v>
+        <v>791</v>
       </c>
       <c r="B57" t="s">
         <v>512</v>
@@ -12765,7 +13160,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>376</v>
+        <v>792</v>
       </c>
       <c r="B58" t="s">
         <v>513</v>
@@ -12773,7 +13168,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>793</v>
       </c>
       <c r="B59" t="s">
         <v>514</v>
@@ -12784,7 +13179,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>515</v>
+        <v>794</v>
       </c>
       <c r="B60" t="s">
         <v>516</v>
@@ -12792,7 +13187,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>795</v>
       </c>
       <c r="B61" t="s">
         <v>517</v>
@@ -12800,7 +13195,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B62" t="s">
         <v>518</v>
@@ -12814,7 +13209,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>796</v>
       </c>
       <c r="B63" t="s">
         <v>519</v>
@@ -12822,7 +13217,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>390</v>
+        <v>797</v>
       </c>
       <c r="B64" t="s">
         <v>520</v>
@@ -12830,7 +13225,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>391</v>
+        <v>798</v>
       </c>
       <c r="B65" t="s">
         <v>521</v>
@@ -12841,7 +13236,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>392</v>
+        <v>799</v>
       </c>
       <c r="B66" t="s">
         <v>522</v>
@@ -12849,7 +13244,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>800</v>
       </c>
       <c r="B67" t="s">
         <v>523</v>
@@ -12857,7 +13252,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>396</v>
+        <v>801</v>
       </c>
       <c r="B68" t="s">
         <v>525</v>
@@ -12865,7 +13260,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>397</v>
+        <v>802</v>
       </c>
       <c r="B69" t="s">
         <v>526</v>
@@ -12873,7 +13268,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>803</v>
       </c>
       <c r="B70" t="s">
         <v>527</v>
@@ -12881,7 +13276,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>804</v>
       </c>
       <c r="B71" t="s">
         <v>528</v>
@@ -12889,7 +13284,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>395</v>
+        <v>805</v>
       </c>
       <c r="B72" t="s">
         <v>529</v>
@@ -12897,7 +13292,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>394</v>
+        <v>806</v>
       </c>
       <c r="B73" t="s">
         <v>530</v>
@@ -12908,7 +13303,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>393</v>
+        <v>807</v>
       </c>
       <c r="B74" t="s">
         <v>533</v>
@@ -12919,7 +13314,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>366</v>
+        <v>808</v>
       </c>
       <c r="B75" t="s">
         <v>535</v>
@@ -12930,7 +13325,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>809</v>
       </c>
       <c r="B76" t="s">
         <v>536</v>
@@ -12938,7 +13333,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
         <v>537</v>
@@ -12946,7 +13341,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>594</v>
+        <v>810</v>
       </c>
       <c r="B78" t="s">
         <v>538</v>
@@ -12954,7 +13349,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>811</v>
       </c>
       <c r="B79" t="s">
         <v>539</v>
@@ -12962,7 +13357,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>721</v>
+        <v>812</v>
       </c>
       <c r="B80" t="s">
         <v>540</v>
@@ -12973,7 +13368,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>382</v>
+        <v>813</v>
       </c>
       <c r="B81" t="s">
         <v>534</v>
@@ -12981,7 +13376,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>383</v>
+        <v>814</v>
       </c>
       <c r="B82" t="s">
         <v>541</v>
@@ -12989,7 +13384,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>381</v>
+        <v>815</v>
       </c>
       <c r="B83" t="s">
         <v>542</v>
@@ -13000,7 +13395,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>195</v>
+        <v>859</v>
       </c>
       <c r="B84" t="s">
         <v>544</v>
@@ -13008,7 +13403,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>196</v>
+        <v>816</v>
       </c>
       <c r="B85" t="s">
         <v>543</v>
@@ -13019,7 +13414,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>817</v>
       </c>
       <c r="B86" t="s">
         <v>545</v>
@@ -13027,7 +13422,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
         <v>546</v>
@@ -13035,7 +13430,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>860</v>
       </c>
       <c r="B88" t="s">
         <v>547</v>
@@ -13046,7 +13441,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>818</v>
       </c>
       <c r="B89" t="s">
         <v>548</v>
@@ -13054,7 +13449,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>819</v>
       </c>
       <c r="B90" t="s">
         <v>549</v>
@@ -13062,7 +13457,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>398</v>
+        <v>820</v>
       </c>
       <c r="B91" t="s">
         <v>550</v>
@@ -13070,7 +13465,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>400</v>
+        <v>821</v>
       </c>
       <c r="B92" t="s">
         <v>551</v>
@@ -13078,7 +13473,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>399</v>
+        <v>822</v>
       </c>
       <c r="B93" t="s">
         <v>552</v>
@@ -13089,7 +13484,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>151</v>
+        <v>823</v>
       </c>
       <c r="B94" t="s">
         <v>553</v>
@@ -13097,7 +13492,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>428</v>
+        <v>824</v>
       </c>
       <c r="B95" t="s">
         <v>554</v>
@@ -13111,7 +13506,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>508</v>
+        <v>825</v>
       </c>
       <c r="B96" t="s">
         <v>560</v>
@@ -13119,7 +13514,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>401</v>
+        <v>826</v>
       </c>
       <c r="B97" t="s">
         <v>559</v>
@@ -13127,7 +13522,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>827</v>
       </c>
       <c r="B98" t="s">
         <v>561</v>
@@ -13135,7 +13530,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>861</v>
       </c>
       <c r="B99" t="s">
         <v>562</v>
@@ -13143,7 +13538,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>828</v>
       </c>
       <c r="B100" t="s">
         <v>563</v>
@@ -13154,7 +13549,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B101" t="s">
         <v>565</v>
@@ -13171,7 +13566,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>153</v>
+        <v>829</v>
       </c>
       <c r="B102" t="s">
         <v>566</v>
@@ -13179,7 +13574,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>201</v>
+        <v>830</v>
       </c>
       <c r="B103" t="s">
         <v>596</v>
@@ -13190,7 +13585,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>154</v>
+        <v>831</v>
       </c>
       <c r="B104" t="s">
         <v>569</v>
@@ -13198,7 +13593,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>202</v>
+        <v>832</v>
       </c>
       <c r="B105" t="s">
         <v>568</v>
@@ -13209,7 +13604,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>833</v>
       </c>
       <c r="B106" t="s">
         <v>570</v>
@@ -13217,7 +13612,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>203</v>
+        <v>834</v>
       </c>
       <c r="B107" t="s">
         <v>571</v>
@@ -13225,7 +13620,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>204</v>
+        <v>835</v>
       </c>
       <c r="B108" t="s">
         <v>571</v>
@@ -13236,7 +13631,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>572</v>
@@ -13244,7 +13639,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>402</v>
+        <v>836</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>574</v>
@@ -13252,7 +13647,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>403</v>
+        <v>837</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>595</v>
@@ -13263,7 +13658,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>205</v>
+        <v>838</v>
       </c>
       <c r="B112" t="s">
         <v>575</v>
@@ -13271,7 +13666,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>404</v>
+        <v>839</v>
       </c>
       <c r="B113" t="s">
         <v>576</v>
@@ -13279,7 +13674,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>208</v>
+        <v>840</v>
       </c>
       <c r="B114" t="s">
         <v>577</v>
@@ -13290,7 +13685,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>405</v>
+        <v>841</v>
       </c>
       <c r="B115" t="s">
         <v>578</v>
@@ -13298,7 +13693,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>842</v>
       </c>
       <c r="B116" t="s">
         <v>579</v>
@@ -13306,7 +13701,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>843</v>
       </c>
       <c r="B117" t="s">
         <v>580</v>
@@ -13317,7 +13712,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>844</v>
       </c>
       <c r="B118" t="s">
         <v>581</v>
@@ -13325,7 +13720,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>406</v>
+        <v>845</v>
       </c>
       <c r="B119" t="s">
         <v>582</v>
@@ -13333,7 +13728,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>407</v>
+        <v>846</v>
       </c>
       <c r="B120" t="s">
         <v>584</v>
@@ -13341,7 +13736,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>160</v>
+        <v>847</v>
       </c>
       <c r="B121" t="s">
         <v>583</v>
@@ -13349,7 +13744,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>408</v>
+        <v>848</v>
       </c>
       <c r="B122" t="s">
         <v>585</v>
@@ -13357,7 +13752,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>509</v>
+        <v>849</v>
       </c>
       <c r="B123" t="s">
         <v>586</v>
@@ -13365,7 +13760,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>850</v>
       </c>
       <c r="B124" t="s">
         <v>587</v>
@@ -13373,7 +13768,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>510</v>
+        <v>851</v>
       </c>
       <c r="B125" t="s">
         <v>588</v>
@@ -13381,7 +13776,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>498</v>
+        <v>852</v>
       </c>
       <c r="B126" t="s">
         <v>591</v>
@@ -13395,7 +13790,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>409</v>
+        <v>853</v>
       </c>
       <c r="B127" t="s">
         <v>589</v>
@@ -13403,7 +13798,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B128" t="s">
         <v>590</v>
@@ -13411,7 +13806,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>854</v>
       </c>
       <c r="B129" t="s">
         <v>592</v>
@@ -13419,7 +13814,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>210</v>
+        <v>855</v>
       </c>
       <c r="B130" t="s">
         <v>597</v>
@@ -13430,7 +13825,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>410</v>
+        <v>856</v>
       </c>
       <c r="B131" t="s">
         <v>593</v>
@@ -13451,8 +13846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D131"/>
+    <sheetView topLeftCell="A125" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/files/GlosarioT3.xlsx
+++ b/files/GlosarioT3.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\T3Glossary\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AEA18B-D08C-4D1C-A0DA-7FBE910E91CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63222AE7-E40D-440E-B368-5AEB69DFAC29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lexicon" sheetId="5" r:id="rId1"/>
-    <sheet name="EnglishSpanish" sheetId="3" r:id="rId2"/>
-    <sheet name="Spanish" sheetId="4" r:id="rId3"/>
-    <sheet name="English" sheetId="2" r:id="rId4"/>
+    <sheet name="OrdenadoEspañol" sheetId="6" r:id="rId2"/>
+    <sheet name="EnglishSpanish" sheetId="3" r:id="rId3"/>
+    <sheet name="Spanish" sheetId="4" r:id="rId4"/>
+    <sheet name="English" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EnglishSpanish!$A$1:$L$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EnglishSpanish!$A$1:$L$146</definedName>
     <definedName name="English">English!$A$2:$E$131</definedName>
-    <definedName name="englishspanish_1" localSheetId="1">EnglishSpanish!$A$2:$B$131</definedName>
+    <definedName name="englishspanish_1" localSheetId="2">EnglishSpanish!$A$2:$B$131</definedName>
     <definedName name="englishspanish_1" localSheetId="0">Lexicon!$A$2:$B$131</definedName>
-    <definedName name="ingles" localSheetId="3">English!$A$2:$C$131</definedName>
+    <definedName name="ingles" localSheetId="4">English!$A$2:$C$131</definedName>
     <definedName name="Spanish">Spanish!$A$2:$E$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="766">
   <si>
     <t>english</t>
   </si>
@@ -482,84 +483,21 @@
     <t>Carga cognitiva.</t>
   </si>
   <si>
-    <t>Pensamiento computacional.</t>
-  </si>
-  <si>
-    <t>Mapa conceptual.</t>
-  </si>
-  <si>
-    <t>Conectivismo.</t>
-  </si>
-  <si>
-    <t>Constructivismo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS0. Introducción a las ciencias de la computación. </t>
-  </si>
-  <si>
-    <t>CS1. ciencias de la computación I.</t>
-  </si>
-  <si>
-    <t>CS2. ciencias de la computación II.</t>
-  </si>
-  <si>
     <t>Motivación extrínseca</t>
   </si>
   <si>
-    <t>Inclusión.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intuición. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cursos on-line masivos. </t>
-  </si>
-  <si>
-    <t>Modelo mental.</t>
-  </si>
-  <si>
-    <t>Metacognición.</t>
-  </si>
-  <si>
-    <t>Máquina nocional.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aprendizaje pasivo. </t>
   </si>
   <si>
-    <t>Instrucción por pares.</t>
-  </si>
-  <si>
-    <t>Aprendizaje personalizado.</t>
-  </si>
-  <si>
-    <t>Posicionamiento.</t>
-  </si>
-  <si>
-    <t>Pull request.</t>
-  </si>
-  <si>
     <t>agregada</t>
   </si>
   <si>
     <t>Memoria de corto plazo.</t>
   </si>
   <si>
-    <t>Aprendizaje situado.</t>
-  </si>
-  <si>
     <t>Evaluación sumativa.</t>
   </si>
   <si>
-    <t>Desarrollo basado en test.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutorial </t>
-  </si>
-  <si>
     <t>passive teaching.</t>
   </si>
   <si>
@@ -596,123 +534,42 @@
     <t>pedagogical content knowledge</t>
   </si>
   <si>
-    <t>Cognitivismo.</t>
-  </si>
-  <si>
     <t>Taxonomía de Bloom.</t>
   </si>
   <si>
-    <t xml:space="preserve">Marca. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co-enseñanza. </t>
-  </si>
-  <si>
-    <t>Tarea auténtica.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automaticidad. De forma automática. </t>
-  </si>
-  <si>
     <t>Principiante absoluto.</t>
   </si>
   <si>
-    <t>Aprendizaje activo.</t>
-  </si>
-  <si>
     <t>Enseñanza activa.</t>
   </si>
   <si>
-    <t>Commons.</t>
-  </si>
-  <si>
     <t>Comunidad de práctica.</t>
   </si>
   <si>
-    <t>Punto ciego del experto.</t>
-  </si>
-  <si>
-    <t>Carga extrínseca.</t>
-  </si>
-  <si>
     <t>Falso principiante.</t>
   </si>
   <si>
     <t>Taxonomía de Fink.</t>
   </si>
   <si>
-    <t>Evaluación formativa.</t>
-  </si>
-  <si>
-    <t>Carga pertinente.</t>
-  </si>
-  <si>
-    <t>Síndrome del impostor.</t>
-  </si>
-  <si>
-    <t>Jugyokenkyu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudiante tipo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programación en vivo. </t>
-  </si>
-  <si>
     <t>Memoria de largo plazo.</t>
   </si>
   <si>
-    <t>Marketing.</t>
-  </si>
-  <si>
     <t>Principiante.</t>
   </si>
   <si>
-    <t>Problemas de Parson.</t>
-  </si>
-  <si>
     <t>Enseñanza pasiva.</t>
   </si>
   <si>
-    <t>Memoria persistente.</t>
-  </si>
-  <si>
-    <t>Distractor pausible.</t>
-  </si>
-  <si>
-    <t>Privilegio preparatorio.</t>
-  </si>
-  <si>
     <t>Falla productiva.</t>
   </si>
   <si>
-    <t>Paradoja de la reusabilidad.</t>
-  </si>
-  <si>
-    <t>Grabación de pantalla.</t>
-  </si>
-  <si>
     <t>observation</t>
   </si>
   <si>
-    <t>Motor de optimización de posicionamiento en buscadores.</t>
-  </si>
-  <si>
-    <t>Efecto de atención dividida.</t>
-  </si>
-  <si>
-    <t>Memoria de trabajo.</t>
-  </si>
-  <si>
     <t>Poder de diagnóstico.</t>
   </si>
   <si>
-    <t>Efecto Dunning-Kruger.</t>
-  </si>
-  <si>
-    <t>Representación de la comunidad.</t>
-  </si>
-  <si>
     <t>seealso_en_a</t>
   </si>
   <si>
@@ -1124,84 +981,36 @@
     <t>near transfer.</t>
   </si>
   <si>
-    <t>Reingeniería.</t>
-  </si>
-  <si>
-    <t>Conductismo.</t>
-  </si>
-  <si>
-    <t>Revisión por pares calibrada.</t>
-  </si>
-  <si>
-    <t>Aprendizaje cognitivo.</t>
-  </si>
-  <si>
-    <t>Integración computacional.</t>
-  </si>
-  <si>
-    <t>Inventario de conceptos.</t>
-  </si>
-  <si>
     <t>Conocimiento del contenido</t>
   </si>
   <si>
-    <t>Contribuyendo a la pedagogía estudiantil</t>
-  </si>
-  <si>
-    <t>Programadora conversacional.</t>
-  </si>
-  <si>
     <t>revisar</t>
   </si>
   <si>
-    <t>Ciencias de la computación acústico.</t>
-  </si>
-  <si>
     <t>Psicología Educacional.</t>
   </si>
   <si>
-    <t>Agotamiento del ego.</t>
-  </si>
-  <si>
     <t>Practicantes competentes.</t>
   </si>
   <si>
-    <t>Practicante competente. Personas competentes.</t>
-  </si>
-  <si>
     <t>Motivación intrínseca.</t>
   </si>
   <si>
     <t>Expertos/as.</t>
   </si>
   <si>
-    <t>Efecto inverso de la experiencia.</t>
-  </si>
-  <si>
     <t>pedagogical_term</t>
   </si>
   <si>
     <t>in_glossary</t>
   </si>
   <si>
-    <t>Discurso de presentación.</t>
-  </si>
-  <si>
-    <t>Cognición externalizada</t>
-  </si>
-  <si>
     <t>Transferencia lejana.</t>
   </si>
   <si>
     <t>Mentalidad fija.</t>
   </si>
   <si>
-    <t>Aula invertida.</t>
-  </si>
-  <si>
-    <t>Representación fluida.</t>
-  </si>
-  <si>
     <t>Conocimiento pedagógico general</t>
   </si>
   <si>
@@ -1217,102 +1026,27 @@
     <t>Participación inicial legítima.</t>
   </si>
   <si>
-    <t>Objetivo de aprendizaje.</t>
-  </si>
-  <si>
-    <t>Resultado de aprendizaje.</t>
-  </si>
-  <si>
-    <t>Modelo deficitario.</t>
-  </si>
-  <si>
     <t>Practica deliberada.</t>
   </si>
   <si>
-    <t>Leccion de demostracion.</t>
-  </si>
-  <si>
-    <t>Instrucción directa.</t>
-  </si>
-  <si>
-    <t>Flujo.</t>
-  </si>
-  <si>
     <t>Conocimiento pedagógico general.</t>
   </si>
   <si>
-    <t>Directorio. Junta.</t>
-  </si>
-  <si>
     <t>Mentalidad de crecimiento.</t>
   </si>
   <si>
-    <t>Notas guiadas</t>
-  </si>
-  <si>
-    <t>Carga instrínseca.</t>
-  </si>
-  <si>
     <t>Diseño instruccional</t>
   </si>
   <si>
-    <t>Aprendizaje basado en la indagación</t>
-  </si>
-  <si>
-    <t>Efecto de hipercorrección</t>
-  </si>
-  <si>
-    <t>Ciencia de implementación</t>
-  </si>
-  <si>
-    <t>Manual mínimo.</t>
-  </si>
-  <si>
     <t>Transferencia cercana.</t>
   </si>
   <si>
-    <t>Tarjetas de minutos.</t>
-  </si>
-  <si>
-    <t>Programación en pareja.</t>
-  </si>
-  <si>
-    <t>Leer-cubrir-recuperar</t>
-  </si>
-  <si>
-    <t>Práctica reflexiva.</t>
-  </si>
-  <si>
     <t>Andamiaje.</t>
   </si>
   <si>
-    <t>Directorio o junta de servicio.</t>
-  </si>
-  <si>
-    <t>Amenaza del estereotipo.</t>
-  </si>
-  <si>
-    <t>Etiquetado de submetas.</t>
-  </si>
-  <si>
-    <t>Artefacto tangible</t>
-  </si>
-  <si>
-    <t>Transferencia apropiada de procesamiento</t>
-  </si>
-  <si>
     <t>Zona de Desarrollo Proximal.</t>
   </si>
   <si>
-    <t>Síndrome de desgaste ocupacional.</t>
-  </si>
-  <si>
-    <t>Particionar. Fragmentar.</t>
-  </si>
-  <si>
-    <t>Expertos/as. Personas expertas.</t>
-  </si>
-  <si>
     <t>Burnout</t>
   </si>
   <si>
@@ -1334,30 +1068,18 @@
     <t>Free-range teachers</t>
   </si>
   <si>
-    <t>Docentes de rango libre.</t>
-  </si>
-  <si>
     <t>Expertise</t>
   </si>
   <si>
-    <t>Habilidad. Pericia. Conocimiento.</t>
-  </si>
-  <si>
     <t>Feedback</t>
   </si>
   <si>
-    <t>Devolución. Retroalimentación.</t>
-  </si>
-  <si>
     <t>Loop</t>
   </si>
   <si>
     <t>Bucle</t>
   </si>
   <si>
-    <t>Novata/o. Persona novata. Principiante.</t>
-  </si>
-  <si>
     <t>Experta/o.</t>
   </si>
   <si>
@@ -1370,9 +1092,6 @@
     <t>Novice-competent-expert model of skill development</t>
   </si>
   <si>
-    <t>Modelo de desarrollo de habilidades</t>
-  </si>
-  <si>
     <t>Path</t>
   </si>
   <si>
@@ -1520,15 +1239,9 @@
     <t>Una breve descripción de una idea, proyecto, producto o persona que se puede dar y comprender en solo unos segundos.</t>
   </si>
   <si>
-    <t>Usuario final programador.</t>
-  </si>
-  <si>
     <t>Alguien que no se considera un programador, pero que, sin embargo, escribe y depura software, como por ejemplo, un artista que crea macros complejas para una herramienta de dibujo</t>
   </si>
   <si>
-    <t>Usuario final docente.</t>
-  </si>
-  <si>
     <t>Por analogía con usuario final programador, alguien que enseña con frecuencia, pero cuya ocupación principal no es la enseñanza, que tiene poca o ninguna experiencia en pedagogía y que puede trabajar fuera de las aulas institucionales.</t>
   </si>
   <si>
@@ -1547,15 +1260,9 @@
     <t>Cualquier carga cognitiva que distrae del aprendizaje.</t>
   </si>
   <si>
-    <t>Motivación extrínseca.</t>
-  </si>
-  <si>
     <t>Ser impulsado por recompensas externas como el pago o el miedo al castigo.</t>
   </si>
   <si>
-    <t>Ejemplos desvanecidos.</t>
-  </si>
-  <si>
     <t>Una serie de ejemplos en los que se borra un número cada vez mayor de pasos clave.</t>
   </si>
   <si>
@@ -1595,15 +1302,6 @@
     <t>Someone learning outside an institutional classroom with required homework and mandated curriculum. (Those who use the term occasionally refer to learners in classrooms as "battery-farmed learners" but we don't because that would be rude.)</t>
   </si>
   <si>
-    <t>Primero los objetos.</t>
-  </si>
-  <si>
-    <t>Enseñando para el exámen.</t>
-  </si>
-  <si>
-    <t>Piensa-trabaja en pareja-comparte.</t>
-  </si>
-  <si>
     <t>Una clase en la que los alumnos ven lecciones grabadas en su propio tiempo, mientras que el tiempo de clase se utiliza para resolver conjuntos de problemas y responder preguntas.</t>
   </si>
   <si>
@@ -1614,9 +1312,6 @@
   </si>
   <si>
     <t>Evaluación que se lleva a cabo durante una clase para dar retroalimentación tanto al alumno como al profesor sobre la comprensión real</t>
-  </si>
-  <si>
-    <t>Estudiante free-range. Estudiante de rango libre.</t>
   </si>
   <si>
     <t>Alguien que aprende fuera de un aula institucional con un plan de estudios y tareas obligatorias. (Quienes usan este término, ocasionalmente se refieren a los estudiantes en las aulas como "estudiantes battery-farmed", pero nosotros no lo hacemos porque sería grosero).</t>
@@ -1854,9 +1549,6 @@
     <t>Incluye el conjunto de problemas que las personas aún no pueden resolver por sí mismas pero que pueden resolver con la ayuda de un mentor más experimentado.</t>
   </si>
   <si>
-    <t>Impotencia aprendida.</t>
-  </si>
-  <si>
     <t>Ver práctica deliberada.</t>
   </si>
   <si>
@@ -2235,9 +1927,6 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>Sistema de gestión de aprendizaje.</t>
-  </si>
-  <si>
     <t>LMS</t>
   </si>
   <si>
@@ -2268,12 +1957,6 @@
     <t>CS</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
     <t>term_en</t>
   </si>
   <si>
@@ -2680,6 +2363,12 @@
   </si>
   <si>
     <t>Devolución</t>
+  </si>
+  <si>
+    <t>def_en</t>
+  </si>
+  <si>
+    <t>def_es</t>
   </si>
 </sst>
 </file>
@@ -3086,10 +2775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990111A-369A-41E8-8C22-1342FD4CCC65}">
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3098,41 +2787,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>733</v>
+      <c r="A1" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>629</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>737</v>
+        <v>631</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>736</v>
+        <v>630</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>735</v>
+        <v>765</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>738</v>
+        <v>632</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>739</v>
+        <v>633</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>720</v>
+        <v>617</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3140,19 +2829,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>635</v>
       </c>
       <c r="C2" t="s">
-        <v>598</v>
+        <v>495</v>
       </c>
       <c r="F2" t="s">
-        <v>443</v>
+        <v>349</v>
       </c>
       <c r="G2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3166,22 +2855,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>636</v>
       </c>
       <c r="C3" t="s">
-        <v>599</v>
+        <v>496</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="F3" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I3" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3195,22 +2884,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>637</v>
       </c>
       <c r="C4" t="s">
-        <v>600</v>
+        <v>497</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>445</v>
+        <v>351</v>
       </c>
       <c r="G4" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3224,16 +2913,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>638</v>
       </c>
       <c r="C5" t="s">
-        <v>601</v>
+        <v>498</v>
       </c>
       <c r="F5" t="s">
-        <v>446</v>
+        <v>352</v>
       </c>
       <c r="I5" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3247,16 +2936,16 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>639</v>
       </c>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>499</v>
       </c>
       <c r="F6" t="s">
-        <v>447</v>
+        <v>353</v>
       </c>
       <c r="I6" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3270,16 +2959,16 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>640</v>
       </c>
       <c r="C7" t="s">
-        <v>603</v>
+        <v>500</v>
       </c>
       <c r="F7" t="s">
-        <v>448</v>
+        <v>354</v>
       </c>
       <c r="I7" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3293,19 +2982,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>641</v>
       </c>
       <c r="C8" t="s">
-        <v>604</v>
+        <v>501</v>
       </c>
       <c r="D8" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
-        <v>449</v>
+        <v>355</v>
       </c>
       <c r="I8" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3319,22 +3008,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>642</v>
       </c>
       <c r="C9" t="s">
-        <v>605</v>
+        <v>502</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>450</v>
+        <v>356</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3348,16 +3037,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>756</v>
       </c>
       <c r="C10" t="s">
-        <v>606</v>
+        <v>503</v>
       </c>
       <c r="F10" t="s">
-        <v>451</v>
+        <v>357</v>
       </c>
       <c r="I10" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3371,16 +3060,16 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>353</v>
+        <v>643</v>
       </c>
       <c r="C11" t="s">
-        <v>607</v>
+        <v>504</v>
       </c>
       <c r="F11" t="s">
-        <v>452</v>
+        <v>358</v>
       </c>
       <c r="I11" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -3394,16 +3083,16 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>644</v>
       </c>
       <c r="C12" t="s">
-        <v>608</v>
+        <v>505</v>
       </c>
       <c r="F12" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="I12" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -3417,16 +3106,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>751</v>
       </c>
       <c r="C13" t="s">
-        <v>609</v>
+        <v>506</v>
       </c>
       <c r="F13" t="s">
-        <v>454</v>
+        <v>360</v>
       </c>
       <c r="I13" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -3440,16 +3129,16 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>645</v>
       </c>
       <c r="C14" t="s">
-        <v>610</v>
+        <v>507</v>
       </c>
       <c r="F14" t="s">
-        <v>455</v>
+        <v>361</v>
       </c>
       <c r="I14" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3463,16 +3152,16 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>646</v>
       </c>
       <c r="C15" t="s">
-        <v>611</v>
+        <v>508</v>
       </c>
       <c r="F15" t="s">
-        <v>456</v>
+        <v>362</v>
       </c>
       <c r="I15" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3486,19 +3175,19 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>647</v>
       </c>
       <c r="C16" t="s">
-        <v>612</v>
+        <v>509</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>457</v>
+        <v>363</v>
       </c>
       <c r="I16" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -3512,16 +3201,16 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>613</v>
+        <v>510</v>
       </c>
       <c r="F17" t="s">
-        <v>573</v>
+        <v>471</v>
       </c>
       <c r="I17" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3535,22 +3224,22 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>648</v>
       </c>
       <c r="C18" t="s">
-        <v>614</v>
+        <v>511</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>458</v>
+        <v>364</v>
       </c>
       <c r="G18" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="I18" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -3564,16 +3253,16 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>649</v>
       </c>
       <c r="C19" t="s">
-        <v>615</v>
+        <v>512</v>
       </c>
       <c r="F19" t="s">
-        <v>459</v>
+        <v>365</v>
       </c>
       <c r="I19" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -3587,16 +3276,16 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>355</v>
+        <v>650</v>
       </c>
       <c r="C20" t="s">
-        <v>616</v>
+        <v>513</v>
       </c>
       <c r="F20" t="s">
-        <v>460</v>
+        <v>366</v>
       </c>
       <c r="I20" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3610,28 +3299,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>365</v>
+        <v>651</v>
       </c>
       <c r="C21" t="s">
-        <v>617</v>
+        <v>514</v>
       </c>
       <c r="D21" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="E21" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="F21" t="s">
-        <v>461</v>
+        <v>367</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="H21" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="I21" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -3645,16 +3334,16 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>652</v>
       </c>
       <c r="C22" t="s">
-        <v>618</v>
+        <v>515</v>
       </c>
       <c r="F22" t="s">
-        <v>462</v>
+        <v>368</v>
       </c>
       <c r="I22" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3668,16 +3357,16 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>653</v>
       </c>
       <c r="C23" t="s">
-        <v>619</v>
+        <v>516</v>
       </c>
       <c r="F23" t="s">
-        <v>463</v>
+        <v>369</v>
       </c>
       <c r="I23" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -3691,16 +3380,16 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>654</v>
       </c>
       <c r="C24" t="s">
-        <v>620</v>
+        <v>517</v>
       </c>
       <c r="F24" t="s">
-        <v>464</v>
+        <v>370</v>
       </c>
       <c r="I24" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -3714,16 +3403,16 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>655</v>
       </c>
       <c r="C25" t="s">
-        <v>621</v>
+        <v>518</v>
       </c>
       <c r="F25" t="s">
-        <v>465</v>
+        <v>371</v>
       </c>
       <c r="I25" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3737,16 +3426,16 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>656</v>
       </c>
       <c r="C26" t="s">
-        <v>622</v>
+        <v>519</v>
       </c>
       <c r="F26" t="s">
-        <v>466</v>
+        <v>372</v>
       </c>
       <c r="I26" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3760,28 +3449,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>357</v>
+        <v>657</v>
       </c>
       <c r="C27" t="s">
-        <v>623</v>
+        <v>520</v>
       </c>
       <c r="D27" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
-        <v>467</v>
+        <v>373</v>
       </c>
       <c r="G27" t="s">
-        <v>389</v>
+        <v>319</v>
       </c>
       <c r="H27" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="I27" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3795,19 +3484,19 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>358</v>
+        <v>658</v>
       </c>
       <c r="C28" t="s">
-        <v>624</v>
+        <v>521</v>
       </c>
       <c r="F28" t="s">
-        <v>468</v>
+        <v>374</v>
       </c>
       <c r="I28" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J28" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3821,16 +3510,16 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>359</v>
+        <v>659</v>
       </c>
       <c r="C29" t="s">
-        <v>625</v>
+        <v>522</v>
       </c>
       <c r="F29" t="s">
-        <v>469</v>
+        <v>375</v>
       </c>
       <c r="I29" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3844,19 +3533,19 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>361</v>
+        <v>660</v>
       </c>
       <c r="C30" t="s">
-        <v>626</v>
+        <v>523</v>
       </c>
       <c r="F30" t="s">
-        <v>470</v>
+        <v>376</v>
       </c>
       <c r="I30" t="s">
-        <v>731</v>
+        <v>627</v>
       </c>
       <c r="J30" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3870,13 +3559,13 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>752</v>
       </c>
       <c r="C31" t="s">
-        <v>627</v>
+        <v>524</v>
       </c>
       <c r="F31" t="s">
-        <v>471</v>
+        <v>377</v>
       </c>
       <c r="I31" t="s">
         <v>38</v>
@@ -3893,13 +3582,13 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>661</v>
       </c>
       <c r="C32" t="s">
-        <v>628</v>
+        <v>525</v>
       </c>
       <c r="F32" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
       <c r="I32" t="s">
         <v>39</v>
@@ -3916,13 +3605,13 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>662</v>
       </c>
       <c r="C33" t="s">
-        <v>629</v>
+        <v>526</v>
       </c>
       <c r="F33" t="s">
-        <v>473</v>
+        <v>379</v>
       </c>
       <c r="I33" t="s">
         <v>40</v>
@@ -3939,16 +3628,16 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>384</v>
+        <v>663</v>
       </c>
       <c r="C34" t="s">
-        <v>630</v>
+        <v>527</v>
       </c>
       <c r="F34" t="s">
-        <v>474</v>
+        <v>380</v>
       </c>
       <c r="I34" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3962,16 +3651,16 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>385</v>
+        <v>664</v>
       </c>
       <c r="C35" t="s">
-        <v>631</v>
+        <v>528</v>
       </c>
       <c r="F35" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="I35" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3985,16 +3674,16 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>386</v>
+        <v>665</v>
       </c>
       <c r="C36" t="s">
-        <v>632</v>
+        <v>529</v>
       </c>
       <c r="F36" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
       <c r="I36" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -4008,16 +3697,16 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
+        <v>666</v>
       </c>
       <c r="C37" t="s">
-        <v>633</v>
+        <v>530</v>
       </c>
       <c r="F37" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
       <c r="I37" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4031,16 +3720,16 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>387</v>
+        <v>667</v>
       </c>
       <c r="C38" t="s">
+        <v>531</v>
+      </c>
+      <c r="F38" t="s">
+        <v>384</v>
+      </c>
+      <c r="I38" t="s">
         <v>634</v>
-      </c>
-      <c r="F38" t="s">
-        <v>478</v>
-      </c>
-      <c r="I38" t="s">
-        <v>740</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4054,16 +3743,16 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>668</v>
       </c>
       <c r="C39" t="s">
-        <v>635</v>
+        <v>532</v>
       </c>
       <c r="F39" t="s">
-        <v>479</v>
+        <v>385</v>
       </c>
       <c r="I39" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4077,22 +3766,22 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>362</v>
+        <v>669</v>
       </c>
       <c r="C40" t="s">
-        <v>636</v>
+        <v>533</v>
       </c>
       <c r="D40" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="F40" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
       <c r="G40" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="I40" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4106,16 +3795,16 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>363</v>
+        <v>670</v>
       </c>
       <c r="C41" t="s">
-        <v>637</v>
+        <v>534</v>
       </c>
       <c r="F41" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
       <c r="I41" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4129,16 +3818,16 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="C42" t="s">
-        <v>638</v>
+        <v>535</v>
       </c>
       <c r="F42" t="s">
-        <v>482</v>
+        <v>388</v>
       </c>
       <c r="I42" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4152,16 +3841,16 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>483</v>
+        <v>672</v>
       </c>
       <c r="C43" t="s">
-        <v>639</v>
+        <v>536</v>
       </c>
       <c r="F43" t="s">
-        <v>484</v>
+        <v>389</v>
       </c>
       <c r="I43" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4175,16 +3864,16 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>485</v>
+        <v>673</v>
       </c>
       <c r="C44" t="s">
-        <v>640</v>
+        <v>537</v>
       </c>
       <c r="F44" t="s">
-        <v>486</v>
+        <v>390</v>
       </c>
       <c r="I44" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4198,28 +3887,28 @@
         <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>413</v>
+        <v>674</v>
       </c>
       <c r="C45" t="s">
-        <v>641</v>
+        <v>538</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F45" t="s">
-        <v>487</v>
+        <v>391</v>
       </c>
       <c r="G45" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="H45" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="I45" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4233,16 +3922,16 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>675</v>
       </c>
       <c r="C46" t="s">
-        <v>642</v>
+        <v>539</v>
       </c>
       <c r="F46" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="I46" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4256,19 +3945,19 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>676</v>
       </c>
       <c r="C47" t="s">
-        <v>643</v>
+        <v>540</v>
       </c>
       <c r="F47" t="s">
-        <v>489</v>
+        <v>393</v>
       </c>
       <c r="I47" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J47" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4282,19 +3971,19 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>372</v>
+        <v>677</v>
       </c>
       <c r="C48" t="s">
-        <v>644</v>
+        <v>541</v>
       </c>
       <c r="F48" t="s">
-        <v>490</v>
+        <v>394</v>
       </c>
       <c r="I48" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J48" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -4308,16 +3997,16 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>678</v>
       </c>
       <c r="C49" t="s">
-        <v>645</v>
+        <v>542</v>
       </c>
       <c r="F49" t="s">
-        <v>491</v>
+        <v>395</v>
       </c>
       <c r="I49" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -4331,22 +4020,22 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>492</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>646</v>
+        <v>543</v>
       </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F50" t="s">
-        <v>493</v>
+        <v>396</v>
       </c>
       <c r="G50" t="s">
-        <v>366</v>
+        <v>307</v>
       </c>
       <c r="I50" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -4360,25 +4049,25 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>494</v>
+        <v>679</v>
       </c>
       <c r="C51" t="s">
-        <v>647</v>
+        <v>544</v>
       </c>
       <c r="D51" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="F51" t="s">
-        <v>495</v>
+        <v>397</v>
       </c>
       <c r="G51" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="I51" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J51" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -4392,19 +4081,19 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>680</v>
       </c>
       <c r="C52" t="s">
-        <v>648</v>
+        <v>545</v>
       </c>
       <c r="F52" t="s">
-        <v>496</v>
+        <v>398</v>
       </c>
       <c r="G52" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="I52" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -4418,22 +4107,22 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>373</v>
+        <v>681</v>
       </c>
       <c r="C53" t="s">
-        <v>649</v>
+        <v>546</v>
       </c>
       <c r="F53" t="s">
-        <v>497</v>
+        <v>399</v>
       </c>
       <c r="G53" t="s">
-        <v>498</v>
+        <v>400</v>
       </c>
       <c r="I53" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J53" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -4447,22 +4136,22 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>682</v>
       </c>
       <c r="C54" t="s">
-        <v>499</v>
+        <v>401</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F54" t="s">
-        <v>500</v>
+        <v>402</v>
       </c>
       <c r="G54" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="I54" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -4476,22 +4165,22 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>374</v>
+        <v>683</v>
       </c>
       <c r="C55" t="s">
-        <v>501</v>
+        <v>403</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>502</v>
+        <v>404</v>
       </c>
       <c r="G55" t="s">
-        <v>391</v>
+        <v>320</v>
       </c>
       <c r="I55" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -4505,16 +4194,16 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>375</v>
+        <v>684</v>
       </c>
       <c r="C56" t="s">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="F56" t="s">
-        <v>511</v>
+        <v>410</v>
       </c>
       <c r="I56" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -4528,16 +4217,16 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>388</v>
+        <v>685</v>
       </c>
       <c r="C57" t="s">
-        <v>504</v>
+        <v>406</v>
       </c>
       <c r="F57" t="s">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="I57" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -4551,16 +4240,16 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>376</v>
+        <v>686</v>
       </c>
       <c r="C58" t="s">
-        <v>506</v>
+        <v>408</v>
       </c>
       <c r="F58" t="s">
-        <v>513</v>
+        <v>412</v>
       </c>
       <c r="I58" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -4574,22 +4263,22 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>687</v>
       </c>
       <c r="C59" t="s">
-        <v>505</v>
+        <v>407</v>
       </c>
       <c r="D59" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="F59" t="s">
-        <v>514</v>
+        <v>413</v>
       </c>
       <c r="G59" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="I59" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -4603,19 +4292,19 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>515</v>
+        <v>688</v>
       </c>
       <c r="C60" t="s">
-        <v>507</v>
+        <v>409</v>
       </c>
       <c r="F60" t="s">
-        <v>516</v>
+        <v>414</v>
       </c>
       <c r="I60" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J60" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -4629,16 +4318,16 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>689</v>
       </c>
       <c r="C61" t="s">
-        <v>650</v>
+        <v>547</v>
       </c>
       <c r="F61" t="s">
-        <v>517</v>
+        <v>415</v>
       </c>
       <c r="I61" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -4652,31 +4341,31 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>389</v>
+        <v>313</v>
       </c>
       <c r="C62" t="s">
-        <v>651</v>
+        <v>548</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="F62" t="s">
-        <v>518</v>
+        <v>416</v>
       </c>
       <c r="G62" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="H62" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="I62" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J62" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -4690,16 +4379,16 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>690</v>
       </c>
       <c r="C63" t="s">
-        <v>652</v>
+        <v>549</v>
       </c>
       <c r="F63" t="s">
-        <v>519</v>
+        <v>417</v>
       </c>
       <c r="I63" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -4713,16 +4402,16 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>390</v>
+        <v>691</v>
       </c>
       <c r="C64" t="s">
-        <v>653</v>
+        <v>550</v>
       </c>
       <c r="F64" t="s">
-        <v>520</v>
+        <v>418</v>
       </c>
       <c r="I64" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4736,25 +4425,25 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>391</v>
+        <v>692</v>
       </c>
       <c r="C65" t="s">
-        <v>654</v>
+        <v>551</v>
       </c>
       <c r="D65" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="F65" t="s">
-        <v>521</v>
+        <v>419</v>
       </c>
       <c r="G65" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="I65" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J65" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -4768,16 +4457,16 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>392</v>
+        <v>693</v>
       </c>
       <c r="C66" t="s">
-        <v>655</v>
+        <v>552</v>
       </c>
       <c r="F66" t="s">
-        <v>522</v>
+        <v>420</v>
       </c>
       <c r="I66" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -4791,16 +4480,16 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>694</v>
       </c>
       <c r="C67" t="s">
-        <v>656</v>
+        <v>553</v>
       </c>
       <c r="F67" t="s">
-        <v>523</v>
+        <v>421</v>
       </c>
       <c r="I67" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4814,19 +4503,19 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>396</v>
+        <v>695</v>
       </c>
       <c r="C68" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="F68" t="s">
-        <v>525</v>
+        <v>423</v>
       </c>
       <c r="I68" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J68" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -4840,19 +4529,19 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>397</v>
+        <v>696</v>
       </c>
       <c r="C69" t="s">
-        <v>657</v>
+        <v>554</v>
       </c>
       <c r="F69" t="s">
-        <v>526</v>
+        <v>424</v>
       </c>
       <c r="I69" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J69" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -4866,16 +4555,16 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>697</v>
       </c>
       <c r="C70" t="s">
-        <v>658</v>
+        <v>555</v>
       </c>
       <c r="F70" t="s">
-        <v>527</v>
+        <v>425</v>
       </c>
       <c r="I70" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -4889,16 +4578,16 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>698</v>
       </c>
       <c r="C71" t="s">
-        <v>659</v>
+        <v>556</v>
       </c>
       <c r="F71" t="s">
-        <v>528</v>
+        <v>426</v>
       </c>
       <c r="I71" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -4912,19 +4601,19 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>395</v>
+        <v>699</v>
       </c>
       <c r="C72" t="s">
-        <v>660</v>
+        <v>557</v>
       </c>
       <c r="F72" t="s">
-        <v>529</v>
+        <v>427</v>
       </c>
       <c r="I72" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J72" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -4938,22 +4627,22 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>394</v>
+        <v>700</v>
       </c>
       <c r="C73" t="s">
-        <v>661</v>
+        <v>558</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="F73" t="s">
-        <v>530</v>
+        <v>428</v>
       </c>
       <c r="G73" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="I73" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -4967,22 +4656,22 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>393</v>
+        <v>701</v>
       </c>
       <c r="C74" t="s">
-        <v>662</v>
+        <v>559</v>
       </c>
       <c r="D74" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="F74" t="s">
-        <v>533</v>
+        <v>431</v>
       </c>
       <c r="G74" t="s">
         <v>136</v>
       </c>
       <c r="I74" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -4996,22 +4685,22 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>366</v>
+        <v>702</v>
       </c>
       <c r="C75" t="s">
-        <v>663</v>
+        <v>560</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>535</v>
+        <v>433</v>
       </c>
       <c r="G75" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I75" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -5025,16 +4714,16 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>703</v>
       </c>
       <c r="C76" t="s">
-        <v>664</v>
+        <v>561</v>
       </c>
       <c r="F76" t="s">
-        <v>536</v>
+        <v>434</v>
       </c>
       <c r="I76" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -5048,16 +4737,16 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>665</v>
+        <v>562</v>
       </c>
       <c r="F77" t="s">
-        <v>537</v>
+        <v>435</v>
       </c>
       <c r="I77" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -5071,19 +4760,19 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>594</v>
+        <v>704</v>
       </c>
       <c r="C78" t="s">
-        <v>666</v>
+        <v>563</v>
       </c>
       <c r="F78" t="s">
-        <v>538</v>
+        <v>436</v>
       </c>
       <c r="I78" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J78" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -5097,16 +4786,16 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>705</v>
       </c>
       <c r="C79" t="s">
-        <v>667</v>
+        <v>564</v>
       </c>
       <c r="F79" t="s">
-        <v>539</v>
+        <v>437</v>
       </c>
       <c r="I79" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -5117,19 +4806,19 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>724</v>
+        <v>620</v>
       </c>
       <c r="B80" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="C80" t="s">
-        <v>668</v>
+        <v>565</v>
       </c>
       <c r="F80" t="s">
-        <v>540</v>
+        <v>438</v>
       </c>
       <c r="I80" t="s">
-        <v>722</v>
+        <v>618</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -5143,16 +4832,16 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>382</v>
+        <v>707</v>
       </c>
       <c r="C81" t="s">
-        <v>669</v>
+        <v>566</v>
       </c>
       <c r="F81" t="s">
-        <v>534</v>
+        <v>432</v>
       </c>
       <c r="I81" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -5166,16 +4855,16 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>383</v>
+        <v>708</v>
       </c>
       <c r="C82" t="s">
-        <v>670</v>
+        <v>567</v>
       </c>
       <c r="F82" t="s">
-        <v>541</v>
+        <v>439</v>
       </c>
       <c r="I82" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -5189,19 +4878,19 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>381</v>
+        <v>709</v>
       </c>
       <c r="C83" t="s">
-        <v>671</v>
+        <v>568</v>
       </c>
       <c r="F83" t="s">
-        <v>542</v>
+        <v>440</v>
       </c>
       <c r="G83" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="I83" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -5215,16 +4904,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>195</v>
+        <v>753</v>
       </c>
       <c r="C84" t="s">
-        <v>672</v>
+        <v>569</v>
       </c>
       <c r="F84" t="s">
-        <v>544</v>
+        <v>442</v>
       </c>
       <c r="I84" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5238,22 +4927,22 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>196</v>
+        <v>710</v>
       </c>
       <c r="C85" t="s">
-        <v>673</v>
+        <v>570</v>
       </c>
       <c r="D85" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="F85" t="s">
-        <v>543</v>
+        <v>441</v>
       </c>
       <c r="G85" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="I85" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5267,16 +4956,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>147</v>
+        <v>711</v>
       </c>
       <c r="C86" t="s">
-        <v>674</v>
+        <v>571</v>
       </c>
       <c r="F86" t="s">
-        <v>545</v>
+        <v>443</v>
       </c>
       <c r="I86" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -5290,16 +4979,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>675</v>
+        <v>572</v>
       </c>
       <c r="F87" t="s">
-        <v>546</v>
+        <v>444</v>
       </c>
       <c r="I87" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -5310,19 +4999,19 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>725</v>
+        <v>621</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>754</v>
       </c>
       <c r="C88" t="s">
-        <v>676</v>
+        <v>573</v>
       </c>
       <c r="F88" t="s">
-        <v>547</v>
+        <v>445</v>
       </c>
       <c r="I88" t="s">
-        <v>726</v>
+        <v>622</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -5336,16 +5025,16 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>712</v>
       </c>
       <c r="C89" t="s">
-        <v>677</v>
+        <v>574</v>
       </c>
       <c r="F89" t="s">
-        <v>548</v>
+        <v>446</v>
       </c>
       <c r="I89" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -5359,16 +5048,16 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>713</v>
       </c>
       <c r="C90" t="s">
-        <v>678</v>
+        <v>575</v>
       </c>
       <c r="F90" t="s">
-        <v>549</v>
+        <v>447</v>
       </c>
       <c r="I90" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -5382,19 +5071,19 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>398</v>
+        <v>714</v>
       </c>
       <c r="C91" t="s">
-        <v>679</v>
+        <v>576</v>
       </c>
       <c r="F91" t="s">
-        <v>550</v>
+        <v>448</v>
       </c>
       <c r="I91" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J91" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -5408,19 +5097,19 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>400</v>
+        <v>715</v>
       </c>
       <c r="C92" t="s">
-        <v>680</v>
+        <v>577</v>
       </c>
       <c r="F92" t="s">
-        <v>551</v>
+        <v>449</v>
       </c>
       <c r="I92" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J92" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -5434,19 +5123,19 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>399</v>
+        <v>716</v>
       </c>
       <c r="C93" t="s">
-        <v>681</v>
+        <v>578</v>
       </c>
       <c r="F93" t="s">
-        <v>552</v>
+        <v>450</v>
       </c>
       <c r="G93" t="s">
-        <v>498</v>
+        <v>400</v>
       </c>
       <c r="I93" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -5460,16 +5149,16 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>717</v>
       </c>
       <c r="C94" t="s">
-        <v>682</v>
+        <v>579</v>
       </c>
       <c r="F94" t="s">
-        <v>553</v>
+        <v>451</v>
       </c>
       <c r="I94" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -5483,28 +5172,28 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>428</v>
+        <v>718</v>
       </c>
       <c r="C95" t="s">
-        <v>683</v>
+        <v>580</v>
       </c>
       <c r="D95" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="E95" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="F95" t="s">
-        <v>554</v>
+        <v>452</v>
       </c>
       <c r="G95" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="H95" t="s">
-        <v>429</v>
+        <v>336</v>
       </c>
       <c r="I95" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -5518,16 +5207,16 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>508</v>
+        <v>719</v>
       </c>
       <c r="C96" t="s">
-        <v>684</v>
+        <v>581</v>
       </c>
       <c r="F96" t="s">
-        <v>560</v>
+        <v>458</v>
       </c>
       <c r="I96" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -5541,16 +5230,16 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>401</v>
+        <v>720</v>
       </c>
       <c r="C97" t="s">
-        <v>685</v>
+        <v>582</v>
       </c>
       <c r="F97" t="s">
-        <v>559</v>
+        <v>457</v>
       </c>
       <c r="I97" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -5564,16 +5253,16 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>721</v>
       </c>
       <c r="C98" t="s">
-        <v>686</v>
+        <v>583</v>
       </c>
       <c r="F98" t="s">
-        <v>561</v>
+        <v>459</v>
       </c>
       <c r="I98" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -5587,16 +5276,16 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>755</v>
       </c>
       <c r="C99" t="s">
-        <v>687</v>
+        <v>584</v>
       </c>
       <c r="F99" t="s">
-        <v>562</v>
+        <v>460</v>
       </c>
       <c r="I99" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -5610,22 +5299,22 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>722</v>
       </c>
       <c r="C100" t="s">
-        <v>688</v>
+        <v>585</v>
       </c>
       <c r="D100" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F100" t="s">
-        <v>563</v>
+        <v>461</v>
       </c>
       <c r="G100" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="I100" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -5636,34 +5325,34 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>727</v>
+        <v>623</v>
       </c>
       <c r="B101" t="s">
-        <v>380</v>
+        <v>315</v>
       </c>
       <c r="C101" t="s">
-        <v>689</v>
+        <v>586</v>
       </c>
       <c r="D101" t="s">
         <v>6</v>
       </c>
       <c r="E101" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="F101" t="s">
-        <v>565</v>
+        <v>463</v>
       </c>
       <c r="G101" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="H101" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="I101" t="s">
-        <v>728</v>
+        <v>624</v>
       </c>
       <c r="J101" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -5677,16 +5366,16 @@
         <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
+        <v>723</v>
       </c>
       <c r="C102" t="s">
-        <v>690</v>
+        <v>587</v>
       </c>
       <c r="F102" t="s">
-        <v>566</v>
+        <v>464</v>
       </c>
       <c r="I102" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -5700,22 +5389,22 @@
         <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>724</v>
       </c>
       <c r="C103" t="s">
-        <v>691</v>
+        <v>588</v>
       </c>
       <c r="D103" t="s">
-        <v>567</v>
+        <v>465</v>
       </c>
       <c r="F103" t="s">
-        <v>596</v>
+        <v>493</v>
       </c>
       <c r="G103" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="I103" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -5729,16 +5418,16 @@
         <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>154</v>
+        <v>725</v>
       </c>
       <c r="C104" t="s">
-        <v>692</v>
+        <v>589</v>
       </c>
       <c r="F104" t="s">
-        <v>569</v>
+        <v>467</v>
       </c>
       <c r="I104" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -5752,22 +5441,22 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>726</v>
       </c>
       <c r="C105" t="s">
-        <v>693</v>
+        <v>590</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>568</v>
+        <v>466</v>
       </c>
       <c r="G105" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="I105" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -5781,16 +5470,16 @@
         <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>155</v>
+        <v>727</v>
       </c>
       <c r="C106" t="s">
-        <v>694</v>
+        <v>591</v>
       </c>
       <c r="F106" t="s">
-        <v>570</v>
+        <v>468</v>
       </c>
       <c r="I106" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -5804,16 +5493,16 @@
         <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>203</v>
+        <v>728</v>
       </c>
       <c r="C107" t="s">
-        <v>695</v>
+        <v>592</v>
       </c>
       <c r="F107" t="s">
-        <v>571</v>
+        <v>469</v>
       </c>
       <c r="I107" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -5827,22 +5516,22 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
+        <v>729</v>
       </c>
       <c r="C108" t="s">
-        <v>696</v>
+        <v>593</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F108" t="s">
-        <v>571</v>
+        <v>469</v>
       </c>
       <c r="G108" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="I108" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -5856,16 +5545,16 @@
         <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>697</v>
+        <v>594</v>
       </c>
       <c r="F109" t="s">
-        <v>572</v>
+        <v>470</v>
       </c>
       <c r="I109" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -5879,16 +5568,16 @@
         <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>402</v>
+        <v>730</v>
       </c>
       <c r="C110" t="s">
-        <v>698</v>
+        <v>595</v>
       </c>
       <c r="F110" t="s">
-        <v>574</v>
+        <v>472</v>
       </c>
       <c r="I110" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -5902,19 +5591,19 @@
         <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>403</v>
+        <v>731</v>
       </c>
       <c r="C111" t="s">
-        <v>699</v>
+        <v>596</v>
       </c>
       <c r="F111" t="s">
-        <v>595</v>
+        <v>492</v>
       </c>
       <c r="G111" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
       <c r="I111" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -5928,16 +5617,16 @@
         <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>732</v>
       </c>
       <c r="C112" t="s">
-        <v>700</v>
+        <v>597</v>
       </c>
       <c r="F112" t="s">
-        <v>575</v>
+        <v>473</v>
       </c>
       <c r="I112" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -5951,19 +5640,19 @@
         <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>404</v>
+        <v>733</v>
       </c>
       <c r="C113" t="s">
-        <v>701</v>
+        <v>598</v>
       </c>
       <c r="F113" t="s">
-        <v>576</v>
+        <v>474</v>
       </c>
       <c r="I113" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J113" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -5977,16 +5666,16 @@
         <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>734</v>
       </c>
       <c r="C114" t="s">
-        <v>702</v>
+        <v>599</v>
       </c>
       <c r="F114" t="s">
-        <v>577</v>
+        <v>475</v>
       </c>
       <c r="I114" t="s">
-        <v>729</v>
+        <v>625</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -6000,16 +5689,16 @@
         <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>405</v>
+        <v>735</v>
       </c>
       <c r="C115" t="s">
-        <v>703</v>
+        <v>600</v>
       </c>
       <c r="F115" t="s">
-        <v>578</v>
+        <v>476</v>
       </c>
       <c r="I115" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -6023,16 +5712,16 @@
         <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>736</v>
       </c>
       <c r="C116" t="s">
-        <v>704</v>
+        <v>601</v>
       </c>
       <c r="F116" t="s">
-        <v>579</v>
+        <v>477</v>
       </c>
       <c r="I116" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K116">
         <v>1</v>
@@ -6046,19 +5735,19 @@
         <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>737</v>
       </c>
       <c r="C117" t="s">
-        <v>705</v>
+        <v>602</v>
       </c>
       <c r="F117" t="s">
-        <v>580</v>
+        <v>478</v>
       </c>
       <c r="G117" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="I117" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K117">
         <v>1</v>
@@ -6072,16 +5761,16 @@
         <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>738</v>
       </c>
       <c r="C118" t="s">
-        <v>706</v>
+        <v>603</v>
       </c>
       <c r="F118" t="s">
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="I118" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K118">
         <v>1</v>
@@ -6095,16 +5784,16 @@
         <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>406</v>
+        <v>739</v>
       </c>
       <c r="C119" t="s">
-        <v>707</v>
+        <v>604</v>
       </c>
       <c r="F119" t="s">
-        <v>582</v>
+        <v>480</v>
       </c>
       <c r="I119" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -6118,19 +5807,19 @@
         <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>407</v>
+        <v>740</v>
       </c>
       <c r="C120" t="s">
-        <v>708</v>
+        <v>605</v>
       </c>
       <c r="F120" t="s">
-        <v>584</v>
+        <v>482</v>
       </c>
       <c r="I120" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J120" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K120">
         <v>1</v>
@@ -6144,16 +5833,16 @@
         <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>160</v>
+        <v>741</v>
       </c>
       <c r="C121" t="s">
-        <v>709</v>
+        <v>606</v>
       </c>
       <c r="F121" t="s">
-        <v>583</v>
+        <v>481</v>
       </c>
       <c r="I121" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K121">
         <v>1</v>
@@ -6167,16 +5856,16 @@
         <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>408</v>
+        <v>742</v>
       </c>
       <c r="C122" t="s">
-        <v>710</v>
+        <v>607</v>
       </c>
       <c r="F122" t="s">
-        <v>585</v>
+        <v>483</v>
       </c>
       <c r="I122" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K122">
         <v>1</v>
@@ -6190,19 +5879,19 @@
         <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>509</v>
+        <v>743</v>
       </c>
       <c r="C123" t="s">
-        <v>711</v>
+        <v>608</v>
       </c>
       <c r="F123" t="s">
-        <v>586</v>
+        <v>484</v>
       </c>
       <c r="I123" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J123" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K123">
         <v>1</v>
@@ -6216,16 +5905,16 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>161</v>
+        <v>744</v>
       </c>
       <c r="C124" t="s">
-        <v>712</v>
+        <v>609</v>
       </c>
       <c r="F124" t="s">
-        <v>587</v>
+        <v>485</v>
       </c>
       <c r="I124" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -6239,19 +5928,19 @@
         <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>510</v>
+        <v>745</v>
       </c>
       <c r="C125" t="s">
-        <v>713</v>
+        <v>610</v>
       </c>
       <c r="F125" t="s">
-        <v>588</v>
+        <v>486</v>
       </c>
       <c r="I125" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J125" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K125">
         <v>1</v>
@@ -6265,31 +5954,31 @@
         <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>498</v>
+        <v>746</v>
       </c>
       <c r="C126" t="s">
-        <v>714</v>
+        <v>611</v>
       </c>
       <c r="D126" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="E126" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="F126" t="s">
-        <v>591</v>
+        <v>489</v>
       </c>
       <c r="G126" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
       <c r="H126" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="I126" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J126" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K126">
         <v>1</v>
@@ -6303,19 +5992,19 @@
         <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>409</v>
+        <v>747</v>
       </c>
       <c r="C127" t="s">
-        <v>715</v>
+        <v>612</v>
       </c>
       <c r="F127" t="s">
-        <v>589</v>
+        <v>487</v>
       </c>
       <c r="I127" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="J127" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K127">
         <v>1</v>
@@ -6329,16 +6018,16 @@
         <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>716</v>
+        <v>613</v>
       </c>
       <c r="F128" t="s">
-        <v>590</v>
+        <v>488</v>
       </c>
       <c r="I128" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K128">
         <v>1</v>
@@ -6352,16 +6041,16 @@
         <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>748</v>
       </c>
       <c r="C129" t="s">
-        <v>717</v>
+        <v>614</v>
       </c>
       <c r="F129" t="s">
-        <v>592</v>
+        <v>490</v>
       </c>
       <c r="I129" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -6375,19 +6064,19 @@
         <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>210</v>
+        <v>749</v>
       </c>
       <c r="C130" t="s">
-        <v>718</v>
+        <v>615</v>
       </c>
       <c r="F130" t="s">
-        <v>597</v>
+        <v>494</v>
       </c>
       <c r="G130" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="I130" t="s">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="K130">
         <v>1</v>
@@ -6398,28 +6087,28 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>730</v>
+        <v>626</v>
       </c>
       <c r="B131" t="s">
-        <v>410</v>
+        <v>750</v>
       </c>
       <c r="C131" t="s">
-        <v>719</v>
+        <v>616</v>
       </c>
       <c r="D131" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F131" t="s">
-        <v>593</v>
+        <v>491</v>
       </c>
       <c r="G131" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="I131" t="s">
-        <v>723</v>
+        <v>619</v>
       </c>
       <c r="J131" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K131">
         <v>1</v>
@@ -6433,10 +6122,10 @@
         <v>118</v>
       </c>
       <c r="B132" t="s">
-        <v>206</v>
+        <v>757</v>
       </c>
       <c r="J132" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -6447,13 +6136,13 @@
     </row>
     <row r="133" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>411</v>
+        <v>758</v>
       </c>
       <c r="J133" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -6464,13 +6153,13 @@
     </row>
     <row r="134" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>411</v>
+        <v>758</v>
       </c>
       <c r="J134" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -6481,13 +6170,13 @@
     </row>
     <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="J135" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -6498,13 +6187,13 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="J136" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -6513,15 +6202,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>420</v>
+        <v>331</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>421</v>
+        <v>759</v>
       </c>
       <c r="J137" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K137">
         <v>1</v>
@@ -6532,13 +6221,13 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>422</v>
+        <v>332</v>
       </c>
       <c r="B138" t="s">
-        <v>423</v>
+        <v>760</v>
       </c>
       <c r="J138" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K138">
         <v>1</v>
@@ -6547,15 +6236,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>425</v>
+        <v>761</v>
       </c>
       <c r="J139" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K139">
         <v>1</v>
@@ -6566,13 +6255,13 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>426</v>
+        <v>334</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="J140" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -6583,13 +6272,13 @@
     </row>
     <row r="141" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>430</v>
+        <v>337</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>431</v>
+        <v>338</v>
       </c>
       <c r="J141" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K141">
         <v>1</v>
@@ -6600,13 +6289,13 @@
     </row>
     <row r="142" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>432</v>
+        <v>339</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>433</v>
+        <v>762</v>
       </c>
       <c r="J142" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K142">
         <v>1</v>
@@ -6617,13 +6306,13 @@
     </row>
     <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>434</v>
+        <v>340</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>435</v>
+        <v>341</v>
       </c>
       <c r="J143" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -6634,13 +6323,13 @@
     </row>
     <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>436</v>
+        <v>342</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="J144" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -6651,13 +6340,13 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>438</v>
+        <v>344</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>439</v>
+        <v>345</v>
       </c>
       <c r="J145" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -6668,13 +6357,13 @@
     </row>
     <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>440</v>
+        <v>346</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>441</v>
+        <v>347</v>
       </c>
       <c r="J146" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -6685,13 +6374,13 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>555</v>
+        <v>453</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>557</v>
+        <v>455</v>
       </c>
       <c r="J147" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -6702,19 +6391,27 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>556</v>
+        <v>454</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>558</v>
+        <v>456</v>
       </c>
       <c r="J148" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K148">
         <v>0</v>
       </c>
       <c r="L148">
         <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>333</v>
+      </c>
+      <c r="B149" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -6724,11 +6421,685 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E164348-00B6-4936-8704-3CF7B80B10CD}">
+  <dimension ref="A1:A131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>750</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A131">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6748,34 +7119,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>442</v>
+        <v>348</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>720</v>
+        <v>617</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6783,7 +7154,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>741</v>
+        <v>635</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C33" si="0">TRIM(VLOOKUP(A2,English,2,FALSE))</f>
@@ -6825,7 +7196,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>742</v>
+        <v>636</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -6867,7 +7238,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>743</v>
+        <v>637</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -6909,7 +7280,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>744</v>
+        <v>638</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -6951,7 +7322,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>745</v>
+        <v>639</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -6993,7 +7364,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>746</v>
+        <v>640</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -7035,7 +7406,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>747</v>
+        <v>641</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -7077,7 +7448,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>748</v>
+        <v>642</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -7119,7 +7490,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>862</v>
+        <v>756</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -7161,7 +7532,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>749</v>
+        <v>643</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -7203,7 +7574,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>750</v>
+        <v>644</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -7245,7 +7616,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>857</v>
+        <v>751</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -7287,7 +7658,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>751</v>
+        <v>645</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -7329,7 +7700,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>752</v>
+        <v>646</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -7371,7 +7742,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>753</v>
+        <v>647</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -7455,7 +7826,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>754</v>
+        <v>648</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -7497,7 +7868,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>755</v>
+        <v>649</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -7539,7 +7910,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>756</v>
+        <v>650</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -7581,7 +7952,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>757</v>
+        <v>651</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -7623,7 +7994,7 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>758</v>
+        <v>652</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -7665,7 +8036,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>759</v>
+        <v>653</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -7707,7 +8078,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>760</v>
+        <v>654</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -7749,7 +8120,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>761</v>
+        <v>655</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -7791,7 +8162,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>762</v>
+        <v>656</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -7833,7 +8204,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>763</v>
+        <v>657</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -7875,7 +8246,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>764</v>
+        <v>658</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -7906,7 +8277,7 @@
         <v/>
       </c>
       <c r="J28" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -7920,7 +8291,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>765</v>
+        <v>659</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -7962,7 +8333,7 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>766</v>
+        <v>660</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -7993,7 +8364,7 @@
         <v>CS</v>
       </c>
       <c r="J30" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -8007,7 +8378,7 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>858</v>
+        <v>752</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -8049,7 +8420,7 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>767</v>
+        <v>661</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -8091,7 +8462,7 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>768</v>
+        <v>662</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -8133,7 +8504,7 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>769</v>
+        <v>663</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ref="C34:C65" si="7">TRIM(VLOOKUP(A34,English,2,FALSE))</f>
@@ -8175,7 +8546,7 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>770</v>
+        <v>664</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="7"/>
@@ -8217,7 +8588,7 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>771</v>
+        <v>665</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="7"/>
@@ -8259,7 +8630,7 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>772</v>
+        <v>666</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="7"/>
@@ -8301,7 +8672,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>773</v>
+        <v>667</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="7"/>
@@ -8343,7 +8714,7 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>774</v>
+        <v>668</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="7"/>
@@ -8385,7 +8756,7 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>775</v>
+        <v>669</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="7"/>
@@ -8427,7 +8798,7 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>776</v>
+        <v>670</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="7"/>
@@ -8469,7 +8840,7 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>777</v>
+        <v>671</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="7"/>
@@ -8511,7 +8882,7 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>778</v>
+        <v>672</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="7"/>
@@ -8553,7 +8924,7 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>779</v>
+        <v>673</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="7"/>
@@ -8595,7 +8966,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>780</v>
+        <v>674</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="7"/>
@@ -8637,7 +9008,7 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>781</v>
+        <v>675</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="7"/>
@@ -8679,7 +9050,7 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>782</v>
+        <v>676</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="7"/>
@@ -8710,7 +9081,7 @@
         <v/>
       </c>
       <c r="J47" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -8724,7 +9095,7 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>783</v>
+        <v>677</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="7"/>
@@ -8755,7 +9126,7 @@
         <v/>
       </c>
       <c r="J48" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -8769,7 +9140,7 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>784</v>
+        <v>678</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="7"/>
@@ -8811,7 +9182,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="7"/>
@@ -8853,7 +9224,7 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>785</v>
+        <v>679</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="7"/>
@@ -8884,7 +9255,7 @@
         <v/>
       </c>
       <c r="J51" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -8898,7 +9269,7 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>786</v>
+        <v>680</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="7"/>
@@ -8940,7 +9311,7 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>787</v>
+        <v>681</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="7"/>
@@ -8971,7 +9342,7 @@
         <v/>
       </c>
       <c r="J53" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -8985,7 +9356,7 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>788</v>
+        <v>682</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="7"/>
@@ -9027,7 +9398,7 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>789</v>
+        <v>683</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="7"/>
@@ -9069,7 +9440,7 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>790</v>
+        <v>684</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="7"/>
@@ -9111,7 +9482,7 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>791</v>
+        <v>685</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="7"/>
@@ -9153,7 +9524,7 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>792</v>
+        <v>686</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="7"/>
@@ -9195,7 +9566,7 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>793</v>
+        <v>687</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="7"/>
@@ -9237,7 +9608,7 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>794</v>
+        <v>688</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="7"/>
@@ -9268,7 +9639,7 @@
         <v/>
       </c>
       <c r="J60" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -9282,7 +9653,7 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>795</v>
+        <v>689</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="7"/>
@@ -9324,7 +9695,7 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="7"/>
@@ -9355,7 +9726,7 @@
         <v/>
       </c>
       <c r="J62" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -9369,7 +9740,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>796</v>
+        <v>690</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="7"/>
@@ -9411,7 +9782,7 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>797</v>
+        <v>691</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="7"/>
@@ -9453,7 +9824,7 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>798</v>
+        <v>692</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="7"/>
@@ -9484,7 +9855,7 @@
         <v/>
       </c>
       <c r="J65" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -9498,7 +9869,7 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>799</v>
+        <v>693</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ref="C66:C97" si="14">TRIM(VLOOKUP(A66,English,2,FALSE))</f>
@@ -9540,7 +9911,7 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>800</v>
+        <v>694</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="14"/>
@@ -9582,7 +9953,7 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>801</v>
+        <v>695</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="14"/>
@@ -9613,7 +9984,7 @@
         <v/>
       </c>
       <c r="J68" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -9627,7 +9998,7 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>802</v>
+        <v>696</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="14"/>
@@ -9658,7 +10029,7 @@
         <v/>
       </c>
       <c r="J69" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -9672,7 +10043,7 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>803</v>
+        <v>697</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="14"/>
@@ -9714,7 +10085,7 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>804</v>
+        <v>698</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="14"/>
@@ -9756,7 +10127,7 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>805</v>
+        <v>699</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="14"/>
@@ -9787,7 +10158,7 @@
         <v/>
       </c>
       <c r="J72" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -9801,7 +10172,7 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>806</v>
+        <v>700</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="14"/>
@@ -9843,7 +10214,7 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>807</v>
+        <v>701</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="14"/>
@@ -9885,7 +10256,7 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>808</v>
+        <v>702</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="14"/>
@@ -9927,7 +10298,7 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>809</v>
+        <v>703</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="14"/>
@@ -10011,7 +10382,7 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>810</v>
+        <v>704</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="14"/>
@@ -10042,7 +10413,7 @@
         <v/>
       </c>
       <c r="J78" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -10056,7 +10427,7 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>811</v>
+        <v>705</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="14"/>
@@ -10095,10 +10466,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>724</v>
+        <v>620</v>
       </c>
       <c r="B80" t="s">
-        <v>812</v>
+        <v>706</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="14"/>
@@ -10140,7 +10511,7 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>813</v>
+        <v>707</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="14"/>
@@ -10182,7 +10553,7 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>814</v>
+        <v>708</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="14"/>
@@ -10224,7 +10595,7 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>815</v>
+        <v>709</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="14"/>
@@ -10266,7 +10637,7 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>859</v>
+        <v>753</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="14"/>
@@ -10308,7 +10679,7 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>816</v>
+        <v>710</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="14"/>
@@ -10350,7 +10721,7 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>817</v>
+        <v>711</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="14"/>
@@ -10431,10 +10802,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>725</v>
+        <v>621</v>
       </c>
       <c r="B88" t="s">
-        <v>860</v>
+        <v>754</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="14"/>
@@ -10476,7 +10847,7 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>818</v>
+        <v>712</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="14"/>
@@ -10518,7 +10889,7 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>819</v>
+        <v>713</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="14"/>
@@ -10560,7 +10931,7 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>820</v>
+        <v>714</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="14"/>
@@ -10591,7 +10962,7 @@
         <v/>
       </c>
       <c r="J91" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -10605,7 +10976,7 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>821</v>
+        <v>715</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="14"/>
@@ -10636,7 +11007,7 @@
         <v/>
       </c>
       <c r="J92" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -10650,7 +11021,7 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>822</v>
+        <v>716</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="14"/>
@@ -10692,7 +11063,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>823</v>
+        <v>717</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="14"/>
@@ -10734,7 +11105,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>824</v>
+        <v>718</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="14"/>
@@ -10776,7 +11147,7 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>825</v>
+        <v>719</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="14"/>
@@ -10818,7 +11189,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>826</v>
+        <v>720</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="14"/>
@@ -10860,7 +11231,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>827</v>
+        <v>721</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" ref="C98:C131" si="21">TRIM(VLOOKUP(A98,English,2,FALSE))</f>
@@ -10902,7 +11273,7 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>861</v>
+        <v>755</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="21"/>
@@ -10944,7 +11315,7 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>828</v>
+        <v>722</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="21"/>
@@ -10983,10 +11354,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>727</v>
+        <v>623</v>
       </c>
       <c r="B101" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="21"/>
@@ -11017,7 +11388,7 @@
         <v>PCK</v>
       </c>
       <c r="J101" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -11031,7 +11402,7 @@
         <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>829</v>
+        <v>723</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="21"/>
@@ -11073,7 +11444,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>830</v>
+        <v>724</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="21"/>
@@ -11115,7 +11486,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>831</v>
+        <v>725</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="21"/>
@@ -11157,7 +11528,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>832</v>
+        <v>726</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="21"/>
@@ -11199,7 +11570,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>833</v>
+        <v>727</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="21"/>
@@ -11241,7 +11612,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>834</v>
+        <v>728</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="21"/>
@@ -11283,7 +11654,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>835</v>
+        <v>729</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="21"/>
@@ -11368,7 +11739,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>836</v>
+        <v>730</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="21"/>
@@ -11410,7 +11781,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>837</v>
+        <v>731</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="21"/>
@@ -11452,7 +11823,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>838</v>
+        <v>732</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="21"/>
@@ -11494,7 +11865,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>839</v>
+        <v>733</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="21"/>
@@ -11525,7 +11896,7 @@
         <v/>
       </c>
       <c r="J113" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -11539,7 +11910,7 @@
         <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>840</v>
+        <v>734</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="21"/>
@@ -11581,7 +11952,7 @@
         <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>841</v>
+        <v>735</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="21"/>
@@ -11623,7 +11994,7 @@
         <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>842</v>
+        <v>736</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="21"/>
@@ -11665,7 +12036,7 @@
         <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>843</v>
+        <v>737</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="21"/>
@@ -11707,7 +12078,7 @@
         <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>844</v>
+        <v>738</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="21"/>
@@ -11749,7 +12120,7 @@
         <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>845</v>
+        <v>739</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="21"/>
@@ -11791,7 +12162,7 @@
         <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>846</v>
+        <v>740</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="21"/>
@@ -11822,7 +12193,7 @@
         <v/>
       </c>
       <c r="J120" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K120">
         <v>1</v>
@@ -11836,7 +12207,7 @@
         <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>847</v>
+        <v>741</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="21"/>
@@ -11878,7 +12249,7 @@
         <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>848</v>
+        <v>742</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="21"/>
@@ -11920,7 +12291,7 @@
         <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>849</v>
+        <v>743</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="21"/>
@@ -11951,7 +12322,7 @@
         <v/>
       </c>
       <c r="J123" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K123">
         <v>1</v>
@@ -11965,7 +12336,7 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>850</v>
+        <v>744</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="21"/>
@@ -12007,7 +12378,7 @@
         <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>851</v>
+        <v>745</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="21"/>
@@ -12038,7 +12409,7 @@
         <v/>
       </c>
       <c r="J125" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K125">
         <v>1</v>
@@ -12052,7 +12423,7 @@
         <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>852</v>
+        <v>746</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="21"/>
@@ -12083,7 +12454,7 @@
         <v/>
       </c>
       <c r="J126" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K126">
         <v>1</v>
@@ -12097,7 +12468,7 @@
         <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>853</v>
+        <v>747</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="21"/>
@@ -12128,7 +12499,7 @@
         <v/>
       </c>
       <c r="J127" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K127">
         <v>1</v>
@@ -12184,7 +12555,7 @@
         <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>854</v>
+        <v>748</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="21"/>
@@ -12226,7 +12597,7 @@
         <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>855</v>
+        <v>749</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="21"/>
@@ -12265,10 +12636,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>730</v>
+        <v>626</v>
       </c>
       <c r="B131" t="s">
-        <v>856</v>
+        <v>750</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="21"/>
@@ -12299,7 +12670,7 @@
         <v>ZPD</v>
       </c>
       <c r="J131" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="K131">
         <v>1</v>
@@ -12313,10 +12684,10 @@
         <v>118</v>
       </c>
       <c r="B132" t="s">
-        <v>863</v>
+        <v>757</v>
       </c>
       <c r="J132" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -12327,13 +12698,13 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="B133" t="s">
-        <v>864</v>
+        <v>758</v>
       </c>
       <c r="J133" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -12344,13 +12715,13 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="B134" t="s">
-        <v>864</v>
+        <v>758</v>
       </c>
       <c r="J134" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -12361,13 +12732,13 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="J135" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -12378,13 +12749,13 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="B136" t="s">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="J136" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -12395,13 +12766,13 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>420</v>
+        <v>331</v>
       </c>
       <c r="B137" t="s">
-        <v>865</v>
+        <v>759</v>
       </c>
       <c r="J137" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K137">
         <v>1</v>
@@ -12412,13 +12783,13 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>422</v>
+        <v>332</v>
       </c>
       <c r="B138" t="s">
-        <v>866</v>
+        <v>760</v>
       </c>
       <c r="J138" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K138">
         <v>1</v>
@@ -12429,13 +12800,13 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="B139" t="s">
-        <v>867</v>
+        <v>761</v>
       </c>
       <c r="J139" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K139">
         <v>1</v>
@@ -12446,13 +12817,13 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>426</v>
+        <v>334</v>
       </c>
       <c r="B140" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="J140" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -12463,13 +12834,13 @@
     </row>
     <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>430</v>
+        <v>337</v>
       </c>
       <c r="B141" t="s">
-        <v>431</v>
+        <v>338</v>
       </c>
       <c r="J141" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K141">
         <v>1</v>
@@ -12480,13 +12851,13 @@
     </row>
     <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>432</v>
+        <v>339</v>
       </c>
       <c r="B142" t="s">
-        <v>868</v>
+        <v>762</v>
       </c>
       <c r="J142" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K142">
         <v>1</v>
@@ -12497,13 +12868,13 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>434</v>
+        <v>340</v>
       </c>
       <c r="B143" t="s">
-        <v>435</v>
+        <v>341</v>
       </c>
       <c r="J143" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -12514,13 +12885,13 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>436</v>
+        <v>342</v>
       </c>
       <c r="B144" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="J144" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -12531,13 +12902,13 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>438</v>
+        <v>344</v>
       </c>
       <c r="B145" t="s">
-        <v>439</v>
+        <v>345</v>
       </c>
       <c r="J145" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -12548,13 +12919,13 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>440</v>
+        <v>346</v>
       </c>
       <c r="B146" t="s">
-        <v>441</v>
+        <v>347</v>
       </c>
       <c r="J146" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -12565,13 +12936,13 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>555</v>
+        <v>453</v>
       </c>
       <c r="B147" t="s">
-        <v>557</v>
+        <v>455</v>
       </c>
       <c r="J147" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -12582,13 +12953,13 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>556</v>
+        <v>454</v>
       </c>
       <c r="B148" t="s">
-        <v>558</v>
+        <v>456</v>
       </c>
       <c r="J148" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K148">
         <v>0</v>
@@ -12599,10 +12970,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="B149" t="s">
-        <v>869</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -12611,12 +12982,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12632,148 +13003,148 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>442</v>
+        <v>348</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>720</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>741</v>
+        <v>635</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>742</v>
+        <v>636</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>743</v>
+        <v>637</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>744</v>
+        <v>638</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>745</v>
+        <v>639</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>746</v>
+        <v>640</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>747</v>
+        <v>641</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>748</v>
+        <v>642</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>356</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>862</v>
+        <v>756</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>749</v>
+        <v>643</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>750</v>
+        <v>644</v>
       </c>
       <c r="B12" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>857</v>
+        <v>751</v>
       </c>
       <c r="B13" t="s">
-        <v>454</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>751</v>
+        <v>645</v>
       </c>
       <c r="B14" t="s">
-        <v>455</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>752</v>
+        <v>646</v>
       </c>
       <c r="B15" t="s">
-        <v>456</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>753</v>
+        <v>647</v>
       </c>
       <c r="B16" t="s">
-        <v>457</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -12781,137 +13152,137 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>573</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>754</v>
+        <v>648</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>364</v>
       </c>
       <c r="C18" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>755</v>
+        <v>649</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>756</v>
+        <v>650</v>
       </c>
       <c r="B20" t="s">
-        <v>460</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>757</v>
+        <v>651</v>
       </c>
       <c r="B21" t="s">
-        <v>461</v>
+        <v>367</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>758</v>
+        <v>652</v>
       </c>
       <c r="B22" t="s">
-        <v>462</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>759</v>
+        <v>653</v>
       </c>
       <c r="B23" t="s">
-        <v>463</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>760</v>
+        <v>654</v>
       </c>
       <c r="B24" t="s">
-        <v>464</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>761</v>
+        <v>655</v>
       </c>
       <c r="B25" t="s">
-        <v>465</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>762</v>
+        <v>656</v>
       </c>
       <c r="B26" t="s">
-        <v>466</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>763</v>
+        <v>657</v>
       </c>
       <c r="B27" t="s">
-        <v>467</v>
+        <v>373</v>
       </c>
       <c r="C27" t="s">
-        <v>389</v>
+        <v>319</v>
       </c>
       <c r="D27" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>764</v>
+        <v>658</v>
       </c>
       <c r="B28" t="s">
-        <v>468</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>765</v>
+        <v>659</v>
       </c>
       <c r="B29" t="s">
-        <v>469</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>766</v>
+        <v>660</v>
       </c>
       <c r="B30" t="s">
-        <v>470</v>
+        <v>376</v>
       </c>
       <c r="E30" t="s">
-        <v>731</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>858</v>
+        <v>752</v>
       </c>
       <c r="B31" t="s">
-        <v>471</v>
+        <v>377</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
@@ -12919,10 +13290,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>767</v>
+        <v>661</v>
       </c>
       <c r="B32" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
       <c r="E32" t="s">
         <v>39</v>
@@ -12930,10 +13301,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>768</v>
+        <v>662</v>
       </c>
       <c r="B33" t="s">
-        <v>473</v>
+        <v>379</v>
       </c>
       <c r="E33" t="s">
         <v>40</v>
@@ -12941,372 +13312,372 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>769</v>
+        <v>663</v>
       </c>
       <c r="B34" t="s">
-        <v>474</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>770</v>
+        <v>664</v>
       </c>
       <c r="B35" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>771</v>
+        <v>665</v>
       </c>
       <c r="B36" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>772</v>
+        <v>666</v>
       </c>
       <c r="B37" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>773</v>
+        <v>667</v>
       </c>
       <c r="B38" t="s">
-        <v>478</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>774</v>
+        <v>668</v>
       </c>
       <c r="B39" t="s">
-        <v>479</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>775</v>
+        <v>669</v>
       </c>
       <c r="B40" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
       <c r="C40" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>776</v>
+        <v>670</v>
       </c>
       <c r="B41" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>777</v>
+        <v>671</v>
       </c>
       <c r="B42" t="s">
-        <v>482</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>778</v>
+        <v>672</v>
       </c>
       <c r="B43" t="s">
-        <v>484</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>779</v>
+        <v>673</v>
       </c>
       <c r="B44" t="s">
-        <v>486</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>780</v>
+        <v>674</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>487</v>
+        <v>391</v>
       </c>
       <c r="C45" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="D45" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>781</v>
+        <v>675</v>
       </c>
       <c r="B46" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>782</v>
+        <v>676</v>
       </c>
       <c r="B47" t="s">
-        <v>489</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>783</v>
+        <v>677</v>
       </c>
       <c r="B48" t="s">
-        <v>490</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>784</v>
+        <v>678</v>
       </c>
       <c r="B49" t="s">
-        <v>491</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>493</v>
+        <v>396</v>
       </c>
       <c r="C50" t="s">
-        <v>366</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>785</v>
+        <v>679</v>
       </c>
       <c r="B51" t="s">
-        <v>495</v>
+        <v>397</v>
       </c>
       <c r="C51" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>786</v>
+        <v>680</v>
       </c>
       <c r="B52" t="s">
-        <v>496</v>
+        <v>398</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>787</v>
+        <v>681</v>
       </c>
       <c r="B53" t="s">
-        <v>497</v>
+        <v>399</v>
       </c>
       <c r="C53" t="s">
-        <v>498</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>788</v>
+        <v>682</v>
       </c>
       <c r="B54" t="s">
-        <v>500</v>
+        <v>402</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>789</v>
+        <v>683</v>
       </c>
       <c r="B55" t="s">
-        <v>502</v>
+        <v>404</v>
       </c>
       <c r="C55" t="s">
-        <v>391</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>790</v>
+        <v>684</v>
       </c>
       <c r="B56" t="s">
-        <v>511</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>791</v>
+        <v>685</v>
       </c>
       <c r="B57" t="s">
-        <v>512</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>792</v>
+        <v>686</v>
       </c>
       <c r="B58" t="s">
-        <v>513</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>793</v>
+        <v>687</v>
       </c>
       <c r="B59" t="s">
-        <v>514</v>
+        <v>413</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>794</v>
+        <v>688</v>
       </c>
       <c r="B60" t="s">
-        <v>516</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>795</v>
+        <v>689</v>
       </c>
       <c r="B61" t="s">
-        <v>517</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s">
-        <v>518</v>
+        <v>416</v>
       </c>
       <c r="C62" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="D62" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>796</v>
+        <v>690</v>
       </c>
       <c r="B63" t="s">
-        <v>519</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>797</v>
+        <v>691</v>
       </c>
       <c r="B64" t="s">
-        <v>520</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>798</v>
+        <v>692</v>
       </c>
       <c r="B65" t="s">
-        <v>521</v>
+        <v>419</v>
       </c>
       <c r="C65" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>799</v>
+        <v>693</v>
       </c>
       <c r="B66" t="s">
-        <v>522</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>800</v>
+        <v>694</v>
       </c>
       <c r="B67" t="s">
-        <v>523</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>801</v>
+        <v>695</v>
       </c>
       <c r="B68" t="s">
-        <v>525</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>802</v>
+        <v>696</v>
       </c>
       <c r="B69" t="s">
-        <v>526</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>803</v>
+        <v>697</v>
       </c>
       <c r="B70" t="s">
-        <v>527</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>804</v>
+        <v>698</v>
       </c>
       <c r="B71" t="s">
-        <v>528</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>805</v>
+        <v>699</v>
       </c>
       <c r="B72" t="s">
-        <v>529</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>806</v>
+        <v>700</v>
       </c>
       <c r="B73" t="s">
-        <v>530</v>
+        <v>428</v>
       </c>
       <c r="C73" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>807</v>
+        <v>701</v>
       </c>
       <c r="B74" t="s">
-        <v>533</v>
+        <v>431</v>
       </c>
       <c r="C74" t="s">
         <v>136</v>
@@ -13314,21 +13685,21 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>808</v>
+        <v>702</v>
       </c>
       <c r="B75" t="s">
-        <v>535</v>
+        <v>433</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>809</v>
+        <v>703</v>
       </c>
       <c r="B76" t="s">
-        <v>536</v>
+        <v>434</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -13336,88 +13707,88 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>537</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>810</v>
+        <v>704</v>
       </c>
       <c r="B78" t="s">
-        <v>538</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>811</v>
+        <v>705</v>
       </c>
       <c r="B79" t="s">
-        <v>539</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>812</v>
+        <v>706</v>
       </c>
       <c r="B80" t="s">
-        <v>540</v>
+        <v>438</v>
       </c>
       <c r="E80" t="s">
-        <v>722</v>
+        <v>618</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>813</v>
+        <v>707</v>
       </c>
       <c r="B81" t="s">
-        <v>534</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>814</v>
+        <v>708</v>
       </c>
       <c r="B82" t="s">
-        <v>541</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>815</v>
+        <v>709</v>
       </c>
       <c r="B83" t="s">
-        <v>542</v>
+        <v>440</v>
       </c>
       <c r="C83" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>859</v>
+        <v>753</v>
       </c>
       <c r="B84" t="s">
-        <v>544</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>816</v>
+        <v>710</v>
       </c>
       <c r="B85" t="s">
-        <v>543</v>
+        <v>441</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>817</v>
+        <v>711</v>
       </c>
       <c r="B86" t="s">
-        <v>545</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -13425,208 +13796,208 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>546</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>860</v>
+        <v>754</v>
       </c>
       <c r="B88" t="s">
-        <v>547</v>
+        <v>445</v>
       </c>
       <c r="E88" t="s">
-        <v>726</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>818</v>
+        <v>712</v>
       </c>
       <c r="B89" t="s">
-        <v>548</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>819</v>
+        <v>713</v>
       </c>
       <c r="B90" t="s">
-        <v>549</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>820</v>
+        <v>714</v>
       </c>
       <c r="B91" t="s">
-        <v>550</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>821</v>
+        <v>715</v>
       </c>
       <c r="B92" t="s">
-        <v>551</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>822</v>
+        <v>716</v>
       </c>
       <c r="B93" t="s">
-        <v>552</v>
+        <v>450</v>
       </c>
       <c r="C93" t="s">
-        <v>498</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>823</v>
+        <v>717</v>
       </c>
       <c r="B94" t="s">
-        <v>553</v>
+        <v>451</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>824</v>
+        <v>718</v>
       </c>
       <c r="B95" t="s">
-        <v>554</v>
+        <v>452</v>
       </c>
       <c r="C95" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="D95" t="s">
-        <v>429</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>825</v>
+        <v>719</v>
       </c>
       <c r="B96" t="s">
-        <v>560</v>
+        <v>458</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>826</v>
+        <v>720</v>
       </c>
       <c r="B97" t="s">
-        <v>559</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>827</v>
+        <v>721</v>
       </c>
       <c r="B98" t="s">
-        <v>561</v>
+        <v>459</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>861</v>
+        <v>755</v>
       </c>
       <c r="B99" t="s">
-        <v>562</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>828</v>
+        <v>722</v>
       </c>
       <c r="B100" t="s">
-        <v>563</v>
+        <v>461</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="B101" t="s">
-        <v>565</v>
+        <v>463</v>
       </c>
       <c r="C101" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="D101" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="E101" t="s">
-        <v>728</v>
+        <v>624</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>829</v>
+        <v>723</v>
       </c>
       <c r="B102" t="s">
-        <v>566</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>830</v>
+        <v>724</v>
       </c>
       <c r="B103" t="s">
-        <v>596</v>
+        <v>493</v>
       </c>
       <c r="C103" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>831</v>
+        <v>725</v>
       </c>
       <c r="B104" t="s">
-        <v>569</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>832</v>
+        <v>726</v>
       </c>
       <c r="B105" t="s">
-        <v>568</v>
+        <v>466</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>833</v>
+        <v>727</v>
       </c>
       <c r="B106" t="s">
-        <v>570</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>834</v>
+        <v>728</v>
       </c>
       <c r="B107" t="s">
-        <v>571</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>835</v>
+        <v>729</v>
       </c>
       <c r="B108" t="s">
-        <v>571</v>
+        <v>469</v>
       </c>
       <c r="C108" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -13634,166 +14005,166 @@
         <v>113</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>572</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>836</v>
+        <v>730</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>574</v>
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>837</v>
+        <v>731</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>595</v>
+        <v>492</v>
       </c>
       <c r="C111" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>838</v>
+        <v>732</v>
       </c>
       <c r="B112" t="s">
-        <v>575</v>
+        <v>473</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>839</v>
+        <v>733</v>
       </c>
       <c r="B113" t="s">
-        <v>576</v>
+        <v>474</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>840</v>
+        <v>734</v>
       </c>
       <c r="B114" t="s">
-        <v>577</v>
+        <v>475</v>
       </c>
       <c r="E114" t="s">
-        <v>729</v>
+        <v>625</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>841</v>
+        <v>735</v>
       </c>
       <c r="B115" t="s">
-        <v>578</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>842</v>
+        <v>736</v>
       </c>
       <c r="B116" t="s">
-        <v>579</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>843</v>
+        <v>737</v>
       </c>
       <c r="B117" t="s">
-        <v>580</v>
+        <v>478</v>
       </c>
       <c r="C117" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>844</v>
+        <v>738</v>
       </c>
       <c r="B118" t="s">
-        <v>581</v>
+        <v>479</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>845</v>
+        <v>739</v>
       </c>
       <c r="B119" t="s">
-        <v>582</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>846</v>
+        <v>740</v>
       </c>
       <c r="B120" t="s">
-        <v>584</v>
+        <v>482</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>847</v>
+        <v>741</v>
       </c>
       <c r="B121" t="s">
-        <v>583</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>848</v>
+        <v>742</v>
       </c>
       <c r="B122" t="s">
-        <v>585</v>
+        <v>483</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>849</v>
+        <v>743</v>
       </c>
       <c r="B123" t="s">
-        <v>586</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>850</v>
+        <v>744</v>
       </c>
       <c r="B124" t="s">
-        <v>587</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>851</v>
+        <v>745</v>
       </c>
       <c r="B125" t="s">
-        <v>588</v>
+        <v>486</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>852</v>
+        <v>746</v>
       </c>
       <c r="B126" t="s">
-        <v>591</v>
+        <v>489</v>
       </c>
       <c r="C126" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
       <c r="D126" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>853</v>
+        <v>747</v>
       </c>
       <c r="B127" t="s">
-        <v>589</v>
+        <v>487</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -13801,40 +14172,40 @@
         <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>590</v>
+        <v>488</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>854</v>
+        <v>748</v>
       </c>
       <c r="B129" t="s">
-        <v>592</v>
+        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>855</v>
+        <v>749</v>
       </c>
       <c r="B130" t="s">
-        <v>597</v>
+        <v>494</v>
       </c>
       <c r="C130" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>856</v>
+        <v>750</v>
       </c>
       <c r="B131" t="s">
-        <v>593</v>
+        <v>491</v>
       </c>
       <c r="C131" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="E131" t="s">
-        <v>723</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -13842,7 +14213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
@@ -13862,16 +14233,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>720</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13879,7 +14250,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -13887,10 +14258,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -13898,10 +14269,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -13909,7 +14280,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13917,7 +14288,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13925,7 +14296,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13933,10 +14304,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="C8" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -13944,7 +14315,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -13955,7 +14326,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13963,7 +14334,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13971,7 +14342,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -13979,7 +14350,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13987,7 +14358,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -13995,7 +14366,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14003,7 +14374,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -14014,7 +14385,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14022,7 +14393,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -14033,7 +14404,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14041,7 +14412,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -14049,13 +14420,13 @@
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="D21" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14063,7 +14434,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14071,7 +14442,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14079,7 +14450,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14087,7 +14458,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -14095,7 +14466,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -14103,13 +14474,13 @@
         <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="C27" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -14117,7 +14488,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14125,7 +14496,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14133,10 +14504,10 @@
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="E30" t="s">
-        <v>731</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14144,7 +14515,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
@@ -14155,7 +14526,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="E32" t="s">
         <v>39</v>
@@ -14166,7 +14537,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="E33" t="s">
         <v>40</v>
@@ -14177,7 +14548,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -14185,7 +14556,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14193,7 +14564,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14201,7 +14572,7 @@
         <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14209,7 +14580,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14217,7 +14588,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -14225,10 +14596,10 @@
         <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14236,7 +14607,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14244,7 +14615,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14252,7 +14623,7 @@
         <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14260,7 +14631,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14268,13 +14639,13 @@
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14282,7 +14653,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14290,7 +14661,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -14298,7 +14669,7 @@
         <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -14306,7 +14677,7 @@
         <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -14314,10 +14685,10 @@
         <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -14325,10 +14696,10 @@
         <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -14336,7 +14707,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -14344,7 +14715,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -14352,10 +14723,10 @@
         <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>499</v>
+        <v>401</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -14363,7 +14734,7 @@
         <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>501</v>
+        <v>403</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -14374,7 +14745,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>503</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -14382,7 +14753,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>504</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -14390,7 +14761,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>506</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -14398,10 +14769,10 @@
         <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>505</v>
+        <v>407</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -14409,7 +14780,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>507</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -14417,7 +14788,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -14425,13 +14796,13 @@
         <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -14439,7 +14810,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -14447,7 +14818,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -14455,10 +14826,10 @@
         <v>72</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14466,7 +14837,7 @@
         <v>73</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14474,7 +14845,7 @@
         <v>74</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14482,7 +14853,7 @@
         <v>75</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -14490,7 +14861,7 @@
         <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14498,7 +14869,7 @@
         <v>77</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -14506,7 +14877,7 @@
         <v>78</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14514,7 +14885,7 @@
         <v>79</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -14522,10 +14893,10 @@
         <v>80</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -14533,10 +14904,10 @@
         <v>81</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>531</v>
+        <v>429</v>
       </c>
       <c r="C74" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -14544,7 +14915,7 @@
         <v>82</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -14555,7 +14926,7 @@
         <v>83</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14563,7 +14934,7 @@
         <v>84</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14571,7 +14942,7 @@
         <v>85</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14579,18 +14950,18 @@
         <v>86</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>724</v>
+        <v>620</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="E80" t="s">
-        <v>722</v>
+        <v>618</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -14598,7 +14969,7 @@
         <v>87</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -14606,7 +14977,7 @@
         <v>88</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14614,7 +14985,7 @@
         <v>89</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14622,7 +14993,7 @@
         <v>90</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14630,10 +15001,10 @@
         <v>91</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14641,7 +15012,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14649,18 +15020,18 @@
         <v>93</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>725</v>
+        <v>621</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="E88" t="s">
-        <v>726</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14668,7 +15039,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -14676,7 +15047,7 @@
         <v>95</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14684,7 +15055,7 @@
         <v>96</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14692,7 +15063,7 @@
         <v>97</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14700,7 +15071,7 @@
         <v>98</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -14708,7 +15079,7 @@
         <v>99</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -14716,13 +15087,13 @@
         <v>100</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" t="s">
+        <v>300</v>
+      </c>
+      <c r="D95" t="s">
         <v>297</v>
-      </c>
-      <c r="C95" t="s">
-        <v>348</v>
-      </c>
-      <c r="D95" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -14730,7 +15101,7 @@
         <v>101</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -14738,7 +15109,7 @@
         <v>102</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14746,7 +15117,7 @@
         <v>103</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14754,7 +15125,7 @@
         <v>104</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14762,27 +15133,27 @@
         <v>105</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="C100" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>727</v>
+        <v>623</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>564</v>
+        <v>462</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="E101" t="s">
-        <v>728</v>
+        <v>624</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14790,7 +15161,7 @@
         <v>106</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -14798,10 +15169,10 @@
         <v>107</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="C103" t="s">
-        <v>567</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -14809,7 +15180,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14817,7 +15188,7 @@
         <v>109</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
@@ -14828,7 +15199,7 @@
         <v>110</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14836,7 +15207,7 @@
         <v>111</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14844,10 +15215,10 @@
         <v>112</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="C108" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14855,7 +15226,7 @@
         <v>113</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14863,7 +15234,7 @@
         <v>114</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -14871,7 +15242,7 @@
         <v>115</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -14879,7 +15250,7 @@
         <v>116</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -14887,7 +15258,7 @@
         <v>117</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14895,10 +15266,10 @@
         <v>119</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="E114" t="s">
-        <v>729</v>
+        <v>625</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -14906,7 +15277,7 @@
         <v>120</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14914,7 +15285,7 @@
         <v>121</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14922,7 +15293,7 @@
         <v>122</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14930,7 +15301,7 @@
         <v>123</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14938,7 +15309,7 @@
         <v>124</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -14946,7 +15317,7 @@
         <v>125</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14954,7 +15325,7 @@
         <v>126</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14962,7 +15333,7 @@
         <v>127</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14970,7 +15341,7 @@
         <v>128</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14978,7 +15349,7 @@
         <v>129</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14986,7 +15357,7 @@
         <v>130</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -14994,13 +15365,13 @@
         <v>131</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="C126" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="D126" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -15008,7 +15379,7 @@
         <v>132</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -15016,7 +15387,7 @@
         <v>133</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -15024,7 +15395,7 @@
         <v>134</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -15032,21 +15403,21 @@
         <v>135</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>730</v>
+        <v>626</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="C131" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E131" t="s">
-        <v>723</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/files/GlosarioT3.xlsx
+++ b/files/GlosarioT3.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\T3Glossary\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63222AE7-E40D-440E-B368-5AEB69DFAC29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861A97E2-3551-4081-8748-4453305CF32B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lexicon" sheetId="5" r:id="rId1"/>
-    <sheet name="OrdenadoEspañol" sheetId="6" r:id="rId2"/>
-    <sheet name="EnglishSpanish" sheetId="3" r:id="rId3"/>
-    <sheet name="Spanish" sheetId="4" r:id="rId4"/>
-    <sheet name="English" sheetId="2" r:id="rId5"/>
+    <sheet name="LexiconTraduccion" sheetId="7" r:id="rId2"/>
+    <sheet name="OrdenadoEspañol" sheetId="6" r:id="rId3"/>
+    <sheet name="EnglishSpanish" sheetId="3" r:id="rId4"/>
+    <sheet name="Spanish" sheetId="4" r:id="rId5"/>
+    <sheet name="English" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EnglishSpanish!$A$1:$L$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">EnglishSpanish!$A$1:$L$146</definedName>
     <definedName name="English">English!$A$2:$E$131</definedName>
-    <definedName name="englishspanish_1" localSheetId="2">EnglishSpanish!$A$2:$B$131</definedName>
+    <definedName name="englishspanish_1" localSheetId="3">EnglishSpanish!$A$2:$B$131</definedName>
     <definedName name="englishspanish_1" localSheetId="0">Lexicon!$A$2:$B$131</definedName>
-    <definedName name="ingles" localSheetId="4">English!$A$2:$C$131</definedName>
+    <definedName name="englishspanish_1" localSheetId="1">LexiconTraduccion!$A$2:$B$131</definedName>
+    <definedName name="ingles" localSheetId="5">English!$A$2:$C$131</definedName>
     <definedName name="Spanish">Spanish!$A$2:$E$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -58,7 +60,16 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="ingles" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="3" xr16:uid="{1D61F0F8-9021-4380-9E4A-56043D363CD4}" name="englishspanish11" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr sourceFile="D:\T3\Diccionario\englishspanish.txt" thousands="." delimiter=":">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="ingles" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="D:\T3\Diccionario\ingles.txt" thousands="." delimiter=":">
       <textFields count="2">
         <textField/>
@@ -70,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="765">
   <si>
     <t>english</t>
   </si>
@@ -2356,19 +2367,16 @@
     <t>Pericia.</t>
   </si>
   <si>
-    <t>Retroalimentación.</t>
-  </si>
-  <si>
     <t>El modelo de desarrollo de habilidades</t>
   </si>
   <si>
-    <t>Devolución</t>
-  </si>
-  <si>
     <t>def_en</t>
   </si>
   <si>
     <t>def_es</t>
+  </si>
+  <si>
+    <t>Retroalimentación. Devolución.</t>
   </si>
 </sst>
 </file>
@@ -2447,11 +2455,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="englishspanish_1" connectionId="3" xr16:uid="{EC7B23D2-0884-4E6C-B646-CFEB8EA7E62E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="englishspanish_1" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ingles" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ingles" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2775,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990111A-369A-41E8-8C22-1342FD4CCC65}">
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,7 +2806,7 @@
         <v>629</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>631</v>
@@ -2803,7 +2815,7 @@
         <v>630</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>632</v>
@@ -6117,302 +6129,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>118</v>
-      </c>
-      <c r="B132" t="s">
-        <v>757</v>
-      </c>
-      <c r="J132" t="s">
-        <v>139</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="J133" t="s">
-        <v>139</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>326</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="J134" t="s">
-        <v>139</v>
-      </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J135" t="s">
-        <v>139</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J136" t="s">
-        <v>139</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="J137" t="s">
-        <v>139</v>
-      </c>
-      <c r="K137">
-        <v>1</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>332</v>
-      </c>
-      <c r="B138" t="s">
-        <v>760</v>
-      </c>
-      <c r="J138" t="s">
-        <v>139</v>
-      </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="J139" t="s">
-        <v>139</v>
-      </c>
-      <c r="K139">
-        <v>1</v>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J140" t="s">
-        <v>139</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="J141" t="s">
-        <v>139</v>
-      </c>
-      <c r="K141">
-        <v>1</v>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="J142" t="s">
-        <v>139</v>
-      </c>
-      <c r="K142">
-        <v>1</v>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J143" t="s">
-        <v>139</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J144" t="s">
-        <v>139</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="J145" t="s">
-        <v>139</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J146" t="s">
-        <v>139</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="J147" t="s">
-        <v>139</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="J148" t="s">
-        <v>139</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>333</v>
-      </c>
-      <c r="B149" t="s">
-        <v>763</v>
-      </c>
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6421,6 +6195,3644 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A97E1CC-254F-4217-80A2-D2F4A8A53599}">
+  <dimension ref="A1:L148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" t="s">
+        <v>634</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>634</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" t="s">
+        <v>634</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F5" t="s">
+        <v>352</v>
+      </c>
+      <c r="I5" t="s">
+        <v>634</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F6" t="s">
+        <v>353</v>
+      </c>
+      <c r="I6" t="s">
+        <v>634</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I7" t="s">
+        <v>634</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>641</v>
+      </c>
+      <c r="C8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" t="s">
+        <v>355</v>
+      </c>
+      <c r="I8" t="s">
+        <v>634</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>356</v>
+      </c>
+      <c r="G9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" t="s">
+        <v>634</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>756</v>
+      </c>
+      <c r="C10" t="s">
+        <v>503</v>
+      </c>
+      <c r="F10" t="s">
+        <v>357</v>
+      </c>
+      <c r="I10" t="s">
+        <v>634</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C11" t="s">
+        <v>504</v>
+      </c>
+      <c r="F11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I11" t="s">
+        <v>634</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>644</v>
+      </c>
+      <c r="C12" t="s">
+        <v>505</v>
+      </c>
+      <c r="F12" t="s">
+        <v>359</v>
+      </c>
+      <c r="I12" t="s">
+        <v>634</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>751</v>
+      </c>
+      <c r="C13" t="s">
+        <v>506</v>
+      </c>
+      <c r="F13" t="s">
+        <v>360</v>
+      </c>
+      <c r="I13" t="s">
+        <v>634</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>645</v>
+      </c>
+      <c r="C14" t="s">
+        <v>507</v>
+      </c>
+      <c r="F14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I14" t="s">
+        <v>634</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>646</v>
+      </c>
+      <c r="C15" t="s">
+        <v>508</v>
+      </c>
+      <c r="F15" t="s">
+        <v>362</v>
+      </c>
+      <c r="I15" t="s">
+        <v>634</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>647</v>
+      </c>
+      <c r="C16" t="s">
+        <v>509</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>363</v>
+      </c>
+      <c r="I16" t="s">
+        <v>634</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>510</v>
+      </c>
+      <c r="F17" t="s">
+        <v>471</v>
+      </c>
+      <c r="I17" t="s">
+        <v>634</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>648</v>
+      </c>
+      <c r="C18" t="s">
+        <v>511</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>364</v>
+      </c>
+      <c r="G18" t="s">
+        <v>317</v>
+      </c>
+      <c r="I18" t="s">
+        <v>634</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>649</v>
+      </c>
+      <c r="C19" t="s">
+        <v>512</v>
+      </c>
+      <c r="F19" t="s">
+        <v>365</v>
+      </c>
+      <c r="I19" t="s">
+        <v>634</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>650</v>
+      </c>
+      <c r="C20" t="s">
+        <v>513</v>
+      </c>
+      <c r="F20" t="s">
+        <v>366</v>
+      </c>
+      <c r="I20" t="s">
+        <v>634</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>651</v>
+      </c>
+      <c r="C21" t="s">
+        <v>514</v>
+      </c>
+      <c r="D21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" t="s">
+        <v>297</v>
+      </c>
+      <c r="F21" t="s">
+        <v>367</v>
+      </c>
+      <c r="G21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" t="s">
+        <v>308</v>
+      </c>
+      <c r="I21" t="s">
+        <v>634</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>652</v>
+      </c>
+      <c r="C22" t="s">
+        <v>515</v>
+      </c>
+      <c r="F22" t="s">
+        <v>368</v>
+      </c>
+      <c r="I22" t="s">
+        <v>634</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>653</v>
+      </c>
+      <c r="C23" t="s">
+        <v>516</v>
+      </c>
+      <c r="F23" t="s">
+        <v>369</v>
+      </c>
+      <c r="I23" t="s">
+        <v>634</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>654</v>
+      </c>
+      <c r="C24" t="s">
+        <v>517</v>
+      </c>
+      <c r="F24" t="s">
+        <v>370</v>
+      </c>
+      <c r="I24" t="s">
+        <v>634</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>655</v>
+      </c>
+      <c r="C25" t="s">
+        <v>518</v>
+      </c>
+      <c r="F25" t="s">
+        <v>371</v>
+      </c>
+      <c r="I25" t="s">
+        <v>634</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>656</v>
+      </c>
+      <c r="C26" t="s">
+        <v>519</v>
+      </c>
+      <c r="F26" t="s">
+        <v>372</v>
+      </c>
+      <c r="I26" t="s">
+        <v>634</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C27" t="s">
+        <v>520</v>
+      </c>
+      <c r="D27" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" t="s">
+        <v>373</v>
+      </c>
+      <c r="G27" t="s">
+        <v>319</v>
+      </c>
+      <c r="H27" t="s">
+        <v>316</v>
+      </c>
+      <c r="I27" t="s">
+        <v>634</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>658</v>
+      </c>
+      <c r="C28" t="s">
+        <v>521</v>
+      </c>
+      <c r="F28" t="s">
+        <v>374</v>
+      </c>
+      <c r="I28" t="s">
+        <v>634</v>
+      </c>
+      <c r="J28" t="s">
+        <v>304</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>659</v>
+      </c>
+      <c r="C29" t="s">
+        <v>522</v>
+      </c>
+      <c r="F29" t="s">
+        <v>375</v>
+      </c>
+      <c r="I29" t="s">
+        <v>634</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>660</v>
+      </c>
+      <c r="C30" t="s">
+        <v>523</v>
+      </c>
+      <c r="F30" t="s">
+        <v>376</v>
+      </c>
+      <c r="I30" t="s">
+        <v>627</v>
+      </c>
+      <c r="J30" t="s">
+        <v>304</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>752</v>
+      </c>
+      <c r="C31" t="s">
+        <v>524</v>
+      </c>
+      <c r="F31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>661</v>
+      </c>
+      <c r="C32" t="s">
+        <v>525</v>
+      </c>
+      <c r="F32" t="s">
+        <v>378</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>662</v>
+      </c>
+      <c r="C33" t="s">
+        <v>526</v>
+      </c>
+      <c r="F33" t="s">
+        <v>379</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>663</v>
+      </c>
+      <c r="C34" t="s">
+        <v>527</v>
+      </c>
+      <c r="F34" t="s">
+        <v>380</v>
+      </c>
+      <c r="I34" t="s">
+        <v>634</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>664</v>
+      </c>
+      <c r="C35" t="s">
+        <v>528</v>
+      </c>
+      <c r="F35" t="s">
+        <v>381</v>
+      </c>
+      <c r="I35" t="s">
+        <v>634</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>665</v>
+      </c>
+      <c r="C36" t="s">
+        <v>529</v>
+      </c>
+      <c r="F36" t="s">
+        <v>382</v>
+      </c>
+      <c r="I36" t="s">
+        <v>634</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>666</v>
+      </c>
+      <c r="C37" t="s">
+        <v>530</v>
+      </c>
+      <c r="F37" t="s">
+        <v>383</v>
+      </c>
+      <c r="I37" t="s">
+        <v>634</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>667</v>
+      </c>
+      <c r="C38" t="s">
+        <v>531</v>
+      </c>
+      <c r="F38" t="s">
+        <v>384</v>
+      </c>
+      <c r="I38" t="s">
+        <v>634</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>668</v>
+      </c>
+      <c r="C39" t="s">
+        <v>532</v>
+      </c>
+      <c r="F39" t="s">
+        <v>385</v>
+      </c>
+      <c r="I39" t="s">
+        <v>634</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>669</v>
+      </c>
+      <c r="C40" t="s">
+        <v>533</v>
+      </c>
+      <c r="D40" t="s">
+        <v>295</v>
+      </c>
+      <c r="F40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G40" t="s">
+        <v>321</v>
+      </c>
+      <c r="I40" t="s">
+        <v>634</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>670</v>
+      </c>
+      <c r="C41" t="s">
+        <v>534</v>
+      </c>
+      <c r="F41" t="s">
+        <v>387</v>
+      </c>
+      <c r="I41" t="s">
+        <v>634</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>671</v>
+      </c>
+      <c r="C42" t="s">
+        <v>535</v>
+      </c>
+      <c r="F42" t="s">
+        <v>388</v>
+      </c>
+      <c r="I42" t="s">
+        <v>634</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>672</v>
+      </c>
+      <c r="C43" t="s">
+        <v>536</v>
+      </c>
+      <c r="F43" t="s">
+        <v>389</v>
+      </c>
+      <c r="I43" t="s">
+        <v>634</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>673</v>
+      </c>
+      <c r="C44" t="s">
+        <v>537</v>
+      </c>
+      <c r="F44" t="s">
+        <v>390</v>
+      </c>
+      <c r="I44" t="s">
+        <v>634</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C45" t="s">
+        <v>538</v>
+      </c>
+      <c r="D45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" t="s">
+        <v>391</v>
+      </c>
+      <c r="G45" t="s">
+        <v>306</v>
+      </c>
+      <c r="H45" t="s">
+        <v>161</v>
+      </c>
+      <c r="I45" t="s">
+        <v>634</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>675</v>
+      </c>
+      <c r="C46" t="s">
+        <v>539</v>
+      </c>
+      <c r="F46" t="s">
+        <v>392</v>
+      </c>
+      <c r="I46" t="s">
+        <v>634</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>676</v>
+      </c>
+      <c r="C47" t="s">
+        <v>540</v>
+      </c>
+      <c r="F47" t="s">
+        <v>393</v>
+      </c>
+      <c r="I47" t="s">
+        <v>634</v>
+      </c>
+      <c r="J47" t="s">
+        <v>304</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>677</v>
+      </c>
+      <c r="C48" t="s">
+        <v>541</v>
+      </c>
+      <c r="F48" t="s">
+        <v>394</v>
+      </c>
+      <c r="I48" t="s">
+        <v>634</v>
+      </c>
+      <c r="J48" t="s">
+        <v>304</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>678</v>
+      </c>
+      <c r="C49" t="s">
+        <v>542</v>
+      </c>
+      <c r="F49" t="s">
+        <v>395</v>
+      </c>
+      <c r="I49" t="s">
+        <v>634</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>543</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" t="s">
+        <v>396</v>
+      </c>
+      <c r="G50" t="s">
+        <v>307</v>
+      </c>
+      <c r="I50" t="s">
+        <v>634</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>679</v>
+      </c>
+      <c r="C51" t="s">
+        <v>544</v>
+      </c>
+      <c r="D51" t="s">
+        <v>293</v>
+      </c>
+      <c r="F51" t="s">
+        <v>397</v>
+      </c>
+      <c r="G51" t="s">
+        <v>323</v>
+      </c>
+      <c r="I51" t="s">
+        <v>634</v>
+      </c>
+      <c r="J51" t="s">
+        <v>304</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>680</v>
+      </c>
+      <c r="C52" t="s">
+        <v>545</v>
+      </c>
+      <c r="F52" t="s">
+        <v>398</v>
+      </c>
+      <c r="G52" t="s">
+        <v>155</v>
+      </c>
+      <c r="I52" t="s">
+        <v>634</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>681</v>
+      </c>
+      <c r="C53" t="s">
+        <v>546</v>
+      </c>
+      <c r="F53" t="s">
+        <v>399</v>
+      </c>
+      <c r="G53" t="s">
+        <v>400</v>
+      </c>
+      <c r="I53" t="s">
+        <v>634</v>
+      </c>
+      <c r="J53" t="s">
+        <v>304</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>682</v>
+      </c>
+      <c r="C54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D54" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" t="s">
+        <v>402</v>
+      </c>
+      <c r="G54" t="s">
+        <v>154</v>
+      </c>
+      <c r="I54" t="s">
+        <v>634</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>683</v>
+      </c>
+      <c r="C55" t="s">
+        <v>403</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>404</v>
+      </c>
+      <c r="G55" t="s">
+        <v>320</v>
+      </c>
+      <c r="I55" t="s">
+        <v>634</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>684</v>
+      </c>
+      <c r="C56" t="s">
+        <v>405</v>
+      </c>
+      <c r="F56" t="s">
+        <v>410</v>
+      </c>
+      <c r="I56" t="s">
+        <v>634</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>685</v>
+      </c>
+      <c r="C57" t="s">
+        <v>406</v>
+      </c>
+      <c r="F57" t="s">
+        <v>411</v>
+      </c>
+      <c r="I57" t="s">
+        <v>634</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>686</v>
+      </c>
+      <c r="C58" t="s">
+        <v>408</v>
+      </c>
+      <c r="F58" t="s">
+        <v>412</v>
+      </c>
+      <c r="I58" t="s">
+        <v>634</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>687</v>
+      </c>
+      <c r="C59" t="s">
+        <v>407</v>
+      </c>
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" t="s">
+        <v>413</v>
+      </c>
+      <c r="G59" t="s">
+        <v>141</v>
+      </c>
+      <c r="I59" t="s">
+        <v>634</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>688</v>
+      </c>
+      <c r="C60" t="s">
+        <v>409</v>
+      </c>
+      <c r="F60" t="s">
+        <v>414</v>
+      </c>
+      <c r="I60" t="s">
+        <v>634</v>
+      </c>
+      <c r="J60" t="s">
+        <v>304</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>689</v>
+      </c>
+      <c r="C61" t="s">
+        <v>547</v>
+      </c>
+      <c r="F61" t="s">
+        <v>415</v>
+      </c>
+      <c r="I61" t="s">
+        <v>634</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>313</v>
+      </c>
+      <c r="C62" t="s">
+        <v>548</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>299</v>
+      </c>
+      <c r="F62" t="s">
+        <v>416</v>
+      </c>
+      <c r="G62" t="s">
+        <v>314</v>
+      </c>
+      <c r="H62" t="s">
+        <v>315</v>
+      </c>
+      <c r="I62" t="s">
+        <v>634</v>
+      </c>
+      <c r="J62" t="s">
+        <v>304</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>690</v>
+      </c>
+      <c r="C63" t="s">
+        <v>549</v>
+      </c>
+      <c r="F63" t="s">
+        <v>417</v>
+      </c>
+      <c r="I63" t="s">
+        <v>634</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>691</v>
+      </c>
+      <c r="C64" t="s">
+        <v>550</v>
+      </c>
+      <c r="F64" t="s">
+        <v>418</v>
+      </c>
+      <c r="I64" t="s">
+        <v>634</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>692</v>
+      </c>
+      <c r="C65" t="s">
+        <v>551</v>
+      </c>
+      <c r="D65" t="s">
+        <v>294</v>
+      </c>
+      <c r="F65" t="s">
+        <v>419</v>
+      </c>
+      <c r="G65" t="s">
+        <v>312</v>
+      </c>
+      <c r="I65" t="s">
+        <v>634</v>
+      </c>
+      <c r="J65" t="s">
+        <v>304</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>693</v>
+      </c>
+      <c r="C66" t="s">
+        <v>552</v>
+      </c>
+      <c r="F66" t="s">
+        <v>420</v>
+      </c>
+      <c r="I66" t="s">
+        <v>634</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>694</v>
+      </c>
+      <c r="C67" t="s">
+        <v>553</v>
+      </c>
+      <c r="F67" t="s">
+        <v>421</v>
+      </c>
+      <c r="I67" t="s">
+        <v>634</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>695</v>
+      </c>
+      <c r="C68" t="s">
+        <v>422</v>
+      </c>
+      <c r="F68" t="s">
+        <v>423</v>
+      </c>
+      <c r="I68" t="s">
+        <v>634</v>
+      </c>
+      <c r="J68" t="s">
+        <v>304</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>696</v>
+      </c>
+      <c r="C69" t="s">
+        <v>554</v>
+      </c>
+      <c r="F69" t="s">
+        <v>424</v>
+      </c>
+      <c r="I69" t="s">
+        <v>634</v>
+      </c>
+      <c r="J69" t="s">
+        <v>304</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>697</v>
+      </c>
+      <c r="C70" t="s">
+        <v>555</v>
+      </c>
+      <c r="F70" t="s">
+        <v>425</v>
+      </c>
+      <c r="I70" t="s">
+        <v>634</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>698</v>
+      </c>
+      <c r="C71" t="s">
+        <v>556</v>
+      </c>
+      <c r="F71" t="s">
+        <v>426</v>
+      </c>
+      <c r="I71" t="s">
+        <v>634</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>699</v>
+      </c>
+      <c r="C72" t="s">
+        <v>557</v>
+      </c>
+      <c r="F72" t="s">
+        <v>427</v>
+      </c>
+      <c r="I72" t="s">
+        <v>634</v>
+      </c>
+      <c r="J72" t="s">
+        <v>304</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>700</v>
+      </c>
+      <c r="C73" t="s">
+        <v>558</v>
+      </c>
+      <c r="D73" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" t="s">
+        <v>428</v>
+      </c>
+      <c r="G73" t="s">
+        <v>305</v>
+      </c>
+      <c r="I73" t="s">
+        <v>634</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>701</v>
+      </c>
+      <c r="C74" t="s">
+        <v>559</v>
+      </c>
+      <c r="D74" t="s">
+        <v>430</v>
+      </c>
+      <c r="F74" t="s">
+        <v>431</v>
+      </c>
+      <c r="G74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I74" t="s">
+        <v>634</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>702</v>
+      </c>
+      <c r="C75" t="s">
+        <v>560</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>433</v>
+      </c>
+      <c r="G75" t="s">
+        <v>137</v>
+      </c>
+      <c r="I75" t="s">
+        <v>634</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>703</v>
+      </c>
+      <c r="C76" t="s">
+        <v>561</v>
+      </c>
+      <c r="F76" t="s">
+        <v>434</v>
+      </c>
+      <c r="I76" t="s">
+        <v>634</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="s">
+        <v>562</v>
+      </c>
+      <c r="F77" t="s">
+        <v>435</v>
+      </c>
+      <c r="I77" t="s">
+        <v>634</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>704</v>
+      </c>
+      <c r="C78" t="s">
+        <v>563</v>
+      </c>
+      <c r="F78" t="s">
+        <v>436</v>
+      </c>
+      <c r="I78" t="s">
+        <v>634</v>
+      </c>
+      <c r="J78" t="s">
+        <v>304</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>705</v>
+      </c>
+      <c r="C79" t="s">
+        <v>564</v>
+      </c>
+      <c r="F79" t="s">
+        <v>437</v>
+      </c>
+      <c r="I79" t="s">
+        <v>634</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>620</v>
+      </c>
+      <c r="B80" t="s">
+        <v>706</v>
+      </c>
+      <c r="C80" t="s">
+        <v>565</v>
+      </c>
+      <c r="F80" t="s">
+        <v>438</v>
+      </c>
+      <c r="I80" t="s">
+        <v>618</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>707</v>
+      </c>
+      <c r="C81" t="s">
+        <v>566</v>
+      </c>
+      <c r="F81" t="s">
+        <v>432</v>
+      </c>
+      <c r="I81" t="s">
+        <v>634</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>708</v>
+      </c>
+      <c r="C82" t="s">
+        <v>567</v>
+      </c>
+      <c r="F82" t="s">
+        <v>439</v>
+      </c>
+      <c r="I82" t="s">
+        <v>634</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>709</v>
+      </c>
+      <c r="C83" t="s">
+        <v>568</v>
+      </c>
+      <c r="F83" t="s">
+        <v>440</v>
+      </c>
+      <c r="G83" t="s">
+        <v>157</v>
+      </c>
+      <c r="I83" t="s">
+        <v>634</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
+        <v>753</v>
+      </c>
+      <c r="C84" t="s">
+        <v>569</v>
+      </c>
+      <c r="F84" t="s">
+        <v>442</v>
+      </c>
+      <c r="I84" t="s">
+        <v>634</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>710</v>
+      </c>
+      <c r="C85" t="s">
+        <v>570</v>
+      </c>
+      <c r="D85" t="s">
+        <v>147</v>
+      </c>
+      <c r="F85" t="s">
+        <v>441</v>
+      </c>
+      <c r="G85" t="s">
+        <v>140</v>
+      </c>
+      <c r="I85" t="s">
+        <v>634</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="s">
+        <v>711</v>
+      </c>
+      <c r="C86" t="s">
+        <v>571</v>
+      </c>
+      <c r="F86" t="s">
+        <v>443</v>
+      </c>
+      <c r="I86" t="s">
+        <v>634</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>572</v>
+      </c>
+      <c r="F87" t="s">
+        <v>444</v>
+      </c>
+      <c r="I87" t="s">
+        <v>634</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>621</v>
+      </c>
+      <c r="B88" t="s">
+        <v>754</v>
+      </c>
+      <c r="C88" t="s">
+        <v>573</v>
+      </c>
+      <c r="F88" t="s">
+        <v>445</v>
+      </c>
+      <c r="I88" t="s">
+        <v>622</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>712</v>
+      </c>
+      <c r="C89" t="s">
+        <v>574</v>
+      </c>
+      <c r="F89" t="s">
+        <v>446</v>
+      </c>
+      <c r="I89" t="s">
+        <v>634</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>713</v>
+      </c>
+      <c r="C90" t="s">
+        <v>575</v>
+      </c>
+      <c r="F90" t="s">
+        <v>447</v>
+      </c>
+      <c r="I90" t="s">
+        <v>634</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>714</v>
+      </c>
+      <c r="C91" t="s">
+        <v>576</v>
+      </c>
+      <c r="F91" t="s">
+        <v>448</v>
+      </c>
+      <c r="I91" t="s">
+        <v>634</v>
+      </c>
+      <c r="J91" t="s">
+        <v>304</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="s">
+        <v>715</v>
+      </c>
+      <c r="C92" t="s">
+        <v>577</v>
+      </c>
+      <c r="F92" t="s">
+        <v>449</v>
+      </c>
+      <c r="I92" t="s">
+        <v>634</v>
+      </c>
+      <c r="J92" t="s">
+        <v>304</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>716</v>
+      </c>
+      <c r="C93" t="s">
+        <v>578</v>
+      </c>
+      <c r="F93" t="s">
+        <v>450</v>
+      </c>
+      <c r="G93" t="s">
+        <v>400</v>
+      </c>
+      <c r="I93" t="s">
+        <v>634</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>717</v>
+      </c>
+      <c r="C94" t="s">
+        <v>579</v>
+      </c>
+      <c r="F94" t="s">
+        <v>451</v>
+      </c>
+      <c r="I94" t="s">
+        <v>634</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>718</v>
+      </c>
+      <c r="C95" t="s">
+        <v>580</v>
+      </c>
+      <c r="D95" t="s">
+        <v>300</v>
+      </c>
+      <c r="E95" t="s">
+        <v>297</v>
+      </c>
+      <c r="F95" t="s">
+        <v>452</v>
+      </c>
+      <c r="G95" t="s">
+        <v>306</v>
+      </c>
+      <c r="H95" t="s">
+        <v>336</v>
+      </c>
+      <c r="I95" t="s">
+        <v>634</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" t="s">
+        <v>719</v>
+      </c>
+      <c r="C96" t="s">
+        <v>581</v>
+      </c>
+      <c r="F96" t="s">
+        <v>458</v>
+      </c>
+      <c r="I96" t="s">
+        <v>634</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>720</v>
+      </c>
+      <c r="C97" t="s">
+        <v>582</v>
+      </c>
+      <c r="F97" t="s">
+        <v>457</v>
+      </c>
+      <c r="I97" t="s">
+        <v>634</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>721</v>
+      </c>
+      <c r="C98" t="s">
+        <v>583</v>
+      </c>
+      <c r="F98" t="s">
+        <v>459</v>
+      </c>
+      <c r="I98" t="s">
+        <v>634</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>755</v>
+      </c>
+      <c r="C99" t="s">
+        <v>584</v>
+      </c>
+      <c r="F99" t="s">
+        <v>460</v>
+      </c>
+      <c r="I99" t="s">
+        <v>634</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>722</v>
+      </c>
+      <c r="C100" t="s">
+        <v>585</v>
+      </c>
+      <c r="D100" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" t="s">
+        <v>461</v>
+      </c>
+      <c r="G100" t="s">
+        <v>156</v>
+      </c>
+      <c r="I100" t="s">
+        <v>634</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>623</v>
+      </c>
+      <c r="B101" t="s">
+        <v>315</v>
+      </c>
+      <c r="C101" t="s">
+        <v>586</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
+        <v>298</v>
+      </c>
+      <c r="F101" t="s">
+        <v>463</v>
+      </c>
+      <c r="G101" t="s">
+        <v>303</v>
+      </c>
+      <c r="H101" t="s">
+        <v>313</v>
+      </c>
+      <c r="I101" t="s">
+        <v>624</v>
+      </c>
+      <c r="J101" t="s">
+        <v>304</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" t="s">
+        <v>723</v>
+      </c>
+      <c r="C102" t="s">
+        <v>587</v>
+      </c>
+      <c r="F102" t="s">
+        <v>464</v>
+      </c>
+      <c r="I102" t="s">
+        <v>634</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="s">
+        <v>724</v>
+      </c>
+      <c r="C103" t="s">
+        <v>588</v>
+      </c>
+      <c r="D103" t="s">
+        <v>465</v>
+      </c>
+      <c r="F103" t="s">
+        <v>493</v>
+      </c>
+      <c r="G103" t="s">
+        <v>160</v>
+      </c>
+      <c r="I103" t="s">
+        <v>634</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="s">
+        <v>725</v>
+      </c>
+      <c r="C104" t="s">
+        <v>589</v>
+      </c>
+      <c r="F104" t="s">
+        <v>467</v>
+      </c>
+      <c r="I104" t="s">
+        <v>634</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="s">
+        <v>726</v>
+      </c>
+      <c r="C105" t="s">
+        <v>590</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>466</v>
+      </c>
+      <c r="G105" t="s">
+        <v>165</v>
+      </c>
+      <c r="I105" t="s">
+        <v>634</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
+        <v>727</v>
+      </c>
+      <c r="C106" t="s">
+        <v>591</v>
+      </c>
+      <c r="F106" t="s">
+        <v>468</v>
+      </c>
+      <c r="I106" t="s">
+        <v>634</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" t="s">
+        <v>728</v>
+      </c>
+      <c r="C107" t="s">
+        <v>592</v>
+      </c>
+      <c r="F107" t="s">
+        <v>469</v>
+      </c>
+      <c r="I107" t="s">
+        <v>634</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="s">
+        <v>729</v>
+      </c>
+      <c r="C108" t="s">
+        <v>593</v>
+      </c>
+      <c r="D108" t="s">
+        <v>149</v>
+      </c>
+      <c r="F108" t="s">
+        <v>469</v>
+      </c>
+      <c r="G108" t="s">
+        <v>324</v>
+      </c>
+      <c r="I108" t="s">
+        <v>634</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>594</v>
+      </c>
+      <c r="F109" t="s">
+        <v>470</v>
+      </c>
+      <c r="I109" t="s">
+        <v>634</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="s">
+        <v>730</v>
+      </c>
+      <c r="C110" t="s">
+        <v>595</v>
+      </c>
+      <c r="F110" t="s">
+        <v>472</v>
+      </c>
+      <c r="I110" t="s">
+        <v>634</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" t="s">
+        <v>731</v>
+      </c>
+      <c r="C111" t="s">
+        <v>596</v>
+      </c>
+      <c r="F111" t="s">
+        <v>492</v>
+      </c>
+      <c r="G111" t="s">
+        <v>318</v>
+      </c>
+      <c r="I111" t="s">
+        <v>634</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>732</v>
+      </c>
+      <c r="C112" t="s">
+        <v>597</v>
+      </c>
+      <c r="F112" t="s">
+        <v>473</v>
+      </c>
+      <c r="I112" t="s">
+        <v>634</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" t="s">
+        <v>733</v>
+      </c>
+      <c r="C113" t="s">
+        <v>598</v>
+      </c>
+      <c r="F113" t="s">
+        <v>474</v>
+      </c>
+      <c r="I113" t="s">
+        <v>634</v>
+      </c>
+      <c r="J113" t="s">
+        <v>304</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="s">
+        <v>734</v>
+      </c>
+      <c r="C114" t="s">
+        <v>599</v>
+      </c>
+      <c r="F114" t="s">
+        <v>475</v>
+      </c>
+      <c r="I114" t="s">
+        <v>625</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="s">
+        <v>735</v>
+      </c>
+      <c r="C115" t="s">
+        <v>600</v>
+      </c>
+      <c r="F115" t="s">
+        <v>476</v>
+      </c>
+      <c r="I115" t="s">
+        <v>634</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" t="s">
+        <v>736</v>
+      </c>
+      <c r="C116" t="s">
+        <v>601</v>
+      </c>
+      <c r="F116" t="s">
+        <v>477</v>
+      </c>
+      <c r="I116" t="s">
+        <v>634</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" t="s">
+        <v>737</v>
+      </c>
+      <c r="C117" t="s">
+        <v>602</v>
+      </c>
+      <c r="F117" t="s">
+        <v>478</v>
+      </c>
+      <c r="G117" t="s">
+        <v>157</v>
+      </c>
+      <c r="I117" t="s">
+        <v>634</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="s">
+        <v>738</v>
+      </c>
+      <c r="C118" t="s">
+        <v>603</v>
+      </c>
+      <c r="F118" t="s">
+        <v>479</v>
+      </c>
+      <c r="I118" t="s">
+        <v>634</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="s">
+        <v>739</v>
+      </c>
+      <c r="C119" t="s">
+        <v>604</v>
+      </c>
+      <c r="F119" t="s">
+        <v>480</v>
+      </c>
+      <c r="I119" t="s">
+        <v>634</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" t="s">
+        <v>740</v>
+      </c>
+      <c r="C120" t="s">
+        <v>605</v>
+      </c>
+      <c r="F120" t="s">
+        <v>482</v>
+      </c>
+      <c r="I120" t="s">
+        <v>634</v>
+      </c>
+      <c r="J120" t="s">
+        <v>304</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="s">
+        <v>741</v>
+      </c>
+      <c r="C121" t="s">
+        <v>606</v>
+      </c>
+      <c r="F121" t="s">
+        <v>481</v>
+      </c>
+      <c r="I121" t="s">
+        <v>634</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" t="s">
+        <v>742</v>
+      </c>
+      <c r="C122" t="s">
+        <v>607</v>
+      </c>
+      <c r="F122" t="s">
+        <v>483</v>
+      </c>
+      <c r="I122" t="s">
+        <v>634</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" t="s">
+        <v>743</v>
+      </c>
+      <c r="C123" t="s">
+        <v>608</v>
+      </c>
+      <c r="F123" t="s">
+        <v>484</v>
+      </c>
+      <c r="I123" t="s">
+        <v>634</v>
+      </c>
+      <c r="J123" t="s">
+        <v>304</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" t="s">
+        <v>744</v>
+      </c>
+      <c r="C124" t="s">
+        <v>609</v>
+      </c>
+      <c r="F124" t="s">
+        <v>485</v>
+      </c>
+      <c r="I124" t="s">
+        <v>634</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" t="s">
+        <v>745</v>
+      </c>
+      <c r="C125" t="s">
+        <v>610</v>
+      </c>
+      <c r="F125" t="s">
+        <v>486</v>
+      </c>
+      <c r="I125" t="s">
+        <v>634</v>
+      </c>
+      <c r="J125" t="s">
+        <v>304</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" t="s">
+        <v>746</v>
+      </c>
+      <c r="C126" t="s">
+        <v>611</v>
+      </c>
+      <c r="D126" t="s">
+        <v>302</v>
+      </c>
+      <c r="E126" t="s">
+        <v>301</v>
+      </c>
+      <c r="F126" t="s">
+        <v>489</v>
+      </c>
+      <c r="G126" t="s">
+        <v>322</v>
+      </c>
+      <c r="H126" t="s">
+        <v>311</v>
+      </c>
+      <c r="I126" t="s">
+        <v>634</v>
+      </c>
+      <c r="J126" t="s">
+        <v>304</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" t="s">
+        <v>747</v>
+      </c>
+      <c r="C127" t="s">
+        <v>612</v>
+      </c>
+      <c r="F127" t="s">
+        <v>487</v>
+      </c>
+      <c r="I127" t="s">
+        <v>634</v>
+      </c>
+      <c r="J127" t="s">
+        <v>304</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128" t="s">
+        <v>613</v>
+      </c>
+      <c r="F128" t="s">
+        <v>488</v>
+      </c>
+      <c r="I128" t="s">
+        <v>634</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" t="s">
+        <v>748</v>
+      </c>
+      <c r="C129" t="s">
+        <v>614</v>
+      </c>
+      <c r="F129" t="s">
+        <v>490</v>
+      </c>
+      <c r="I129" t="s">
+        <v>634</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" t="s">
+        <v>749</v>
+      </c>
+      <c r="C130" t="s">
+        <v>615</v>
+      </c>
+      <c r="F130" t="s">
+        <v>494</v>
+      </c>
+      <c r="G130" t="s">
+        <v>140</v>
+      </c>
+      <c r="I130" t="s">
+        <v>634</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>626</v>
+      </c>
+      <c r="B131" t="s">
+        <v>750</v>
+      </c>
+      <c r="C131" t="s">
+        <v>616</v>
+      </c>
+      <c r="D131" t="s">
+        <v>150</v>
+      </c>
+      <c r="F131" t="s">
+        <v>491</v>
+      </c>
+      <c r="G131" t="s">
+        <v>163</v>
+      </c>
+      <c r="I131" t="s">
+        <v>619</v>
+      </c>
+      <c r="J131" t="s">
+        <v>304</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>118</v>
+      </c>
+      <c r="B132" t="s">
+        <v>757</v>
+      </c>
+      <c r="J132" t="s">
+        <v>139</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B133" t="s">
+        <v>758</v>
+      </c>
+      <c r="J133" t="s">
+        <v>139</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>326</v>
+      </c>
+      <c r="B134" t="s">
+        <v>758</v>
+      </c>
+      <c r="J134" t="s">
+        <v>139</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J135" t="s">
+        <v>139</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B136" t="s">
+        <v>330</v>
+      </c>
+      <c r="J136" t="s">
+        <v>139</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B137" t="s">
+        <v>759</v>
+      </c>
+      <c r="J137" t="s">
+        <v>139</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>332</v>
+      </c>
+      <c r="B138" t="s">
+        <v>760</v>
+      </c>
+      <c r="J138" t="s">
+        <v>139</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B139" t="s">
+        <v>764</v>
+      </c>
+      <c r="J139" t="s">
+        <v>139</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B140" t="s">
+        <v>335</v>
+      </c>
+      <c r="J140" t="s">
+        <v>139</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B141" t="s">
+        <v>338</v>
+      </c>
+      <c r="J141" t="s">
+        <v>139</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B142" t="s">
+        <v>761</v>
+      </c>
+      <c r="J142" t="s">
+        <v>139</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B143" t="s">
+        <v>341</v>
+      </c>
+      <c r="J143" t="s">
+        <v>139</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B144" t="s">
+        <v>343</v>
+      </c>
+      <c r="J144" t="s">
+        <v>139</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B145" t="s">
+        <v>345</v>
+      </c>
+      <c r="J145" t="s">
+        <v>139</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B146" t="s">
+        <v>347</v>
+      </c>
+      <c r="J146" t="s">
+        <v>139</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B147" t="s">
+        <v>455</v>
+      </c>
+      <c r="J147" t="s">
+        <v>139</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B148" t="s">
+        <v>456</v>
+      </c>
+      <c r="J148" t="s">
+        <v>139</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E164348-00B6-4936-8704-3CF7B80B10CD}">
   <dimension ref="A1:A131"/>
   <sheetViews>
@@ -7094,12 +10506,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView topLeftCell="A127" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132:L148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12803,7 +16215,7 @@
         <v>333</v>
       </c>
       <c r="B139" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="J139" t="s">
         <v>139</v>
@@ -12854,7 +16266,7 @@
         <v>339</v>
       </c>
       <c r="B142" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J142" t="s">
         <v>139</v>
@@ -12966,14 +16378,6 @@
       </c>
       <c r="L148">
         <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B149" t="s">
-        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -12982,7 +16386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
@@ -14213,7 +17617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>

--- a/files/GlosarioT3.xlsx
+++ b/files/GlosarioT3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\T3Glossary\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861A97E2-3551-4081-8748-4453305CF32B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E686585-3186-4C87-B1B9-283565E64CBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lexicon" sheetId="5" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="766">
   <si>
     <t>english</t>
   </si>
@@ -2377,6 +2377,9 @@
   </si>
   <si>
     <t>Retroalimentación. Devolución.</t>
+  </si>
+  <si>
+    <t>Un conjunto de cambios propuestos a un repositorio de GitHub que pueden revisarse, actualizarse y, finalmente, agregarse al repositorio.</t>
   </si>
 </sst>
 </file>
@@ -2789,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990111A-369A-41E8-8C22-1342FD4CCC65}">
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5563,7 +5566,7 @@
         <v>594</v>
       </c>
       <c r="F109" t="s">
-        <v>470</v>
+        <v>765</v>
       </c>
       <c r="I109" t="s">
         <v>634</v>
@@ -6198,7 +6201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A97E1CC-254F-4217-80A2-D2F4A8A53599}">
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+    <sheetView topLeftCell="A144" workbookViewId="0">
       <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
